--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="IAM_MENU" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">SERVICE_CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">METHOD</t>
-  </si>
-  <si>
     <t xml:space="preserve">RESOURCE_LEVEL</t>
   </si>
   <si>
@@ -51,19 +48,13 @@
     <t xml:space="preserve">PERMISSION_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLLER</t>
-  </si>
-  <si>
     <t xml:space="preserve">IS_PUBLIC_ACCESS</t>
   </si>
   <si>
     <t xml:space="preserve">IS_LOGIN_ACCESS</t>
   </si>
   <si>
-    <t xml:space="preserve">WITHIN</t>
+    <t xml:space="preserve">IS_WITHIN</t>
   </si>
   <si>
     <t xml:space="preserve">iam.user.info</t>
@@ -75,6 +66,15 @@
     <t xml:space="preserve">iam</t>
   </si>
   <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page</t>
+  </si>
+  <si>
     <t xml:space="preserve">IAM_MENU_B</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">User Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu</t>
   </si>
   <si>
     <t xml:space="preserve">IAM_MENU_PERMISSION</t>
@@ -123,6 +126,7 @@
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,6 +147,7 @@
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,29 +218,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:Q8"/>
+  <dimension ref="D7:N8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.64"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,25 +276,34 @@
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -312,16 +325,16 @@
   <dimension ref="D7:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.55"/>
@@ -356,7 +369,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>22</v>
@@ -377,13 +390,19 @@
         <v>iam.user.info</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
@@ -399,7 +418,7 @@
   <dimension ref="D7:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,27 +427,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.64"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="0" t="str">
-        <f aca="false">IAM_MENU!F8</f>
+        <f aca="false">IAM_MENU_B!F8</f>
         <v>iam.userInfo</v>
       </c>
       <c r="G8" s="0" t="str">
@@ -439,7 +458,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve">IS_WITHIN</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.organization</t>
+    <t xml:space="preserve">choerodon.route.iam.organization</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/organization</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">page</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.system-setting</t>
+    <t xml:space="preserve">choerodon.route.iam.system-setting</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/system-setting</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">系统配置路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.menu-management</t>
+    <t xml:space="preserve">choerodon.route.iam.menu-management</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/menu-setting</t>
@@ -93,7 +93,7 @@
     <t xml:space="preserve">菜单配置路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.role-label</t>
+    <t xml:space="preserve">choerodon.route.iam.role-label</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/role-label</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">角色标签路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.role</t>
+    <t xml:space="preserve">choerodon.route.iam.role</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/role</t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">角色管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.member-role-global</t>
+    <t xml:space="preserve">choerodon.route.iam.member-role-global</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/member-role</t>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">平台角色分配路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.root-user</t>
+    <t xml:space="preserve">choerodon.route.iam.root-user</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/root-user</t>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">Root用户设置路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.dashboard-management</t>
+    <t xml:space="preserve">choerodon.route.iam.dashboard-management</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/dashboard-setting</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">仪表盘配置路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.site-statistics</t>
+    <t xml:space="preserve">choerodon.route.iam.site-statistics</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/site-statistics</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">平台统计路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.iam.project-type</t>
+    <t xml:space="preserve">choerodon.route.iam.project-type</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/project-type</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">项目类型路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.microservice.micro</t>
+    <t xml:space="preserve">choerodon.route.microservice.micro</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/microservice</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">微服务管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.microservice.instance-management</t>
+    <t xml:space="preserve">choerodon.route.microservice.instance-management</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/instance</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">实例管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.microservice.config-management</t>
+    <t xml:space="preserve">choerodon.route.microservice.config-management</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/configuration</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">配置管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.microservice.route-management</t>
+    <t xml:space="preserve">choerodon.route.microservice.route-management</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/route</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">路由管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.microservice.api-management</t>
+    <t xml:space="preserve">choerodon.route.microservice.api-management</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/api-test</t>
@@ -201,13 +201,13 @@
     <t xml:space="preserve">平台接口路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.api.api-test</t>
+    <t xml:space="preserve">choerodon.route.api.api-test</t>
   </si>
   <si>
     <t xml:space="preserve">API测试路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.api.api-overview</t>
+    <t xml:space="preserve">choerodon.route.api.api-overview</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/api-overview</t>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">API概览路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.msg-center.send-setting</t>
+    <t xml:space="preserve">choerodon.route.msg-center.send-setting</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/send-setting</t>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">发送设置路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.msg-center.mail-template</t>
+    <t xml:space="preserve">choerodon.route.msg-center.mail-template</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/mail-template</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">邮件模板路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.msg-center.inmail-template</t>
+    <t xml:space="preserve">choerodon.route.msg-center.inmail-template</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/inmail-template</t>
@@ -243,7 +243,7 @@
     <t xml:space="preserve">站内信模板路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.msg-center.mail-setting</t>
+    <t xml:space="preserve">choerodon.route.msg-center.mail-setting</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/mail-setting</t>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">邮箱配置路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.msg-center.msg-record</t>
+    <t xml:space="preserve">choerodon.route.msg-center.msg-record</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/msg-record</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">发送记录路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.msg-center.announcement</t>
+    <t xml:space="preserve">choerodon.route.msg-center.announcement</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/announcement</t>
@@ -270,7 +270,7 @@
     <t xml:space="preserve">系统公告路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch.task-detail</t>
+    <t xml:space="preserve">choerodon.route.task-dispatch.task-detail</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/task-detail</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">任务明细路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch.execution-record</t>
+    <t xml:space="preserve">choerodon.route.task-dispatch.execution-record</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/execution-record</t>
@@ -288,7 +288,7 @@
     <t xml:space="preserve">执行记录路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch.task-classname</t>
+    <t xml:space="preserve">choerodon.route.task-dispatch.task-classname</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/executable-program</t>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">可执行程序路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.global-transaction.saga</t>
+    <t xml:space="preserve">choerodon.route.global-transaction.saga</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/saga</t>
@@ -306,7 +306,7 @@
     <t xml:space="preserve">事务定义路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.global-transaction.saga-instance</t>
+    <t xml:space="preserve">choerodon.route.global-transaction.saga-instance</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/saga-instance</t>
@@ -315,25 +315,25 @@
     <t xml:space="preserve">事务实例路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.statistics.saga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.statistics.saga-instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.statistics.api-report</t>
+    <t xml:space="preserve">choerodon.route.statistics.saga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.statistics.saga-instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.statistics.api-report</t>
   </si>
   <si>
     <t xml:space="preserve">API统计路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.statistics.menu-report</t>
+    <t xml:space="preserve">choerodon.route.statistics.menu-report</t>
   </si>
   <si>
     <t xml:space="preserve">菜单分析路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.project</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.project</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/project</t>
@@ -345,7 +345,7 @@
     <t xml:space="preserve">项目管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.user</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.user</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/user</t>
@@ -354,13 +354,13 @@
     <t xml:space="preserve">用户管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.member-role-organization</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.member-role-organization</t>
   </si>
   <si>
     <t xml:space="preserve">组织角色分配路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.client</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.client</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/client</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">客户端路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.ldap</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.ldap</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/ldap</t>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">LDAP路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.password-policy</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.password-policy</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/password-policy</t>
@@ -387,13 +387,13 @@
     <t xml:space="preserve">密码策略路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.saga-instance-organization</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.saga-instance-organization</t>
   </si>
   <si>
     <t xml:space="preserve">组织事务实例路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.rentsetting.organization-setting</t>
+    <t xml:space="preserve">choerodon.route.rentsetting.organization-setting</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/organization-setting</t>
@@ -402,16 +402,16 @@
     <t xml:space="preserve">组织信息路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch-organization.task-detail-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch-organization.execution-record-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch-organization.task-classname-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.app-manager-organization.app</t>
+    <t xml:space="preserve">choerodon.route.task-dispatch-organization.task-detail-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.task-dispatch-organization.execution-record-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.task-dispatch-organization.task-classname-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.app-manager-organization.app</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/application</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">应用路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.prosetting.member-role-project</t>
+    <t xml:space="preserve">choerodon.route.prosetting.member-role-project</t>
   </si>
   <si>
     <t xml:space="preserve">project</t>
@@ -429,7 +429,7 @@
     <t xml:space="preserve">项目角色分配路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.prosetting.proManage</t>
+    <t xml:space="preserve">choerodon.route.prosetting.proManage</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/project-setting</t>
@@ -438,28 +438,28 @@
     <t xml:space="preserve">项目信息路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.prosetting.saga-instance-project</t>
+    <t xml:space="preserve">choerodon.route.prosetting.saga-instance-project</t>
   </si>
   <si>
     <t xml:space="preserve">项目事务实例路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.program-setting.member-role-program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.program-setting.program-manage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch-project.task-detail-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch-project.execution-record-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.task-dispatch-project.task-classname-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.route.usercenter.user-info</t>
+    <t xml:space="preserve">choerodon.route.program-setting.member-role-program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.program-setting.program-manage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.task-dispatch-project.task-detail-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.task-dispatch-project.execution-record-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.task-dispatch-project.task-classname-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.usercenter.user-info</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/user-info</t>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">个人信息路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.usercenter.password</t>
+    <t xml:space="preserve">choerodon.route.usercenter.password</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/password</t>
@@ -480,7 +480,7 @@
     <t xml:space="preserve">修改密码路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.usercenter.permission-info</t>
+    <t xml:space="preserve">choerodon.route.usercenter.permission-info</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/permission-info</t>
@@ -489,7 +489,7 @@
     <t xml:space="preserve">权限信息路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.usercenter.token-manager</t>
+    <t xml:space="preserve">choerodon.route.usercenter.token-manager</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/token-manager</t>
@@ -498,7 +498,7 @@
     <t xml:space="preserve">授权管理路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.usercenter.user-msg</t>
+    <t xml:space="preserve">choerodon.route.usercenter.user-msg</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/user-msg</t>
@@ -507,7 +507,7 @@
     <t xml:space="preserve">消息通知路由</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.route.usercenter.receive-setting</t>
+    <t xml:space="preserve">choerodon.route.usercenter.receive-setting</t>
   </si>
   <si>
     <t xml:space="preserve">/iam/receive-setting</t>
@@ -540,7 +540,7 @@
     <t xml:space="preserve">SORT</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam</t>
+    <t xml:space="preserve">choerodon.code.iam</t>
   </si>
   <si>
     <t xml:space="preserve">平台设置</t>
@@ -555,7 +555,7 @@
     <t xml:space="preserve">IAM</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.organization</t>
+    <t xml:space="preserve">choerodon.code.iam.organization</t>
   </si>
   <si>
     <t xml:space="preserve">组织管理</t>
@@ -567,7 +567,7 @@
     <t xml:space="preserve">menu_item</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.system-setting</t>
+    <t xml:space="preserve">choerodon.code.iam.system-setting</t>
   </si>
   <si>
     <t xml:space="preserve">系统配置</t>
@@ -576,7 +576,7 @@
     <t xml:space="preserve">System Config</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.menu-management</t>
+    <t xml:space="preserve">choerodon.code.iam.menu-management</t>
   </si>
   <si>
     <t xml:space="preserve">菜单配置</t>
@@ -585,7 +585,7 @@
     <t xml:space="preserve">Menu Setting</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.role-label</t>
+    <t xml:space="preserve">choerodon.code.iam.role-label</t>
   </si>
   <si>
     <t xml:space="preserve">角色标签</t>
@@ -594,7 +594,7 @@
     <t xml:space="preserve">Role Label</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.role</t>
+    <t xml:space="preserve">choerodon.code.iam.role</t>
   </si>
   <si>
     <t xml:space="preserve">角色管理</t>
@@ -603,7 +603,7 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.member-role-global</t>
+    <t xml:space="preserve">choerodon.code.iam.member-role-global</t>
   </si>
   <si>
     <t xml:space="preserve">平台角色分配</t>
@@ -612,7 +612,7 @@
     <t xml:space="preserve">Role Assignment</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.root-user</t>
+    <t xml:space="preserve">choerodon.code.iam.root-user</t>
   </si>
   <si>
     <t xml:space="preserve">Root用户设置</t>
@@ -621,7 +621,7 @@
     <t xml:space="preserve">Root User Setting</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.dashboard-management</t>
+    <t xml:space="preserve">choerodon.code.iam.dashboard-management</t>
   </si>
   <si>
     <t xml:space="preserve">仪表盘配置</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Dashboard Setting</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.site-statistics</t>
+    <t xml:space="preserve">choerodon.code.iam.site-statistics</t>
   </si>
   <si>
     <t xml:space="preserve">平台统计</t>
@@ -639,7 +639,7 @@
     <t xml:space="preserve">Site Statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.iam.project-type</t>
+    <t xml:space="preserve">choerodon.code.iam.project-type</t>
   </si>
   <si>
     <t xml:space="preserve">项目类型</t>
@@ -648,7 +648,7 @@
     <t xml:space="preserve">Project Type</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.microservice</t>
+    <t xml:space="preserve">choerodon.code.microservice</t>
   </si>
   <si>
     <t xml:space="preserve">平台服务</t>
@@ -660,7 +660,7 @@
     <t xml:space="preserve">pages</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.microservice.micro</t>
+    <t xml:space="preserve">choerodon.code.microservice.micro</t>
   </si>
   <si>
     <t xml:space="preserve">微服务管理</t>
@@ -672,7 +672,7 @@
     <t xml:space="preserve">microservice</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.microservice.instance-management</t>
+    <t xml:space="preserve">choerodon.code.microservice.instance-management</t>
   </si>
   <si>
     <t xml:space="preserve">实例管理</t>
@@ -681,7 +681,7 @@
     <t xml:space="preserve">Instance Management</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.microservice.config-management</t>
+    <t xml:space="preserve">choerodon.code.microservice.config-management</t>
   </si>
   <si>
     <t xml:space="preserve">配置管理</t>
@@ -690,7 +690,7 @@
     <t xml:space="preserve">Config Management</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.microservice.route-management</t>
+    <t xml:space="preserve">choerodon.code.microservice.route-management</t>
   </si>
   <si>
     <t xml:space="preserve">路由管理</t>
@@ -699,7 +699,7 @@
     <t xml:space="preserve">Route Management</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.microservice.api-management</t>
+    <t xml:space="preserve">choerodon.code.microservice.api-management</t>
   </si>
   <si>
     <t xml:space="preserve">平台接口</t>
@@ -708,7 +708,7 @@
     <t xml:space="preserve">Api Management</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.api</t>
+    <t xml:space="preserve">choerodon.code.api</t>
   </si>
   <si>
     <t xml:space="preserve">API管理</t>
@@ -720,7 +720,7 @@
     <t xml:space="preserve">API</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.api.api-test</t>
+    <t xml:space="preserve">choerodon.code.api.api-test</t>
   </si>
   <si>
     <t xml:space="preserve">API测试</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">api</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.api.api-overview</t>
+    <t xml:space="preserve">choerodon.code.api.api-overview</t>
   </si>
   <si>
     <t xml:space="preserve">API概览</t>
@@ -741,7 +741,7 @@
     <t xml:space="preserve">API Overview</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.msg-center</t>
+    <t xml:space="preserve">choerodon.code.msg-center</t>
   </si>
   <si>
     <t xml:space="preserve">消息中心</t>
@@ -753,7 +753,7 @@
     <t xml:space="preserve">center</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.msg-center.send-setting</t>
+    <t xml:space="preserve">choerodon.code.msg-center.send-setting</t>
   </si>
   <si>
     <t xml:space="preserve">发送设置</t>
@@ -765,7 +765,7 @@
     <t xml:space="preserve">msg-center</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.msg-center.mail-template</t>
+    <t xml:space="preserve">choerodon.code.msg-center.mail-template</t>
   </si>
   <si>
     <t xml:space="preserve">邮件模板</t>
@@ -774,7 +774,7 @@
     <t xml:space="preserve">Mail Template</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.msg-center.inmail-template</t>
+    <t xml:space="preserve">choerodon.code.msg-center.inmail-template</t>
   </si>
   <si>
     <t xml:space="preserve">站内信模板</t>
@@ -783,7 +783,7 @@
     <t xml:space="preserve">Website Mail Template</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.msg-center.mail-setting</t>
+    <t xml:space="preserve">choerodon.code.msg-center.mail-setting</t>
   </si>
   <si>
     <t xml:space="preserve">邮箱配置</t>
@@ -792,7 +792,7 @@
     <t xml:space="preserve">Mail Config</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.msg-center.msg-record</t>
+    <t xml:space="preserve">choerodon.code.msg-center.msg-record</t>
   </si>
   <si>
     <t xml:space="preserve">发送记录</t>
@@ -801,7 +801,7 @@
     <t xml:space="preserve">Message Record</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.msg-center.announcement</t>
+    <t xml:space="preserve">choerodon.code.msg-center.announcement</t>
   </si>
   <si>
     <t xml:space="preserve">系统公告</t>
@@ -810,7 +810,7 @@
     <t xml:space="preserve">Announcement</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch</t>
+    <t xml:space="preserve">choerodon.code.task-dispatch</t>
   </si>
   <si>
     <t xml:space="preserve">任务调度</t>
@@ -822,7 +822,7 @@
     <t xml:space="preserve">task_schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch.task-detail</t>
+    <t xml:space="preserve">choerodon.code.task-dispatch.task-detail</t>
   </si>
   <si>
     <t xml:space="preserve">任务明细</t>
@@ -834,7 +834,7 @@
     <t xml:space="preserve">task-dispatch</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch.execution-record</t>
+    <t xml:space="preserve">choerodon.code.task-dispatch.execution-record</t>
   </si>
   <si>
     <t xml:space="preserve">执行记录</t>
@@ -843,7 +843,7 @@
     <t xml:space="preserve">Execution Record</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch.task-classname</t>
+    <t xml:space="preserve">choerodon.code.task-dispatch.task-classname</t>
   </si>
   <si>
     <t xml:space="preserve">可执行程序</t>
@@ -852,7 +852,7 @@
     <t xml:space="preserve">Executable Program</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.global-transaction</t>
+    <t xml:space="preserve">choerodon.code.global-transaction</t>
   </si>
   <si>
     <t xml:space="preserve">全局事务</t>
@@ -864,7 +864,7 @@
     <t xml:space="preserve">developer_board</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.global-transaction.saga</t>
+    <t xml:space="preserve">choerodon.code.global-transaction.saga</t>
   </si>
   <si>
     <t xml:space="preserve">事务定义</t>
@@ -876,7 +876,7 @@
     <t xml:space="preserve">global-transaction</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.global-transaction.saga-instance</t>
+    <t xml:space="preserve">choerodon.code.global-transaction.saga-instance</t>
   </si>
   <si>
     <t xml:space="preserve">事务实例</t>
@@ -885,22 +885,22 @@
     <t xml:space="preserve">Saga Instance</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.statistics</t>
+    <t xml:space="preserve">choerodon.code.statistics</t>
   </si>
   <si>
     <t xml:space="preserve">bar_chart</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.statistics.saga</t>
+    <t xml:space="preserve">choerodon.code.statistics.saga</t>
   </si>
   <si>
     <t xml:space="preserve">statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.statistics.saga-instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.statistics.api-report</t>
+    <t xml:space="preserve">choerodon.code.statistics.saga-instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.statistics.api-report</t>
   </si>
   <si>
     <t xml:space="preserve">API统计</t>
@@ -909,7 +909,7 @@
     <t xml:space="preserve">Api Overview</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.statistics.menu-report</t>
+    <t xml:space="preserve">choerodon.code.statistics.menu-report</t>
   </si>
   <si>
     <t xml:space="preserve">菜单分析</t>
@@ -918,7 +918,7 @@
     <t xml:space="preserve">Menu Report</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting</t>
+    <t xml:space="preserve">choerodon.code.rentsetting</t>
   </si>
   <si>
     <t xml:space="preserve">组织设置</t>
@@ -927,7 +927,7 @@
     <t xml:space="preserve">Organization settings</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.project</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.project</t>
   </si>
   <si>
     <t xml:space="preserve">项目管理</t>
@@ -939,7 +939,7 @@
     <t xml:space="preserve">rentsetting</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.user</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.user</t>
   </si>
   <si>
     <t xml:space="preserve">用户管理</t>
@@ -948,13 +948,13 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.member-role-organization</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.member-role-organization</t>
   </si>
   <si>
     <t xml:space="preserve">组织角色分配</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.client</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.client</t>
   </si>
   <si>
     <t xml:space="preserve">客户端</t>
@@ -963,13 +963,13 @@
     <t xml:space="preserve">Client</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.ldap</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.ldap</t>
   </si>
   <si>
     <t xml:space="preserve">LDAP</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.password-policy</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.password-policy</t>
   </si>
   <si>
     <t xml:space="preserve">密码策略</t>
@@ -978,13 +978,13 @@
     <t xml:space="preserve">Password Policy</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.saga-instance-organization</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.saga-instance-organization</t>
   </si>
   <si>
     <t xml:space="preserve">组织事务实例</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.rentsetting.organization-setting</t>
+    <t xml:space="preserve">choerodon.code.rentsetting.organization-setting</t>
   </si>
   <si>
     <t xml:space="preserve">组织信息</t>
@@ -993,22 +993,22 @@
     <t xml:space="preserve">Organization Info</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-organization.task-detail-organization</t>
+    <t xml:space="preserve">choerodon.code.task-dispatch-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.task-dispatch-organization.task-detail-organization</t>
   </si>
   <si>
     <t xml:space="preserve">task-dispatch-organization</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-organization.execution-record-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-organization.task-classname-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.app-manager-organization</t>
+    <t xml:space="preserve">choerodon.code.task-dispatch-organization.execution-record-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.task-dispatch-organization.task-classname-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.app-manager-organization</t>
   </si>
   <si>
     <t xml:space="preserve">应用管理</t>
@@ -1020,7 +1020,7 @@
     <t xml:space="preserve">apps</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.app-manager-organization.app</t>
+    <t xml:space="preserve">choerodon.code.app-manager-organization.app</t>
   </si>
   <si>
     <t xml:space="preserve">应用</t>
@@ -1032,7 +1032,7 @@
     <t xml:space="preserve">app-manager-organization</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.prosetting</t>
+    <t xml:space="preserve">choerodon.code.prosetting</t>
   </si>
   <si>
     <t xml:space="preserve">项目设置</t>
@@ -1041,7 +1041,7 @@
     <t xml:space="preserve">Project Manage</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.prosetting.member-role-project</t>
+    <t xml:space="preserve">choerodon.code.prosetting.member-role-project</t>
   </si>
   <si>
     <t xml:space="preserve">项目角色分配</t>
@@ -1050,46 +1050,46 @@
     <t xml:space="preserve">prosetting</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.prosetting.proManage</t>
+    <t xml:space="preserve">choerodon.code.prosetting.proManage</t>
   </si>
   <si>
     <t xml:space="preserve">项目信息</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.prosetting.saga-instance-project</t>
+    <t xml:space="preserve">choerodon.code.prosetting.saga-instance-project</t>
   </si>
   <si>
     <t xml:space="preserve">项目事务实例</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.program-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.program-setting.member-role-program</t>
+    <t xml:space="preserve">choerodon.code.program-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.program-setting.member-role-program</t>
   </si>
   <si>
     <t xml:space="preserve">program-setting</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.program-setting.program-manage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-project.task-detail-project</t>
+    <t xml:space="preserve">choerodon.code.program-setting.program-manage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.task-dispatch-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.task-dispatch-project.task-detail-project</t>
   </si>
   <si>
     <t xml:space="preserve">task-dispatch-project</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-project.execution-record-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.task-dispatch-project.task-classname-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherodon.menu.usercenter</t>
+    <t xml:space="preserve">choerodon.code.task-dispatch-project.execution-record-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.task-dispatch-project.task-classname-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.usercenter</t>
   </si>
   <si>
     <t xml:space="preserve">个人中心</t>
@@ -1101,7 +1101,7 @@
     <t xml:space="preserve">accessibility</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.usercenter.user-info</t>
+    <t xml:space="preserve">choerodon.code.usercenter.user-info</t>
   </si>
   <si>
     <t xml:space="preserve">个人信息</t>
@@ -1113,7 +1113,7 @@
     <t xml:space="preserve">usercenter</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.usercenter.password</t>
+    <t xml:space="preserve">choerodon.code.usercenter.password</t>
   </si>
   <si>
     <t xml:space="preserve">修改密码</t>
@@ -1122,7 +1122,7 @@
     <t xml:space="preserve">Password Modification</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.usercenter.permission-info</t>
+    <t xml:space="preserve">choerodon.code.usercenter.permission-info</t>
   </si>
   <si>
     <t xml:space="preserve">权限信息</t>
@@ -1131,7 +1131,7 @@
     <t xml:space="preserve">Permission Info</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.usercenter.token-manager</t>
+    <t xml:space="preserve">choerodon.code.usercenter.token-manager</t>
   </si>
   <si>
     <t xml:space="preserve">授权管理</t>
@@ -1140,7 +1140,7 @@
     <t xml:space="preserve">Token Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.usercenter.user-msg</t>
+    <t xml:space="preserve">choerodon.code.usercenter.user-msg</t>
   </si>
   <si>
     <t xml:space="preserve">消息通知</t>
@@ -1149,7 +1149,7 @@
     <t xml:space="preserve">Message Notification</t>
   </si>
   <si>
-    <t xml:space="preserve">cherodon.menu.usercenter.receive-setting</t>
+    <t xml:space="preserve">choerodon.code.usercenter.receive-setting</t>
   </si>
   <si>
     <t xml:space="preserve">接收设置</t>
@@ -1871,7 +1871,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.96"/>
@@ -3628,7 +3628,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.12"/>
@@ -5914,8 +5914,8 @@
   </sheetPr>
   <dimension ref="D7:G230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5923,7 +5923,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.64"/>
   </cols>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>manage_organization</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -3092,11 +3092,11 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>view_list</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -3192,11 +3192,11 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>role_tag</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3242,11 +3242,11 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>assignment_ind</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -3292,11 +3292,11 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>person_add</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3342,11 +3342,11 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>root</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3392,11 +3392,11 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>donut_small</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>timeline</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>project_list</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -3587,11 +3587,11 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>microservice</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3637,11 +3637,11 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -3687,11 +3687,11 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>settings_input_composite</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>routeroutline</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -3787,11 +3787,11 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>API</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>APItest</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -3932,11 +3932,11 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>dashboard</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -4027,11 +4027,11 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>mail_set</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>application_model</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -4127,11 +4127,11 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>inmail_template</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -4177,11 +4177,11 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>contact_mail</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4227,11 +4227,11 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>speaker_notes</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -4277,11 +4277,11 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>volume_up</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -4372,11 +4372,11 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4422,11 +4422,11 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>work_log</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>classname</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>developer_board</t>
+          <t>saga_define</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4617,11 +4617,11 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>developer_board</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -4712,11 +4712,11 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>bar_chart</t>
+          <t>saga_define</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4762,11 +4762,11 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>bar_chart</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -4812,11 +4812,11 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>bar_chart</t>
+          <t>dashboard</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4862,11 +4862,11 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>bar_chart</t>
+          <t>timeline</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4957,11 +4957,11 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>manage_project</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>manage_person</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -5057,11 +5057,11 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>person_add</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -5107,11 +5107,11 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>laptop_mac</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>device_hub</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -5207,11 +5207,11 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>password</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -5257,11 +5257,11 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -5307,11 +5307,11 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>settings_applications</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -5402,11 +5402,11 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5452,11 +5452,11 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>work_log</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -5502,11 +5502,11 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>classname</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -5597,11 +5597,11 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>apps</t>
+          <t>widgets</t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -5692,11 +5692,11 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>person_add</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -5742,11 +5742,11 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>settings_applications</t>
         </is>
       </c>
       <c r="O64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -5792,11 +5792,11 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -5887,11 +5887,11 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>person_add</t>
         </is>
       </c>
       <c r="O67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -5937,11 +5937,11 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>settings_applications</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -6032,11 +6032,11 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="O70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -6082,11 +6082,11 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>work_log</t>
         </is>
       </c>
       <c r="O71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -6132,11 +6132,11 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>classname</t>
         </is>
       </c>
       <c r="O72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>person</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -6277,11 +6277,11 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>vpn_key</t>
         </is>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>project</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -6377,11 +6377,11 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -6427,11 +6427,11 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>message_notification</t>
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -6477,11 +6477,11 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="LC_TABLE_RELATION" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="IAM_DASHBOARD" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="IAM_DASHBOARD_ROLE" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="712">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -2054,6 +2056,111 @@
   </si>
   <si>
     <t xml:space="preserve">iam-service.fd_lookup.ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMESPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD_LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEED_ROLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_ENABLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">您可以在此查看平台内的系统公告。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import_contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"width": 4, "positionX": 4, "positionY": 0, "height": 4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineUsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在线用户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">您可以实时了解此刻用户访问情况、当天不同时段用户访问情况以及当天的用户总访问量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_voice_over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"width": 4, "positionX": 0, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrganizationStatistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">组织统计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">您可以在此了解平台组织统计的情况。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"width": 4, "positionX": 8, "positionY": 0, "height": 4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FailedSaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事务失败情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">您可以在此了解事务实例最近30天的执行失败情况。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"width": 4, "positionX": 8, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddedUsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增用户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">您可以在此了解平台今日新增用户与总用户数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"width": 4, "positionX": 4, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM_DASHBOARD_ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DASHBOARD_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ROLE_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role/site/default/administrator</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2254,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5971,7 +6078,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.6"/>
   </cols>
@@ -7704,8 +7811,8 @@
   </sheetPr>
   <dimension ref="D3:L43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8798,4 +8905,395 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D7:R12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="23.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="46.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.64"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D7:G12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.64"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="358">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">@PARENT_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RESOURCE_LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">TYPE</t>
@@ -2008,7 +2011,7 @@
   <dimension ref="D7:O38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2052,42 +2055,42 @@
         <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
@@ -2095,13 +2098,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -2110,16 +2113,16 @@
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>1</v>
@@ -2127,13 +2130,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>17</v>
@@ -2142,16 +2145,16 @@
         <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="1" t="n">
         <v>10</v>
@@ -2159,13 +2162,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>20</v>
@@ -2174,16 +2177,16 @@
         <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>6</v>
@@ -2191,13 +2194,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
@@ -2206,16 +2209,16 @@
         <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O12" s="1" t="n">
         <v>2</v>
@@ -2223,13 +2226,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>26</v>
@@ -2238,16 +2241,16 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O13" s="1" t="n">
         <v>3</v>
@@ -2255,13 +2258,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>29</v>
@@ -2270,16 +2273,16 @@
         <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>4</v>
@@ -2287,13 +2290,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>32</v>
@@ -2302,16 +2305,16 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>5</v>
@@ -2319,13 +2322,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>35</v>
@@ -2334,16 +2337,16 @@
         <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>7</v>
@@ -2351,13 +2354,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>38</v>
@@ -2366,16 +2369,16 @@
         <v>13</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>8</v>
@@ -2383,28 +2386,28 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>2</v>
@@ -2412,13 +2415,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>41</v>
@@ -2427,16 +2430,16 @@
         <v>13</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>1</v>
@@ -2444,13 +2447,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>45</v>
@@ -2459,16 +2462,16 @@
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>2</v>
@@ -2476,13 +2479,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>48</v>
@@ -2491,16 +2494,16 @@
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O21" s="1" t="n">
         <v>3</v>
@@ -2508,13 +2511,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>50</v>
@@ -2523,16 +2526,16 @@
         <v>13</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>4</v>
@@ -2540,13 +2543,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>53</v>
@@ -2555,16 +2558,16 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>5</v>
@@ -2572,13 +2575,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>56</v>
@@ -2587,16 +2590,16 @@
         <v>13</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O24" s="1" t="n">
         <v>6</v>
@@ -2604,13 +2607,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>59</v>
@@ -2619,16 +2622,16 @@
         <v>13</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>10</v>
@@ -2636,28 +2639,28 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>5</v>
@@ -2665,13 +2668,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>62</v>
@@ -2680,16 +2683,16 @@
         <v>13</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>1</v>
@@ -2697,28 +2700,28 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>6</v>
@@ -2726,13 +2729,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>65</v>
@@ -2741,16 +2744,16 @@
         <v>13</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>1</v>
@@ -2758,13 +2761,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>68</v>
@@ -2773,16 +2776,16 @@
         <v>13</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>2</v>
@@ -2790,28 +2793,28 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>6</v>
@@ -2819,13 +2822,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>71</v>
@@ -2834,16 +2837,16 @@
         <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>1</v>
@@ -2851,13 +2854,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>72</v>
@@ -2866,16 +2869,16 @@
         <v>13</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>2</v>
@@ -2883,28 +2886,28 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O34" s="1" t="n">
         <v>1</v>
@@ -2912,13 +2915,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>73</v>
@@ -2927,16 +2930,16 @@
         <v>13</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O35" s="1" t="n">
         <v>1</v>
@@ -2944,13 +2947,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>77</v>
@@ -2959,16 +2962,16 @@
         <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O36" s="1" t="n">
         <v>2</v>
@@ -2976,13 +2979,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>80</v>
@@ -2991,16 +2994,16 @@
         <v>13</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O37" s="1" t="n">
         <v>3</v>
@@ -3008,13 +3011,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>83</v>
@@ -3023,16 +3026,16 @@
         <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O38" s="1" t="n">
         <v>4</v>
@@ -3072,1016 +3075,1016 @@
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F54" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F55" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F93" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F94" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F95" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F97" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F98" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F99" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F100" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F103" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F104" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F105" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F109" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F110" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F112" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F114" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F115" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F116" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F117" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F119" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F120" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F121" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F122" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F123" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F124" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F125" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F126" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F128" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F129" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F130" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F131" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F132" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4124,7 +4127,7 @@
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>1</v>
@@ -4133,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>87</v>
@@ -4142,63 +4145,63 @@
         <v>88</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="J8" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>3</v>
@@ -4210,39 +4213,39 @@
         <v>1</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>333</v>
-      </c>
       <c r="J9" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>11</v>
@@ -4254,39 +4257,39 @@
         <v>1</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>338</v>
-      </c>
       <c r="J10" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>12</v>
@@ -4298,39 +4301,39 @@
         <v>1</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="J11" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>9</v>
@@ -4342,39 +4345,39 @@
         <v>1</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="J12" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>10</v>
@@ -4386,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4423,56 +4426,56 @@
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,1238 +1,2064 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="IAM_DASHBOARD" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="IAM_DASHBOARD_ROLE" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
+    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
+    <sheet name="IAM_DASHBOARD_ROLE" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="358">
   <si>
-    <t xml:space="preserve">IAM_PERMISSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICE_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERMISSION_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_PUBLIC_ACCESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_LOGIN_ACCESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_WITHIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织管理路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.system-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/system-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">系统配置路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.menu-management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/menu-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">菜单配置路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.role-label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/role-label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">角色标签路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">角色管理路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.member-role-global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/member-role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平台角色分配路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.root-user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/root-user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root用户设置路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.dashboard-management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/dashboard-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仪表盘配置路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.iam.project-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/project-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目类型路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.rentsetting.project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目管理路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.rentsetting.user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户管理路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.rentsetting.member-role-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织角色分配路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.rentsetting.client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">客户端路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.rentsetting.ldap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/ldap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDAP路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.rentsetting.password-policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/password-policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码策略路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.rentsetting.organization-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/organization-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织信息路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.app-manager-organization.app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应用路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.prosetting.member-role-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目角色分配路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.prosetting.proManage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/project-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目信息路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.program-setting.member-role-program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.program-setting.program-manage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.usercenter.user-info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/user-info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">个人信息路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.usercenter.password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修改密码路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.usercenter.permission-info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/permission-info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">权限信息路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.route.usercenter.token-manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iam/token-manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">授权管理路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM_MENU_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME:zh_CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME:en_US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@PARENT_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@SORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平台设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.top.site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manage_organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.system-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">系统配置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.menu-management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">菜单配置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.role-label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">角色标签</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">角色管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assignment_ind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.member-role-global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平台角色分配</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role Assignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.root-user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root用户设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root User Setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.dashboard-management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仪表盘配置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard Setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donut_small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.iam.project-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.top.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting.project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manage_project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting.user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manage_person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting.member-role-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织角色分配</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting.client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">客户端</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laptop_mac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting.ldap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device_hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting.password-policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码策略</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.rentsetting.organization-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settings_applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.app-manager-organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应用管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.app-manager-organization.app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">widgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.prosetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Manage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.top.project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.prosetting.member-role-project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目角色分配</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.prosetting.proManage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.program-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.program-setting.member-role-program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.program-setting.program-manage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.usercenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">个人中心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.top.user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accessibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.usercenter.user-info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">个人信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Information Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.usercenter.password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修改密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password Modification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vpn_key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.usercenter.permission-info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">权限信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.usercenter.token-manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">授权管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#MENU_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organization-service.organization.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization.query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization.disableOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization.enableOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.system-setting.addSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.system-setting.updateSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.system-setting.resetSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.system-setting.uploadFavicon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.system-setting.uploadLogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.menu.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.menu.saveListTree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.menu.query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.menu.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.menu.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.label.listByType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.createBaseOnRoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.listRolesWithUserCountOnSiteLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.queryWithPermissionsAndLabels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.disableRole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role.enableRole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryUsersByRoleIdOnSiteLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.createOrUpdateOnSiteLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.deleteOnSiteLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryUsersWithSiteLevelRoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.listRolesWithClientCountOnSiteLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryClientsWithSiteLevelRoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.pagingQueryAdminUsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.addDefaultUsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.deleteDefaultUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.dashboard.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.dashboard.query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.dashboard.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.project-type.pagingQuery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.project-type.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.project-type.check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.project-type.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-project.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-project.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-project.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-project.check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-project.enableProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-project.disableProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.disableUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.enableUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.unlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization-user.resetUserPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.createOrUpdateOnOrganizationLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.deleteOnOrganizationLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.listRolesWithUserCountOnOrganizationLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryUsersByRoleIdOnOrganizationLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryUsersWithOrganizationLevelRoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.listRolesWithClientCountOnOrganizationLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryClientsByRoleIdOnOrganizationLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryClientsWithOrganizationLevelRoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.client.check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.client.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.client.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.client.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.client.query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.client.queryByName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.client.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.queryByOrgId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.disableLdap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.enableLdap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.syncUsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.testConnect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.pagingQueryHistories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.ldap.pagingQueryErrorUsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.password-policy.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.password-policy.queryByOrganizationId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.password-policy.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.organization.queryOrgLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.application.pagingQuery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.application.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.application.types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.application.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.application.disable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.application.enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.deleteOnProjectLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.listRolesWithUserCountOnProjectLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryUsersByRoleIdOnProjectLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryUsersWithProjectLevelRoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.listRolesWithClientCountOnProjectLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryClientsWithProjectLevelRoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.role-member.pagingQueryClientsByRoleIdOnProjectLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.project.disableProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.project.query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.project.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.queryInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.updateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.uploadPhoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.querySelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.selfUpdatePassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.user.pagingQueryRole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.access-token.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam-service.access-token.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM_DASHBOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAMESPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD_LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEED_ROLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_ENABLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@POSITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Announcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您可以在此查看平台内的系统公告。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import_contacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"width": 4, "positionX": 4, "positionY": 0, "height": 4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnlineUsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在线用户</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您可以实时了解此刻用户访问情况、当天不同时段用户访问情况以及当天的用户总访问量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">record_voice_over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"width": 4, "positionX": 0, "positionY": 4, "height": 4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrganizationStatistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织统计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您可以在此了解平台组织统计的情况。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"width": 4, "positionX": 8, "positionY": 0, "height": 4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FailedSaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">事务失败情况</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您可以在此了解事务实例最近30天的执行失败情况。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task_schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"width": 4, "positionX": 8, "positionY": 4, "height": 4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddedUsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增用户</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您可以在此了解平台今日新增用户与总用户数。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"width": 4, "positionX": 4, "positionY": 4, "height": 4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM_DASHBOARD_ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DASHBOARD_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ROLE_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role/site/default/administrator</t>
+    <t>IAM_PERMISSION</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>SERVICE_CODE</t>
+  </si>
+  <si>
+    <t>RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PERMISSION_TYPE</t>
+  </si>
+  <si>
+    <t>IS_PUBLIC_ACCESS</t>
+  </si>
+  <si>
+    <t>IS_LOGIN_ACCESS</t>
+  </si>
+  <si>
+    <t>IS_WITHIN</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.organization</t>
+  </si>
+  <si>
+    <t>/iam/organization</t>
+  </si>
+  <si>
+    <t>iam-service</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>组织管理路由</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.system-setting</t>
+  </si>
+  <si>
+    <t>/iam/system-setting</t>
+  </si>
+  <si>
+    <t>系统配置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.menu-management</t>
+  </si>
+  <si>
+    <t>/iam/menu-setting</t>
+  </si>
+  <si>
+    <t>菜单配置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.role-label</t>
+  </si>
+  <si>
+    <t>/iam/role-label</t>
+  </si>
+  <si>
+    <t>角色标签路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.role</t>
+  </si>
+  <si>
+    <t>/iam/role</t>
+  </si>
+  <si>
+    <t>角色管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.member-role-global</t>
+  </si>
+  <si>
+    <t>/iam/member-role</t>
+  </si>
+  <si>
+    <t>平台角色分配路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.root-user</t>
+  </si>
+  <si>
+    <t>/iam/root-user</t>
+  </si>
+  <si>
+    <t>Root用户设置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.dashboard-management</t>
+  </si>
+  <si>
+    <t>/iam/dashboard-setting</t>
+  </si>
+  <si>
+    <t>仪表盘配置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.project-type</t>
+  </si>
+  <si>
+    <t>/iam/project-type</t>
+  </si>
+  <si>
+    <t>项目类型路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.project</t>
+  </si>
+  <si>
+    <t>/iam/project</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>项目管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.user</t>
+  </si>
+  <si>
+    <t>/iam/user</t>
+  </si>
+  <si>
+    <t>用户管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.member-role-organization</t>
+  </si>
+  <si>
+    <t>组织角色分配路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.client</t>
+  </si>
+  <si>
+    <t>/iam/client</t>
+  </si>
+  <si>
+    <t>客户端路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.ldap</t>
+  </si>
+  <si>
+    <t>/iam/ldap</t>
+  </si>
+  <si>
+    <t>LDAP路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.password-policy</t>
+  </si>
+  <si>
+    <t>/iam/password-policy</t>
+  </si>
+  <si>
+    <t>密码策略路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.organization-setting</t>
+  </si>
+  <si>
+    <t>/iam/organization-setting</t>
+  </si>
+  <si>
+    <t>组织信息路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.app-manager-organization.app</t>
+  </si>
+  <si>
+    <t>/iam/application</t>
+  </si>
+  <si>
+    <t>应用路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.member-role-project</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目角色分配路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.proManage</t>
+  </si>
+  <si>
+    <t>/iam/project-setting</t>
+  </si>
+  <si>
+    <t>项目信息路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.program-setting.member-role-program</t>
+  </si>
+  <si>
+    <t>choerodon.route.program-setting.program-manage</t>
+  </si>
+  <si>
+    <t>choerodon.route.usercenter.user-info</t>
+  </si>
+  <si>
+    <t>/iam/user-info</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>个人信息路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.usercenter.password</t>
+  </si>
+  <si>
+    <t>/iam/password</t>
+  </si>
+  <si>
+    <t>修改密码路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.usercenter.permission-info</t>
+  </si>
+  <si>
+    <t>/iam/permission-info</t>
+  </si>
+  <si>
+    <t>权限信息路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.usercenter.token-manager</t>
+  </si>
+  <si>
+    <t>/iam/token-manager</t>
+  </si>
+  <si>
+    <t>授权管理路由</t>
+  </si>
+  <si>
+    <t>IAM_MENU_B</t>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>PAGE_PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>@PARENT_CODE</t>
+  </si>
+  <si>
+    <t>@RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>@TYPE</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>@SORT</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam</t>
+  </si>
+  <si>
+    <t>平台设置</t>
+  </si>
+  <si>
+    <t>platform settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.site</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.organization</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>manage_organization</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.system-setting</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>System Config</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.menu-management</t>
+  </si>
+  <si>
+    <t>菜单配置</t>
+  </si>
+  <si>
+    <t>Menu Setting</t>
+  </si>
+  <si>
+    <t>view_list</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.role-label</t>
+  </si>
+  <si>
+    <t>角色标签</t>
+  </si>
+  <si>
+    <t>Role Label</t>
+  </si>
+  <si>
+    <t>role_tag</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.role</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>assignment_ind</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.member-role-global</t>
+  </si>
+  <si>
+    <t>平台角色分配</t>
+  </si>
+  <si>
+    <t>Role Assignment</t>
+  </si>
+  <si>
+    <t>person_add</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.root-user</t>
+  </si>
+  <si>
+    <t>Root用户设置</t>
+  </si>
+  <si>
+    <t>Root User Setting</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.dashboard-management</t>
+  </si>
+  <si>
+    <t>仪表盘配置</t>
+  </si>
+  <si>
+    <t>Dashboard Setting</t>
+  </si>
+  <si>
+    <t>donut_small</t>
+  </si>
+  <si>
+    <t>choerodon.code.iam.project-type</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>Project Type</t>
+  </si>
+  <si>
+    <t>project_list</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting</t>
+  </si>
+  <si>
+    <t>组织设置</t>
+  </si>
+  <si>
+    <t>Organization settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.project</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>manage_project</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.user</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>manage_person</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.member-role-organization</t>
+  </si>
+  <si>
+    <t>组织角色分配</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.client</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>laptop_mac</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.ldap</t>
+  </si>
+  <si>
+    <t>LDAP</t>
+  </si>
+  <si>
+    <t>device_hub</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.password-policy</t>
+  </si>
+  <si>
+    <t>密码策略</t>
+  </si>
+  <si>
+    <t>Password Policy</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.organization-setting</t>
+  </si>
+  <si>
+    <t>组织信息</t>
+  </si>
+  <si>
+    <t>Organization Info</t>
+  </si>
+  <si>
+    <t>settings_applications</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-manager-organization</t>
+  </si>
+  <si>
+    <t>应用管理</t>
+  </si>
+  <si>
+    <t>Application Manager</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-manager-organization.app</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting</t>
+  </si>
+  <si>
+    <t>项目设置</t>
+  </si>
+  <si>
+    <t>Project Manage</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.member-role-project</t>
+  </si>
+  <si>
+    <t>项目角色分配</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.proManage</t>
+  </si>
+  <si>
+    <t>项目信息</t>
+  </si>
+  <si>
+    <t>choerodon.code.program-setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.program-setting.member-role-program</t>
+  </si>
+  <si>
+    <t>choerodon.code.program-setting.program-manage</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.user</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter.user-info</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>User Information Maintenance</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter.password</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>Password Modification</t>
+  </si>
+  <si>
+    <t>vpn_key</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter.permission-info</t>
+  </si>
+  <si>
+    <t>权限信息</t>
+  </si>
+  <si>
+    <t>Permission Info</t>
+  </si>
+  <si>
+    <t>project_line</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter.token-manager</t>
+  </si>
+  <si>
+    <t>授权管理</t>
+  </si>
+  <si>
+    <t>Token Manager</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>iam-service.organization.list</t>
+  </si>
+  <si>
+    <t>organization-service.organization.create</t>
+  </si>
+  <si>
+    <t>iam-service.organization.query</t>
+  </si>
+  <si>
+    <t>iam-service.organization.update</t>
+  </si>
+  <si>
+    <t>iam-service.organization.disableOrganization</t>
+  </si>
+  <si>
+    <t>iam-service.organization.enableOrganization</t>
+  </si>
+  <si>
+    <t>iam-service.system-setting.addSetting</t>
+  </si>
+  <si>
+    <t>iam-service.system-setting.updateSetting</t>
+  </si>
+  <si>
+    <t>iam-service.system-setting.resetSetting</t>
+  </si>
+  <si>
+    <t>iam-service.system-setting.uploadFavicon</t>
+  </si>
+  <si>
+    <t>iam-service.system-setting.uploadLogo</t>
+  </si>
+  <si>
+    <t>iam-service.menu.create</t>
+  </si>
+  <si>
+    <t>iam-service.menu.saveListTree</t>
+  </si>
+  <si>
+    <t>iam-service.menu.query</t>
+  </si>
+  <si>
+    <t>iam-service.menu.update</t>
+  </si>
+  <si>
+    <t>iam-service.menu.delete</t>
+  </si>
+  <si>
+    <t>iam-service.label.listByType</t>
+  </si>
+  <si>
+    <t>iam-service.role.create</t>
+  </si>
+  <si>
+    <t>iam-service.role.createBaseOnRoles</t>
+  </si>
+  <si>
+    <t>iam-service.role.check</t>
+  </si>
+  <si>
+    <t>iam-service.role.list</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.listRolesWithUserCountOnSiteLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role.queryWithPermissionsAndLabels</t>
+  </si>
+  <si>
+    <t>iam-service.role.update</t>
+  </si>
+  <si>
+    <t>iam-service.role.disableRole</t>
+  </si>
+  <si>
+    <t>iam-service.role.enableRole</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryUsersByRoleIdOnSiteLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.createOrUpdateOnSiteLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.deleteOnSiteLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryUsersWithSiteLevelRoles</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.listRolesWithClientCountOnSiteLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryClientsWithSiteLevelRoles</t>
+  </si>
+  <si>
+    <t>iam-service.user.pagingQueryAdminUsers</t>
+  </si>
+  <si>
+    <t>iam-service.user.addDefaultUsers</t>
+  </si>
+  <si>
+    <t>iam-service.user.deleteDefaultUser</t>
+  </si>
+  <si>
+    <t>iam-service.dashboard.list</t>
+  </si>
+  <si>
+    <t>iam-service.dashboard.query</t>
+  </si>
+  <si>
+    <t>iam-service.dashboard.update</t>
+  </si>
+  <si>
+    <t>iam-service.project-type.pagingQuery</t>
+  </si>
+  <si>
+    <t>iam-service.project-type.create</t>
+  </si>
+  <si>
+    <t>iam-service.project-type.check</t>
+  </si>
+  <si>
+    <t>iam-service.project-type.update</t>
+  </si>
+  <si>
+    <t>iam-service.organization-project.list</t>
+  </si>
+  <si>
+    <t>iam-service.organization-project.create</t>
+  </si>
+  <si>
+    <t>iam-service.organization-project.update</t>
+  </si>
+  <si>
+    <t>iam-service.organization-project.check</t>
+  </si>
+  <si>
+    <t>iam-service.organization-project.enableProject</t>
+  </si>
+  <si>
+    <t>iam-service.organization-project.disableProject</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.create</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.list</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.query</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.update</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.delete</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.disableUser</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.enableUser</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.unlock</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.resetUserPassword</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.createOrUpdateOnOrganizationLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.deleteOnOrganizationLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.listRolesWithUserCountOnOrganizationLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryUsersByRoleIdOnOrganizationLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryUsersWithOrganizationLevelRoles</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.listRolesWithClientCountOnOrganizationLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryClientsByRoleIdOnOrganizationLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryClientsWithOrganizationLevelRoles</t>
+  </si>
+  <si>
+    <t>iam-service.client.check</t>
+  </si>
+  <si>
+    <t>iam-service.client.create</t>
+  </si>
+  <si>
+    <t>iam-service.client.delete</t>
+  </si>
+  <si>
+    <t>iam-service.client.list</t>
+  </si>
+  <si>
+    <t>iam-service.client.query</t>
+  </si>
+  <si>
+    <t>iam-service.client.queryByName</t>
+  </si>
+  <si>
+    <t>iam-service.client.update</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.create</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.query</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.queryByOrgId</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.disableLdap</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.enableLdap</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.syncUsers</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.testConnect</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.update</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.pagingQueryHistories</t>
+  </si>
+  <si>
+    <t>iam-service.ldap.pagingQueryErrorUsers</t>
+  </si>
+  <si>
+    <t>iam-service.password-policy.create</t>
+  </si>
+  <si>
+    <t>iam-service.password-policy.queryByOrganizationId</t>
+  </si>
+  <si>
+    <t>iam-service.password-policy.update</t>
+  </si>
+  <si>
+    <t>iam-service.organization.queryOrgLevel</t>
+  </si>
+  <si>
+    <t>iam-service.application.pagingQuery</t>
+  </si>
+  <si>
+    <t>iam-service.application.create</t>
+  </si>
+  <si>
+    <t>iam-service.application.types</t>
+  </si>
+  <si>
+    <t>iam-service.application.update</t>
+  </si>
+  <si>
+    <t>iam-service.application.disable</t>
+  </si>
+  <si>
+    <t>iam-service.application.enabled</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.deleteOnProjectLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.listRolesWithUserCountOnProjectLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryUsersByRoleIdOnProjectLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryUsersWithProjectLevelRoles</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.listRolesWithClientCountOnProjectLevel</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryClientsWithProjectLevelRoles</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.pagingQueryClientsByRoleIdOnProjectLevel</t>
+  </si>
+  <si>
+    <t>iam-service.project.disableProject</t>
+  </si>
+  <si>
+    <t>iam-service.project.query</t>
+  </si>
+  <si>
+    <t>iam-service.project.update</t>
+  </si>
+  <si>
+    <t>iam-service.user.queryInfo</t>
+  </si>
+  <si>
+    <t>iam-service.user.updateInfo</t>
+  </si>
+  <si>
+    <t>iam-service.user.uploadPhoto</t>
+  </si>
+  <si>
+    <t>iam-service.user.querySelf</t>
+  </si>
+  <si>
+    <t>iam-service.user.selfUpdatePassword</t>
+  </si>
+  <si>
+    <t>iam-service.user.pagingQueryRole</t>
+  </si>
+  <si>
+    <t>iam-service.access-token.list</t>
+  </si>
+  <si>
+    <t>iam-service.access-token.delete</t>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>NAMESPACE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>NEED_ROLES</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>@POSITION</t>
+  </si>
+  <si>
+    <t>Announcement</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>iam</t>
+  </si>
+  <si>
+    <t>您可以在此查看平台内的系统公告。</t>
+  </si>
+  <si>
+    <t>import_contacts</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 4, "positionY": 0, "height": 4}</t>
+  </si>
+  <si>
+    <t>OnlineUsers</t>
+  </si>
+  <si>
+    <t>在线用户</t>
+  </si>
+  <si>
+    <t>您可以实时了解此刻用户访问情况、当天不同时段用户访问情况以及当天的用户总访问量。</t>
+  </si>
+  <si>
+    <t>record_voice_over</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 0, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t>OrganizationStatistics</t>
+  </si>
+  <si>
+    <t>组织统计</t>
+  </si>
+  <si>
+    <t>您可以在此了解平台组织统计的情况。</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 8, "positionY": 0, "height": 4}</t>
+  </si>
+  <si>
+    <t>FailedSaga</t>
+  </si>
+  <si>
+    <t>事务失败情况</t>
+  </si>
+  <si>
+    <t>您可以在此了解事务实例最近30天的执行失败情况。</t>
+  </si>
+  <si>
+    <t>task_schedule</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 8, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t>AddedUsers</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>您可以在此了解平台今日新增用户与总用户数。</t>
+  </si>
+  <si>
+    <t>group_add</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 4, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD_ROLE</t>
+  </si>
+  <si>
+    <t>#DASHBOARD_CODE</t>
+  </si>
+  <si>
+    <t>#ROLE_CODE</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="11.64"/>
+    <col min="1" max="3" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.9619047619048" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.0380952380952" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.9619047619048" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1904761904762" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.9619047619048" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7047619047619" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.3904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.9619047619048" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="11.6380952380952" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8" customHeight="1" spans="4:14">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="12.8" customHeight="1" spans="6:14">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1286,17 +2112,17 @@
       <c r="K8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="6:14">
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,17 +2141,17 @@
       <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="6:14">
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1344,17 +2170,17 @@
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="6:14">
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1373,17 +2199,17 @@
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="6:14">
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1402,17 +2228,17 @@
       <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>1</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="6:14">
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1431,17 +2257,17 @@
       <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="6:14">
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1460,17 +2286,17 @@
       <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="6:14">
       <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1489,17 +2315,17 @@
       <c r="K15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="6:14">
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1518,17 +2344,17 @@
       <c r="K16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="6:14">
       <c r="F17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1547,17 +2373,17 @@
       <c r="K17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="6:14">
       <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1576,17 +2402,17 @@
       <c r="K18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" s="1">
         <v>1</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="6:14">
       <c r="F19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1605,17 +2431,17 @@
       <c r="K19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="M19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="N19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="6:14">
       <c r="F20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1634,17 +2460,17 @@
       <c r="K20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="6:14">
       <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1663,17 +2489,17 @@
       <c r="K21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="M21" s="1">
         <v>1</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="N21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="6:14">
       <c r="F22" s="1" t="s">
         <v>56</v>
       </c>
@@ -1692,17 +2518,17 @@
       <c r="K22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="M22" s="1">
         <v>1</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="N22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="6:14">
       <c r="F23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1721,17 +2547,17 @@
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="M23" s="1">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="N23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="6:14">
       <c r="F24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1750,17 +2576,17 @@
       <c r="K24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="M24" s="1">
         <v>1</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="N24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="6:14">
       <c r="F25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1779,17 +2605,17 @@
       <c r="K25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="M25" s="1">
         <v>1</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="N25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="6:14">
       <c r="F26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1808,17 +2634,17 @@
       <c r="K26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="M26" s="1">
         <v>1</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="6:14">
       <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1837,17 +2663,17 @@
       <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="N27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="6:14">
       <c r="F28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1866,17 +2692,17 @@
       <c r="K28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="1" t="n">
+      <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="N28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="6:14">
       <c r="F29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1895,17 +2721,17 @@
       <c r="K29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="1" t="n">
+      <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="M29" s="1">
         <v>1</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="N29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="6:14">
       <c r="F30" s="1" t="s">
         <v>77</v>
       </c>
@@ -1924,17 +2750,17 @@
       <c r="K30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="1" t="n">
+      <c r="M30" s="1">
         <v>1</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="N30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="6:14">
       <c r="F31" s="1" t="s">
         <v>80</v>
       </c>
@@ -1953,17 +2779,17 @@
       <c r="K31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="1" t="n">
+      <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="1" t="n">
+      <c r="M31" s="1">
         <v>1</v>
       </c>
-      <c r="N31" s="1" t="n">
+      <c r="N31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="6:14">
       <c r="F32" s="1" t="s">
         <v>83</v>
       </c>
@@ -1982,21 +2808,20 @@
       <c r="K32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="M32" s="1">
         <v>1</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="N32" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
@@ -2004,32 +2829,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.64"/>
+    <col min="1" max="3" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1904761904762" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.9142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1238095238095" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5809523809524" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" style="1" customWidth="1"/>
+    <col min="13" max="1025" width="11.6380952380952" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8" customHeight="1" spans="4:15">
       <c r="D7" s="2" t="s">
         <v>86</v>
       </c>
@@ -2067,7 +2890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="12.8" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2092,11 +2915,11 @@
       <c r="N8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="6:15">
       <c r="F9" s="1" t="s">
         <v>101</v>
       </c>
@@ -2124,11 +2947,11 @@
       <c r="N9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="6:15">
       <c r="F10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2156,11 +2979,11 @@
       <c r="N10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="6:15">
       <c r="F11" s="1" t="s">
         <v>110</v>
       </c>
@@ -2188,11 +3011,11 @@
       <c r="N11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="6:15">
       <c r="F12" s="1" t="s">
         <v>114</v>
       </c>
@@ -2220,11 +3043,11 @@
       <c r="N12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="6:15">
       <c r="F13" s="1" t="s">
         <v>118</v>
       </c>
@@ -2252,11 +3075,11 @@
       <c r="N13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="6:15">
       <c r="F14" s="1" t="s">
         <v>122</v>
       </c>
@@ -2284,11 +3107,11 @@
       <c r="N14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="6:15">
       <c r="F15" s="1" t="s">
         <v>126</v>
       </c>
@@ -2316,11 +3139,11 @@
       <c r="N15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="O15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="6:15">
       <c r="F16" s="1" t="s">
         <v>130</v>
       </c>
@@ -2348,11 +3171,11 @@
       <c r="N16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="O16" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="6:15">
       <c r="F17" s="1" t="s">
         <v>134</v>
       </c>
@@ -2380,11 +3203,11 @@
       <c r="N17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="6:15">
       <c r="F18" s="1" t="s">
         <v>138</v>
       </c>
@@ -2409,11 +3232,11 @@
       <c r="N18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="6:15">
       <c r="F19" s="1" t="s">
         <v>142</v>
       </c>
@@ -2441,11 +3264,11 @@
       <c r="N19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="6:15">
       <c r="F20" s="1" t="s">
         <v>146</v>
       </c>
@@ -2473,11 +3296,11 @@
       <c r="N20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="6:15">
       <c r="F21" s="1" t="s">
         <v>150</v>
       </c>
@@ -2505,11 +3328,11 @@
       <c r="N21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="O21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="6:15">
       <c r="F22" s="1" t="s">
         <v>152</v>
       </c>
@@ -2537,11 +3360,11 @@
       <c r="N22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="6:15">
       <c r="F23" s="1" t="s">
         <v>156</v>
       </c>
@@ -2569,11 +3392,11 @@
       <c r="N23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="6:15">
       <c r="F24" s="1" t="s">
         <v>159</v>
       </c>
@@ -2601,11 +3424,11 @@
       <c r="N24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="O24" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
         <v>163</v>
       </c>
@@ -2633,11 +3456,11 @@
       <c r="N25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="O25" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="6:15">
       <c r="F26" s="1" t="s">
         <v>167</v>
       </c>
@@ -2662,11 +3485,11 @@
       <c r="N26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="O26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="6:15">
       <c r="F27" s="1" t="s">
         <v>171</v>
       </c>
@@ -2694,11 +3517,11 @@
       <c r="N27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="O27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="6:15">
       <c r="F28" s="1" t="s">
         <v>175</v>
       </c>
@@ -2723,11 +3546,11 @@
       <c r="N28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O28" s="1" t="n">
+      <c r="O28" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="6:15">
       <c r="F29" s="1" t="s">
         <v>179</v>
       </c>
@@ -2755,11 +3578,11 @@
       <c r="N29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="O29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="6:15">
       <c r="F30" s="1" t="s">
         <v>181</v>
       </c>
@@ -2787,11 +3610,11 @@
       <c r="N30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O30" s="1" t="n">
+      <c r="O30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="6:15">
       <c r="F31" s="1" t="s">
         <v>183</v>
       </c>
@@ -2816,11 +3639,11 @@
       <c r="N31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="O31" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="6:15">
       <c r="F32" s="1" t="s">
         <v>184</v>
       </c>
@@ -2848,11 +3671,11 @@
       <c r="N32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O32" s="1" t="n">
+      <c r="O32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="6:15">
       <c r="F33" s="1" t="s">
         <v>185</v>
       </c>
@@ -2880,11 +3703,11 @@
       <c r="N33" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="O33" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="6:15">
       <c r="F34" s="1" t="s">
         <v>186</v>
       </c>
@@ -2909,11 +3732,11 @@
       <c r="N34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="O34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="6:15">
       <c r="F35" s="1" t="s">
         <v>191</v>
       </c>
@@ -2941,11 +3764,11 @@
       <c r="N35" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="O35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="6:15">
       <c r="F36" s="1" t="s">
         <v>195</v>
       </c>
@@ -2973,11 +3796,11 @@
       <c r="N36" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="O36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="6:15">
       <c r="F37" s="1" t="s">
         <v>199</v>
       </c>
@@ -3005,11 +3828,11 @@
       <c r="N37" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O37" s="1" t="n">
+      <c r="O37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="6:15">
       <c r="F38" s="1" t="s">
         <v>203</v>
       </c>
@@ -3037,15 +3860,14 @@
       <c r="N38" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O38" s="1" t="n">
+      <c r="O38" s="1">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
@@ -3053,27 +3875,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.64"/>
+    <col min="1" max="3" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.752380952381" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9619047619048" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.6380952380952" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8" customHeight="1" spans="4:7">
       <c r="D7" s="2" t="s">
         <v>207</v>
       </c>
@@ -3087,7 +3907,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="12.8" customHeight="1" spans="6:7">
       <c r="F8" s="1" t="s">
         <v>101</v>
       </c>
@@ -3095,7 +3915,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="6:7">
       <c r="F9" s="1" t="s">
         <v>101</v>
       </c>
@@ -3103,7 +3923,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="6:7">
       <c r="F10" s="1" t="s">
         <v>101</v>
       </c>
@@ -3111,7 +3931,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="6:7">
       <c r="F11" s="1" t="s">
         <v>101</v>
       </c>
@@ -3119,7 +3939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="6:7">
       <c r="F12" s="1" t="s">
         <v>101</v>
       </c>
@@ -3127,7 +3947,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="6:7">
       <c r="F13" s="1" t="s">
         <v>101</v>
       </c>
@@ -3135,7 +3955,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="6:7">
       <c r="F14" s="1" t="s">
         <v>106</v>
       </c>
@@ -3143,7 +3963,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="6:7">
       <c r="F15" s="1" t="s">
         <v>106</v>
       </c>
@@ -3151,7 +3971,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="6:7">
       <c r="F16" s="1" t="s">
         <v>106</v>
       </c>
@@ -3159,7 +3979,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
         <v>106</v>
       </c>
@@ -3167,7 +3987,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="6:7">
       <c r="F18" s="1" t="s">
         <v>106</v>
       </c>
@@ -3175,7 +3995,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="6:7">
       <c r="F19" s="1" t="s">
         <v>110</v>
       </c>
@@ -3183,7 +4003,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="6:7">
       <c r="F20" s="1" t="s">
         <v>110</v>
       </c>
@@ -3191,7 +4011,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="6:7">
       <c r="F21" s="1" t="s">
         <v>110</v>
       </c>
@@ -3199,7 +4019,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="6:7">
       <c r="F22" s="1" t="s">
         <v>110</v>
       </c>
@@ -3207,7 +4027,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="6:7">
       <c r="F23" s="1" t="s">
         <v>110</v>
       </c>
@@ -3215,7 +4035,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="6:7">
       <c r="F24" s="1" t="s">
         <v>114</v>
       </c>
@@ -3223,7 +4043,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="6:7">
       <c r="F25" s="1" t="s">
         <v>118</v>
       </c>
@@ -3231,7 +4051,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="6:7">
       <c r="F26" s="1" t="s">
         <v>118</v>
       </c>
@@ -3239,7 +4059,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="6:7">
       <c r="F27" s="1" t="s">
         <v>118</v>
       </c>
@@ -3247,7 +4067,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="6:7">
       <c r="F28" s="1" t="s">
         <v>118</v>
       </c>
@@ -3255,7 +4075,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="6:7">
       <c r="F29" s="1" t="s">
         <v>118</v>
       </c>
@@ -3263,7 +4083,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="6:7">
       <c r="F30" s="1" t="s">
         <v>118</v>
       </c>
@@ -3271,7 +4091,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="6:7">
       <c r="F31" s="1" t="s">
         <v>118</v>
       </c>
@@ -3279,7 +4099,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="6:7">
       <c r="F32" s="1" t="s">
         <v>118</v>
       </c>
@@ -3287,7 +4107,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="6:7">
       <c r="F33" s="1" t="s">
         <v>118</v>
       </c>
@@ -3295,7 +4115,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="6:7">
       <c r="F34" s="1" t="s">
         <v>118</v>
       </c>
@@ -3303,7 +4123,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="6:7">
       <c r="F35" s="1" t="s">
         <v>122</v>
       </c>
@@ -3311,7 +4131,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="6:7">
       <c r="F36" s="1" t="s">
         <v>122</v>
       </c>
@@ -3319,7 +4139,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="6:7">
       <c r="F37" s="1" t="s">
         <v>122</v>
       </c>
@@ -3327,7 +4147,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="6:7">
       <c r="F38" s="1" t="s">
         <v>122</v>
       </c>
@@ -3335,7 +4155,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="6:7">
       <c r="F39" s="1" t="s">
         <v>122</v>
       </c>
@@ -3343,7 +4163,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="6:7">
       <c r="F40" s="1" t="s">
         <v>122</v>
       </c>
@@ -3351,7 +4171,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="6:7">
       <c r="F41" s="1" t="s">
         <v>122</v>
       </c>
@@ -3359,7 +4179,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="6:7">
       <c r="F42" s="1" t="s">
         <v>122</v>
       </c>
@@ -3367,7 +4187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="6:7">
       <c r="F43" s="1" t="s">
         <v>126</v>
       </c>
@@ -3375,7 +4195,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="6:7">
       <c r="F44" s="1" t="s">
         <v>126</v>
       </c>
@@ -3383,7 +4203,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="6:7">
       <c r="F45" s="1" t="s">
         <v>126</v>
       </c>
@@ -3391,7 +4211,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="6:7">
       <c r="F46" s="1" t="s">
         <v>130</v>
       </c>
@@ -3399,7 +4219,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="6:7">
       <c r="F47" s="1" t="s">
         <v>130</v>
       </c>
@@ -3407,7 +4227,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="6:7">
       <c r="F48" s="1" t="s">
         <v>130</v>
       </c>
@@ -3415,7 +4235,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="6:7">
       <c r="F49" s="1" t="s">
         <v>134</v>
       </c>
@@ -3423,7 +4243,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="6:7">
       <c r="F50" s="1" t="s">
         <v>134</v>
       </c>
@@ -3431,7 +4251,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="6:7">
       <c r="F51" s="1" t="s">
         <v>134</v>
       </c>
@@ -3439,7 +4259,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="6:7">
       <c r="F52" s="1" t="s">
         <v>134</v>
       </c>
@@ -3447,7 +4267,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="6:7">
       <c r="F53" s="1" t="s">
         <v>142</v>
       </c>
@@ -3455,7 +4275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="6:7">
       <c r="F54" s="1" t="s">
         <v>142</v>
       </c>
@@ -3463,7 +4283,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="6:7">
       <c r="F55" s="1" t="s">
         <v>142</v>
       </c>
@@ -3471,7 +4291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="6:7">
       <c r="F56" s="1" t="s">
         <v>142</v>
       </c>
@@ -3479,7 +4299,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="6:7">
       <c r="F57" s="1" t="s">
         <v>142</v>
       </c>
@@ -3487,7 +4307,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="6:7">
       <c r="F58" s="1" t="s">
         <v>142</v>
       </c>
@@ -3495,7 +4315,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="6:7">
       <c r="F59" s="1" t="s">
         <v>146</v>
       </c>
@@ -3503,7 +4323,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="6:7">
       <c r="F60" s="1" t="s">
         <v>146</v>
       </c>
@@ -3511,7 +4331,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="6:7">
       <c r="F61" s="1" t="s">
         <v>146</v>
       </c>
@@ -3519,7 +4339,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="6:7">
       <c r="F62" s="1" t="s">
         <v>146</v>
       </c>
@@ -3527,7 +4347,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="6:7">
       <c r="F63" s="1" t="s">
         <v>146</v>
       </c>
@@ -3535,7 +4355,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="6:7">
       <c r="F64" s="1" t="s">
         <v>146</v>
       </c>
@@ -3543,7 +4363,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="6:7">
       <c r="F65" s="1" t="s">
         <v>146</v>
       </c>
@@ -3551,7 +4371,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="6:7">
       <c r="F66" s="1" t="s">
         <v>146</v>
       </c>
@@ -3559,7 +4379,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="6:7">
       <c r="F67" s="1" t="s">
         <v>146</v>
       </c>
@@ -3567,7 +4387,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="6:7">
       <c r="F68" s="1" t="s">
         <v>150</v>
       </c>
@@ -3575,7 +4395,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="6:7">
       <c r="F69" s="1" t="s">
         <v>150</v>
       </c>
@@ -3583,7 +4403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="6:7">
       <c r="F70" s="1" t="s">
         <v>150</v>
       </c>
@@ -3591,7 +4411,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="6:7">
       <c r="F71" s="1" t="s">
         <v>150</v>
       </c>
@@ -3599,7 +4419,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="6:7">
       <c r="F72" s="1" t="s">
         <v>150</v>
       </c>
@@ -3607,7 +4427,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="6:7">
       <c r="F73" s="1" t="s">
         <v>150</v>
       </c>
@@ -3615,7 +4435,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="6:7">
       <c r="F74" s="1" t="s">
         <v>150</v>
       </c>
@@ -3623,7 +4443,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="6:7">
       <c r="F75" s="1" t="s">
         <v>150</v>
       </c>
@@ -3631,7 +4451,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="6:7">
       <c r="F76" s="1" t="s">
         <v>152</v>
       </c>
@@ -3639,7 +4459,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="6:7">
       <c r="F77" s="1" t="s">
         <v>152</v>
       </c>
@@ -3647,7 +4467,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="6:7">
       <c r="F78" s="1" t="s">
         <v>152</v>
       </c>
@@ -3655,7 +4475,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="6:7">
       <c r="F79" s="1" t="s">
         <v>152</v>
       </c>
@@ -3663,7 +4483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="6:7">
       <c r="F80" s="1" t="s">
         <v>152</v>
       </c>
@@ -3671,7 +4491,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="6:7">
       <c r="F81" s="1" t="s">
         <v>152</v>
       </c>
@@ -3679,7 +4499,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="6:7">
       <c r="F82" s="1" t="s">
         <v>152</v>
       </c>
@@ -3687,7 +4507,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="6:7">
       <c r="F83" s="1" t="s">
         <v>156</v>
       </c>
@@ -3695,7 +4515,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="6:7">
       <c r="F84" s="1" t="s">
         <v>156</v>
       </c>
@@ -3703,7 +4523,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="6:7">
       <c r="F85" s="1" t="s">
         <v>156</v>
       </c>
@@ -3711,7 +4531,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="6:7">
       <c r="F86" s="1" t="s">
         <v>156</v>
       </c>
@@ -3719,7 +4539,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="6:7">
       <c r="F87" s="1" t="s">
         <v>156</v>
       </c>
@@ -3727,7 +4547,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="6:7">
       <c r="F88" s="1" t="s">
         <v>156</v>
       </c>
@@ -3735,7 +4555,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="6:7">
       <c r="F89" s="1" t="s">
         <v>156</v>
       </c>
@@ -3743,7 +4563,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="6:7">
       <c r="F90" s="1" t="s">
         <v>156</v>
       </c>
@@ -3751,7 +4571,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="6:7">
       <c r="F91" s="1" t="s">
         <v>156</v>
       </c>
@@ -3759,7 +4579,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="6:7">
       <c r="F92" s="1" t="s">
         <v>156</v>
       </c>
@@ -3767,7 +4587,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="6:7">
       <c r="F93" s="1" t="s">
         <v>159</v>
       </c>
@@ -3775,7 +4595,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="6:7">
       <c r="F94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3783,7 +4603,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="6:7">
       <c r="F95" s="1" t="s">
         <v>159</v>
       </c>
@@ -3791,7 +4611,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="6:7">
       <c r="F96" s="1" t="s">
         <v>163</v>
       </c>
@@ -3799,7 +4619,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="6:7">
       <c r="F97" s="1" t="s">
         <v>171</v>
       </c>
@@ -3807,7 +4627,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="6:7">
       <c r="F98" s="1" t="s">
         <v>171</v>
       </c>
@@ -3815,7 +4635,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="6:7">
       <c r="F99" s="1" t="s">
         <v>171</v>
       </c>
@@ -3823,7 +4643,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="6:7">
       <c r="F100" s="1" t="s">
         <v>171</v>
       </c>
@@ -3831,7 +4651,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="6:7">
       <c r="F101" s="1" t="s">
         <v>171</v>
       </c>
@@ -3839,7 +4659,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="6:7">
       <c r="F102" s="1" t="s">
         <v>171</v>
       </c>
@@ -3847,7 +4667,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="6:7">
       <c r="F103" s="1" t="s">
         <v>179</v>
       </c>
@@ -3855,7 +4675,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="6:7">
       <c r="F104" s="1" t="s">
         <v>179</v>
       </c>
@@ -3863,7 +4683,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="6:7">
       <c r="F105" s="1" t="s">
         <v>179</v>
       </c>
@@ -3871,7 +4691,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="6:7">
       <c r="F106" s="1" t="s">
         <v>179</v>
       </c>
@@ -3879,7 +4699,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="6:7">
       <c r="F107" s="1" t="s">
         <v>179</v>
       </c>
@@ -3887,7 +4707,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="6:7">
       <c r="F108" s="1" t="s">
         <v>179</v>
       </c>
@@ -3895,7 +4715,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="6:7">
       <c r="F109" s="1" t="s">
         <v>179</v>
       </c>
@@ -3903,7 +4723,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="6:7">
       <c r="F110" s="1" t="s">
         <v>179</v>
       </c>
@@ -3911,7 +4731,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="6:7">
       <c r="F111" s="1" t="s">
         <v>181</v>
       </c>
@@ -3919,7 +4739,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="6:7">
       <c r="F112" s="1" t="s">
         <v>181</v>
       </c>
@@ -3927,7 +4747,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="6:7">
       <c r="F113" s="1" t="s">
         <v>181</v>
       </c>
@@ -3935,7 +4755,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="6:7">
       <c r="F114" s="1" t="s">
         <v>184</v>
       </c>
@@ -3943,7 +4763,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="6:7">
       <c r="F115" s="1" t="s">
         <v>184</v>
       </c>
@@ -3951,7 +4771,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="6:7">
       <c r="F116" s="1" t="s">
         <v>184</v>
       </c>
@@ -3959,7 +4779,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="6:7">
       <c r="F117" s="1" t="s">
         <v>184</v>
       </c>
@@ -3967,7 +4787,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="6:7">
       <c r="F118" s="1" t="s">
         <v>184</v>
       </c>
@@ -3975,7 +4795,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="6:7">
       <c r="F119" s="1" t="s">
         <v>184</v>
       </c>
@@ -3983,7 +4803,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="6:7">
       <c r="F120" s="1" t="s">
         <v>184</v>
       </c>
@@ -3991,7 +4811,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="6:7">
       <c r="F121" s="1" t="s">
         <v>184</v>
       </c>
@@ -3999,7 +4819,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="6:7">
       <c r="F122" s="1" t="s">
         <v>185</v>
       </c>
@@ -4007,7 +4827,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="6:7">
       <c r="F123" s="1" t="s">
         <v>185</v>
       </c>
@@ -4015,7 +4835,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="6:7">
       <c r="F124" s="1" t="s">
         <v>185</v>
       </c>
@@ -4023,7 +4843,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="6:7">
       <c r="F125" s="1" t="s">
         <v>191</v>
       </c>
@@ -4031,7 +4851,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="6:7">
       <c r="F126" s="1" t="s">
         <v>191</v>
       </c>
@@ -4039,7 +4859,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="6:7">
       <c r="F127" s="1" t="s">
         <v>191</v>
       </c>
@@ -4047,7 +4867,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="6:7">
       <c r="F128" s="1" t="s">
         <v>191</v>
       </c>
@@ -4055,7 +4875,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="6:7">
       <c r="F129" s="1" t="s">
         <v>195</v>
       </c>
@@ -4063,7 +4883,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="6:7">
       <c r="F130" s="1" t="s">
         <v>199</v>
       </c>
@@ -4071,7 +4891,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="6:7">
       <c r="F131" s="1" t="s">
         <v>203</v>
       </c>
@@ -4079,7 +4899,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="6:7">
       <c r="F132" s="1" t="s">
         <v>203</v>
       </c>
@@ -4088,10 +4908,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
@@ -4099,304 +4918,301 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V17" activeCellId="0" sqref="V17"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="23.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="24.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="46.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.64"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="18.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.2571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.4666666666667" customWidth="1"/>
+    <col min="7" max="8" width="23.8952380952381" customWidth="1"/>
+    <col min="9" max="10" width="24.0285714285714" customWidth="1"/>
+    <col min="11" max="11" width="13.4857142857143" customWidth="1"/>
+    <col min="12" max="12" width="11.6380952380952" customWidth="1"/>
+    <col min="13" max="13" width="28.6761904761905" customWidth="1"/>
+    <col min="14" max="17" width="11.6380952380952" customWidth="1"/>
+    <col min="18" max="18" width="46.3904761904762" customWidth="1"/>
+    <col min="19" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="4:18">
+      <c r="D7" t="s">
         <v>320</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>321</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>322</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>323</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" t="s">
         <v>325</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" t="s">
         <v>326</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="R7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="5:18">
+      <c r="E8" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>328</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>328</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>329</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>330</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s">
         <v>331</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>332</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="R8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="5:18">
+      <c r="E9" t="s">
         <v>334</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>335</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>335</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>334</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>330</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s">
         <v>336</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s">
         <v>337</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>11</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="s">
+    <row r="10" spans="5:18">
+      <c r="E10" t="s">
         <v>339</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>339</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>340</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>340</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>339</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>340</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>330</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s">
         <v>341</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" t="s">
         <v>342</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10">
         <v>12</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>1</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="0" t="s">
+    <row r="11" spans="5:18">
+      <c r="E11" t="s">
         <v>344</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>344</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>345</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>345</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>344</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>345</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>330</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s">
         <v>346</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>347</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11">
         <v>9</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="0" t="s">
+    <row r="12" spans="5:18">
+      <c r="E12" t="s">
         <v>349</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>349</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>350</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>350</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>349</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>350</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>330</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" t="s">
         <v>351</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" t="s">
         <v>352</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12">
         <v>10</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" t="s">
         <v>353</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4404,85 +5220,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.64"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="22.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="24.4571428571429" customWidth="1"/>
+    <col min="7" max="7" width="28.4" customWidth="1"/>
+    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="4:7">
+      <c r="D7" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="0" t="s">
+    <row r="8" spans="6:7">
+      <c r="F8" t="s">
         <v>328</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="0" t="s">
+    <row r="9" spans="6:7">
+      <c r="F9" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="0" t="s">
+    <row r="10" spans="6:7">
+      <c r="F10" t="s">
         <v>339</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="0" t="s">
+    <row r="11" spans="6:7">
+      <c r="F11" t="s">
         <v>344</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="s">
+    <row r="12" spans="6:7">
+      <c r="F12" t="s">
         <v>349</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>357</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/front/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C5FAD3-FDA4-3240-8BBB-2E881C0225DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="360">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1093,14 +1098,21 @@
   </si>
   <si>
     <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1117,357 +1129,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1475,302 +1151,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2055,37 +1455,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="13.4857142857143" customWidth="1"/>
-    <col min="7" max="7" width="15.0380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
-    <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
-    <col min="11" max="11" width="18.9619047619048" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="13" width="18.7047619047619" customWidth="1"/>
-    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
-    <col min="15" max="15" width="18.9619047619048" customWidth="1"/>
-    <col min="16" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.796875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.8" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:14">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -2178,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -2207,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -2236,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -2265,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -2323,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -2352,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -2846,8 +2246,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2856,30 +2257,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="12.7714285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.8857142857143" customWidth="1"/>
-    <col min="8" max="8" width="13.9142857142857" customWidth="1"/>
-    <col min="9" max="9" width="27.1238095238095" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="16.5809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="46.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="27.19921875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="11" max="11" width="29.19921875" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.8" customHeight="1" spans="4:15">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>86</v>
       </c>
@@ -2916,8 +2316,11 @@
       <c r="O7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:15">
+      <c r="P7" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
         <v>101</v>
       </c>
@@ -2978,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:16">
       <c r="F10" t="s">
         <v>106</v>
       </c>
@@ -3010,7 +2413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
         <v>110</v>
       </c>
@@ -3042,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:16">
       <c r="F12" t="s">
         <v>114</v>
       </c>
@@ -3074,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:16">
       <c r="F13" t="s">
         <v>118</v>
       </c>
@@ -3106,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:16">
       <c r="F14" t="s">
         <v>122</v>
       </c>
@@ -3138,7 +2541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:16">
       <c r="F15" t="s">
         <v>126</v>
       </c>
@@ -3170,7 +2573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:16">
       <c r="F16" t="s">
         <v>130</v>
       </c>
@@ -3202,7 +2605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:16">
       <c r="F17" t="s">
         <v>134</v>
       </c>
@@ -3234,7 +2637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="6:16">
       <c r="F18" t="s">
         <v>138</v>
       </c>
@@ -3263,7 +2666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:16">
       <c r="F19" t="s">
         <v>142</v>
       </c>
@@ -3295,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:16">
       <c r="F20" t="s">
         <v>146</v>
       </c>
@@ -3327,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:16">
       <c r="F21" t="s">
         <v>150</v>
       </c>
@@ -3359,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="6:15">
+    <row r="22" spans="6:16">
       <c r="F22" t="s">
         <v>152</v>
       </c>
@@ -3391,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="6:15">
+    <row r="23" spans="6:16">
       <c r="F23" t="s">
         <v>156</v>
       </c>
@@ -3423,7 +2826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="6:15">
+    <row r="24" spans="6:16">
       <c r="F24" t="s">
         <v>159</v>
       </c>
@@ -3455,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="6:15">
+    <row r="25" spans="6:16">
       <c r="F25" t="s">
         <v>163</v>
       </c>
@@ -3487,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="6:15">
+    <row r="26" spans="6:16">
       <c r="F26" t="s">
         <v>167</v>
       </c>
@@ -3516,7 +2919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="6:15">
+    <row r="27" spans="6:16">
       <c r="F27" t="s">
         <v>171</v>
       </c>
@@ -3548,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:15">
+    <row r="28" spans="6:16">
       <c r="F28" t="s">
         <v>175</v>
       </c>
@@ -3577,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="6:15">
+    <row r="29" spans="6:16">
       <c r="F29" t="s">
         <v>179</v>
       </c>
@@ -3609,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:15">
+    <row r="30" spans="6:16">
       <c r="F30" t="s">
         <v>181</v>
       </c>
@@ -3641,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="6:15">
+    <row r="31" spans="6:16">
       <c r="F31" t="s">
         <v>183</v>
       </c>
@@ -3669,8 +3072,11 @@
       <c r="O31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="6:15">
+      <c r="P31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16">
       <c r="F32" t="s">
         <v>184</v>
       </c>
@@ -3701,8 +3107,11 @@
       <c r="O32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="6:15">
+      <c r="P32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="6:16">
       <c r="F33" t="s">
         <v>185</v>
       </c>
@@ -3733,8 +3142,11 @@
       <c r="O33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="6:15">
+      <c r="P33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16">
       <c r="F34" t="s">
         <v>186</v>
       </c>
@@ -3763,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:15">
+    <row r="35" spans="6:16">
       <c r="F35" t="s">
         <v>191</v>
       </c>
@@ -3795,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:15">
+    <row r="36" spans="6:16">
       <c r="F36" t="s">
         <v>195</v>
       </c>
@@ -3827,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="6:15">
+    <row r="37" spans="6:16">
       <c r="F37" t="s">
         <v>199</v>
       </c>
@@ -3859,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="6:15">
+    <row r="38" spans="6:16">
       <c r="F38" t="s">
         <v>203</v>
       </c>
@@ -3892,8 +3304,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3902,25 +3315,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="23.752380952381" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9619047619048" customWidth="1"/>
-    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.8" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>207</v>
       </c>
@@ -3934,7 +3346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:7">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>101</v>
       </c>
@@ -3942,7 +3354,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>101</v>
       </c>
@@ -3950,7 +3362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
         <v>101</v>
       </c>
@@ -3958,7 +3370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
         <v>101</v>
       </c>
@@ -3966,7 +3378,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
         <v>101</v>
       </c>
@@ -3974,7 +3386,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
         <v>101</v>
       </c>
@@ -3982,7 +3394,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:7">
       <c r="F14" t="s">
         <v>106</v>
       </c>
@@ -3990,7 +3402,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:7">
       <c r="F15" t="s">
         <v>106</v>
       </c>
@@ -3998,7 +3410,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:7">
       <c r="F16" t="s">
         <v>106</v>
       </c>
@@ -4935,8 +4347,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -4945,32 +4358,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.2571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4666666666667" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.8952380952381" style="1" customWidth="1"/>
-    <col min="9" max="10" width="24.0285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6761904761905" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.3904761904762" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="24" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="11.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" s="1" customFormat="1" spans="4:18">
+    <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
         <v>320</v>
       </c>
@@ -5017,7 +4429,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="5:18">
+    <row r="8" spans="4:18">
       <c r="E8" s="1" t="s">
         <v>328</v>
       </c>
@@ -5061,7 +4473,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="5:18">
+    <row r="9" spans="4:18">
       <c r="E9" s="1" t="s">
         <v>334</v>
       </c>
@@ -5105,7 +4517,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="5:18">
+    <row r="10" spans="4:18">
       <c r="E10" s="1" t="s">
         <v>339</v>
       </c>
@@ -5149,7 +4561,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="5:18">
+    <row r="11" spans="4:18">
       <c r="E11" s="1" t="s">
         <v>344</v>
       </c>
@@ -5193,7 +4605,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="5:18">
+    <row r="12" spans="4:18">
       <c r="E12" s="1" t="s">
         <v>349</v>
       </c>
@@ -5238,32 +4650,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.2" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.4571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.4" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.3984375" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" s="1" customFormat="1" spans="4:7">
+    <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
         <v>354</v>
       </c>
@@ -5277,7 +4688,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="6:7">
+    <row r="8" spans="4:7">
       <c r="F8" s="1" t="s">
         <v>328</v>
       </c>
@@ -5285,7 +4696,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="6:7">
+    <row r="9" spans="4:7">
       <c r="F9" s="1" t="s">
         <v>334</v>
       </c>
@@ -5293,7 +4704,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="6:7">
+    <row r="10" spans="4:7">
       <c r="F10" s="1" t="s">
         <v>339</v>
       </c>
@@ -5301,7 +4712,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="6:7">
+    <row r="11" spans="4:7">
       <c r="F11" s="1" t="s">
         <v>344</v>
       </c>
@@ -5309,7 +4720,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="6:7">
+    <row r="12" spans="4:7">
       <c r="F12" s="1" t="s">
         <v>349</v>
       </c>
@@ -5318,7 +4729,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="356">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -54,10 +54,10 @@
     <t>IS_WITHIN</t>
   </si>
   <si>
-    <t>choerodon.route.iam.organization</t>
-  </si>
-  <si>
-    <t>/iam/organization</t>
+    <t>choerodon.route.iam.system-setting</t>
+  </si>
+  <si>
+    <t>/iam/system-setting</t>
   </si>
   <si>
     <t>iam-service</t>
@@ -66,21 +66,12 @@
     <t>site</t>
   </si>
   <si>
-    <t>组织管理路由</t>
+    <t>系统配置路由</t>
   </si>
   <si>
     <t>page</t>
   </si>
   <si>
-    <t>choerodon.route.iam.system-setting</t>
-  </si>
-  <si>
-    <t>/iam/system-setting</t>
-  </si>
-  <si>
-    <t>系统配置路由</t>
-  </si>
-  <si>
     <t>choerodon.route.iam.menu-management</t>
   </si>
   <si>
@@ -327,30 +318,18 @@
     <t>IAM</t>
   </si>
   <si>
-    <t>choerodon.code.iam.organization</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>Organization</t>
+    <t>choerodon.code.iam.system-setting</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>System Config</t>
   </si>
   <si>
     <t>menu_item</t>
   </si>
   <si>
-    <t>manage_organization</t>
-  </si>
-  <si>
-    <t>choerodon.code.iam.system-setting</t>
-  </si>
-  <si>
-    <t>系统配置</t>
-  </si>
-  <si>
-    <t>System Config</t>
-  </si>
-  <si>
     <t>settings</t>
   </si>
   <si>
@@ -655,24 +634,6 @@
   </si>
   <si>
     <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>iam-service.organization.list</t>
-  </si>
-  <si>
-    <t>organization-service.organization.create</t>
-  </si>
-  <si>
-    <t>iam-service.organization.query</t>
-  </si>
-  <si>
-    <t>iam-service.organization.update</t>
-  </si>
-  <si>
-    <t>iam-service.organization.disableOrganization</t>
-  </si>
-  <si>
-    <t>iam-service.organization.enableOrganization</t>
   </si>
   <si>
     <t>iam-service.system-setting.addSetting</t>
@@ -1133,10 +1094,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1150,8 +1111,61 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,19 +1179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,8 +1192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,15 +1202,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1215,13 +1217,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1238,7 +1239,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1251,56 +1260,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,7 +1276,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,13 +1330,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,13 +1390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,55 +1426,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,73 +1456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,6 +1467,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1526,27 +1520,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,181 +1559,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2067,16 +2028,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:N32"/>
+  <dimension ref="D7:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="19.0095238095238" customWidth="1"/>
-    <col min="6" max="6" width="13.3904761904762" customWidth="1"/>
+    <col min="6" max="6" width="38.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19.0095238095238" customWidth="1"/>
@@ -2123,14 +2084,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:14">
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="6:14">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
@@ -2366,10 +2327,10 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -2386,16 +2347,16 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
@@ -2418,16 +2379,16 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -2444,16 +2405,16 @@
     </row>
     <row r="19" spans="6:14">
       <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
         <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -2482,7 +2443,7 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
         <v>52</v>
@@ -2511,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s">
         <v>55</v>
@@ -2540,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s">
         <v>58</v>
@@ -2569,7 +2530,7 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s">
         <v>61</v>
@@ -2592,13 +2553,13 @@
         <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
         <v>64</v>
@@ -2621,13 +2582,13 @@
         <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
         <v>67</v>
@@ -2650,16 +2611,16 @@
         <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -2676,16 +2637,16 @@
     </row>
     <row r="27" spans="6:14">
       <c r="F27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
         <v>67</v>
@@ -2705,19 +2666,19 @@
     </row>
     <row r="28" spans="6:14">
       <c r="F28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2734,16 +2695,16 @@
     </row>
     <row r="29" spans="6:14">
       <c r="F29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s">
         <v>76</v>
@@ -2772,7 +2733,7 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s">
         <v>79</v>
@@ -2801,7 +2762,7 @@
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
         <v>82</v>
@@ -2816,35 +2777,6 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14">
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
         <v>0</v>
       </c>
     </row>
@@ -2861,10 +2793,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:P38"/>
+  <dimension ref="D7:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2881,7 +2813,7 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:16">
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -2890,60 +2822,60 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2951,13 +2883,13 @@
     </row>
     <row r="9" spans="6:15">
       <c r="F9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2966,30 +2898,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="6:15">
       <c r="F10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2998,30 +2930,30 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="F11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -3030,30 +2962,30 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="6:15">
       <c r="F12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -3062,30 +2994,30 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:15">
       <c r="F13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -3094,30 +3026,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="6:15">
       <c r="F14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -3126,30 +3058,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
@@ -3158,30 +3090,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -3190,123 +3122,123 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="6:15">
       <c r="F17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="O17">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
@@ -3315,62 +3247,62 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I22" t="s">
         <v>50</v>
@@ -3379,30 +3311,30 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
         <v>53</v>
@@ -3411,30 +3343,30 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I24" t="s">
         <v>56</v>
@@ -3443,152 +3375,152 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O24">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="6:15">
       <c r="F25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="6:15">
       <c r="F26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N27" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="6:15">
       <c r="F28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
-        <v>178</v>
+        <v>118</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N28" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="I29" t="s">
         <v>65</v>
@@ -3597,132 +3529,132 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="6:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16">
       <c r="F30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N30" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="P30" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="6:16">
       <c r="F31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>118</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="6:16">
       <c r="F32" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="6:16">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15">
       <c r="F33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" t="s">
         <v>183</v>
-      </c>
-      <c r="H33" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" t="s">
-        <v>72</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
@@ -3731,45 +3663,45 @@
         <v>184</v>
       </c>
       <c r="L33" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="M33" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N33" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O33">
-        <v>2</v>
-      </c>
-      <c r="P33" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" t="s">
         <v>188</v>
       </c>
-      <c r="G34" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" t="s">
-        <v>190</v>
+      <c r="I34" t="s">
+        <v>70</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -3777,45 +3709,45 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
         <v>14</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I36" t="s">
         <v>77</v>
@@ -3824,30 +3756,30 @@
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s">
         <v>14</v>
       </c>
       <c r="M36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I37" t="s">
         <v>80</v>
@@ -3856,50 +3788,18 @@
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="6:15">
-      <c r="F38" t="s">
-        <v>205</v>
-      </c>
-      <c r="G38" t="s">
-        <v>206</v>
-      </c>
-      <c r="H38" t="s">
-        <v>207</v>
-      </c>
-      <c r="I38" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
-        <v>188</v>
-      </c>
-      <c r="L38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" t="s">
-        <v>105</v>
-      </c>
-      <c r="N38" t="s">
-        <v>208</v>
-      </c>
-      <c r="O38">
         <v>4</v>
       </c>
     </row>
@@ -3916,687 +3816,687 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G132"/>
+  <dimension ref="D7:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="36.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="19.0095238095238" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="6:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G45" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G46" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G63" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G64" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G65" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G68" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G69" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G73" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G74" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G75" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G76" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G77" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G79" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G81" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G83" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G84" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G85" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G86" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G88" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G89" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="6:7">
@@ -4604,231 +4504,231 @@
         <v>157</v>
       </c>
       <c r="G90" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G91" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G92" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G93" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G95" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G96" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G97" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G98" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G99" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G101" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G102" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G103" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G104" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G105" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G106" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G107" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G108" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G109" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G110" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G111" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G112" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G113" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G114" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G115" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G116" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G117" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G118" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="6:7">
@@ -4836,7 +4736,7 @@
         <v>186</v>
       </c>
       <c r="G119" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="6:7">
@@ -4844,7 +4744,7 @@
         <v>186</v>
       </c>
       <c r="G120" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="6:7">
@@ -4852,95 +4752,47 @@
         <v>186</v>
       </c>
       <c r="G121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G122" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G123" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G125" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G126" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="127" spans="6:7">
-      <c r="F127" t="s">
-        <v>193</v>
-      </c>
-      <c r="G127" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7">
-      <c r="F128" t="s">
-        <v>193</v>
-      </c>
-      <c r="G128" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7">
-      <c r="F129" t="s">
-        <v>197</v>
-      </c>
-      <c r="G129" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="130" spans="6:7">
-      <c r="F130" t="s">
-        <v>201</v>
-      </c>
-      <c r="G130" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7">
-      <c r="F131" t="s">
-        <v>205</v>
-      </c>
-      <c r="G131" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" spans="6:7">
-      <c r="F132" t="s">
-        <v>205</v>
-      </c>
-      <c r="G132" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4980,7 +4832,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -4989,72 +4841,72 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O8" s="1">
         <v>5</v>
@@ -5066,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5074,34 +4926,34 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
@@ -5113,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5121,34 +4973,34 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="O10" s="1">
         <v>6</v>
@@ -5160,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5168,34 +5020,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="O11" s="1">
         <v>3</v>
@@ -5207,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5215,34 +5067,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O12" s="1">
         <v>11</v>
@@ -5254,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5262,34 +5114,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="O13" s="1">
         <v>12</v>
@@ -5301,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5309,34 +5161,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="O14" s="1">
         <v>9</v>
@@ -5348,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5356,34 +5208,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="O15" s="1">
         <v>10</v>
@@ -5395,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5429,56 +5281,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="14540" tabRatio="800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
     <sheet name="IAM_DASHBOARD_ROLE" sheetId="5" r:id="rId5"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1087,6 +1088,24 @@
   </si>
   <si>
     <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>AGILE</t>
   </si>
 </sst>
 </file>
@@ -1094,15 +1113,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1111,30 +1136,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,29 +1148,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,15 +1166,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,9 +1225,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1223,8 +1247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,29 +1264,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,31 +1301,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,19 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,25 +1439,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,101 +1475,82 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1494,11 +1578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,249 +1607,202 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2026,7 +2069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:N31"/>
   <sheetViews>
@@ -2034,53 +2077,53 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="19.0095238095238" customWidth="1"/>
-    <col min="6" max="6" width="38.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="19.0073529411765" customWidth="1"/>
+    <col min="6" max="6" width="38.8602941176471" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="19.0095238095238" customWidth="1"/>
-    <col min="10" max="10" width="14.2" customWidth="1"/>
-    <col min="11" max="11" width="19.0095238095238" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
-    <col min="13" max="13" width="18.8" customWidth="1"/>
-    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
-    <col min="15" max="15" width="19.0095238095238" customWidth="1"/>
+    <col min="9" max="9" width="19.0073529411765" customWidth="1"/>
+    <col min="10" max="10" width="14.1985294117647" customWidth="1"/>
+    <col min="11" max="11" width="19.0073529411765" customWidth="1"/>
+    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
+    <col min="13" max="13" width="18.8014705882353" customWidth="1"/>
+    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
+    <col min="15" max="15" width="19.0073529411765" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:14">
-      <c r="D7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2791,55 +2834,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="15.2" customWidth="1"/>
-    <col min="6" max="6" width="46.8" customWidth="1"/>
-    <col min="7" max="7" width="16.8" customWidth="1"/>
+    <col min="4" max="4" width="15.1985294117647" customWidth="1"/>
+    <col min="6" max="6" width="46.8014705882353" customWidth="1"/>
+    <col min="7" max="7" width="16.8014705882353" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="27.2095238095238" customWidth="1"/>
-    <col min="10" max="10" width="18.5904761904762" customWidth="1"/>
-    <col min="11" max="11" width="29.2095238095238" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="9" max="9" width="27.2058823529412" customWidth="1"/>
+    <col min="10" max="10" width="18.5882352941176" customWidth="1"/>
+    <col min="11" max="11" width="29.2058823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
-      <c r="D7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:16">
+      <c r="D7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N7" t="s">
@@ -2848,21 +2891,21 @@
       <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:15">
-      <c r="F8" s="2" t="s">
+    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+      <c r="F8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
@@ -3814,32 +3857,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="6" max="6" width="36.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="19.0095238095238" customWidth="1"/>
+    <col min="4" max="4" width="23.8014705882353" customWidth="1"/>
+    <col min="6" max="6" width="36.7132352941176" customWidth="1"/>
+    <col min="7" max="7" width="19.0073529411765" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:7">
-      <c r="D7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+      <c r="D7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4806,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:U15"/>
   <sheetViews>
@@ -4814,110 +4857,110 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.2571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4666666666667" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.8952380952381" style="1" customWidth="1"/>
-    <col min="9" max="10" width="24.0285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4761904761905" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6761904761905" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.6380952380952" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.3904761904762" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.6380952380952" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.2647058823529" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.2573529411765" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.4632352941176" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.8970588235294" style="2" customWidth="1"/>
+    <col min="9" max="10" width="24.0294117647059" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.4779411764706" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.6397058823529" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.6764705882353" style="2" customWidth="1"/>
+    <col min="14" max="17" width="11.6397058823529" style="2" customWidth="1"/>
+    <col min="18" max="18" width="46.3897058823529" style="2" customWidth="1"/>
+    <col min="19" max="1025" width="11.6397058823529" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="8" spans="5:21">
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>5</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>1</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>320</v>
       </c>
       <c r="S8"/>
@@ -4925,46 +4968,46 @@
       <c r="U8"/>
     </row>
     <row r="9" spans="5:21">
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>4</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <v>0</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>1</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>320</v>
       </c>
       <c r="S9"/>
@@ -4972,46 +5015,46 @@
       <c r="U9"/>
     </row>
     <row r="10" spans="5:21">
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>6</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <v>0</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <v>1</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>327</v>
       </c>
       <c r="S10"/>
@@ -5019,46 +5062,46 @@
       <c r="U10"/>
     </row>
     <row r="11" spans="5:21">
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="2">
         <v>1</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="2" t="s">
         <v>332</v>
       </c>
       <c r="S11"/>
@@ -5066,46 +5109,46 @@
       <c r="U11"/>
     </row>
     <row r="12" spans="5:21">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>11</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="2">
         <v>1</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="2" t="s">
         <v>337</v>
       </c>
       <c r="S12"/>
@@ -5113,46 +5156,46 @@
       <c r="U12"/>
     </row>
     <row r="13" spans="5:21">
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>12</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <v>1</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="2">
         <v>1</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="2" t="s">
         <v>341</v>
       </c>
       <c r="S13"/>
@@ -5160,46 +5203,46 @@
       <c r="U13"/>
     </row>
     <row r="14" spans="5:21">
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="2">
         <v>9</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>1</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="2" t="s">
         <v>346</v>
       </c>
       <c r="S14"/>
@@ -5207,46 +5250,46 @@
       <c r="U14"/>
     </row>
     <row r="15" spans="5:21">
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>10</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="2">
         <v>1</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <v>1</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>351</v>
       </c>
       <c r="S15"/>
@@ -5254,14 +5297,14 @@
       <c r="U15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G12"/>
   <sheetViews>
@@ -5269,73 +5312,324 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6" style="1"/>
-    <col min="4" max="4" width="22.2" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6" style="1"/>
-    <col min="6" max="6" width="24.4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.4" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.6" style="1"/>
+    <col min="1" max="3" width="11.6029411764706" style="2"/>
+    <col min="4" max="4" width="22.1985294117647" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6029411764706" style="2"/>
+    <col min="6" max="6" width="24.3970588235294" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.3970588235294" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6029411764706" style="2"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>355</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D6:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="34.1838235294118" customWidth="1"/>
+    <col min="5" max="5" width="18.8676470588235" customWidth="1"/>
+    <col min="6" max="6" width="15.3088235294118" customWidth="1"/>
+    <col min="7" max="7" width="38.6029411764706" customWidth="1"/>
+    <col min="8" max="8" width="16.9044117647059" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="14.75"/>
+    <row r="7" ht="19" customHeight="1" spans="4:8">
+      <c r="D7" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>361</v>
+      </c>
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\io.choerodon.gitlab\iam-service\src\main\resources\script\front\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="14540" tabRatio="800" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14544" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="363">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1106,19 +1110,27 @@
   </si>
   <si>
     <t>AGILE</t>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1136,357 +1148,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="DejaVu Sans"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1509,241 +1190,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1753,61 +1202,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2065,34 +1470,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="19.0073529411765" customWidth="1"/>
-    <col min="6" max="6" width="38.8602941176471" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="19.0073529411765" customWidth="1"/>
-    <col min="10" max="10" width="14.1985294117647" customWidth="1"/>
-    <col min="11" max="11" width="19.0073529411765" customWidth="1"/>
-    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
-    <col min="13" max="13" width="18.8014705882353" customWidth="1"/>
-    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
-    <col min="15" max="15" width="19.0073529411765" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +1531,11 @@
       <c r="N7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="6:14">
+      <c r="O7" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -2185,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -2214,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -2243,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -2272,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -2301,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -2358,8 +1766,11 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="6:14">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -2824,8 +2235,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2834,27 +2246,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:P37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F29"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="15.1985294117647" customWidth="1"/>
-    <col min="6" max="6" width="46.8014705882353" customWidth="1"/>
-    <col min="7" max="7" width="16.8014705882353" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="46.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="27.2058823529412" customWidth="1"/>
-    <col min="10" max="10" width="18.5882352941176" customWidth="1"/>
-    <col min="11" max="11" width="29.2058823529412" customWidth="1"/>
-    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="29.21875" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:16">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="3" t="s">
         <v>83</v>
       </c>
@@ -2894,8 +2305,11 @@
       <c r="P7" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+      <c r="Q7" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="12.75" customHeight="1">
       <c r="F8" s="3" t="s">
         <v>93</v>
       </c>
@@ -2924,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:17">
       <c r="F9" t="s">
         <v>99</v>
       </c>
@@ -2956,7 +2370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:17">
       <c r="F10" t="s">
         <v>104</v>
       </c>
@@ -2988,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:17">
       <c r="F11" t="s">
         <v>108</v>
       </c>
@@ -3020,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:17">
       <c r="F12" t="s">
         <v>112</v>
       </c>
@@ -3052,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:17">
       <c r="F13" t="s">
         <v>116</v>
       </c>
@@ -3084,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:17">
       <c r="F14" t="s">
         <v>120</v>
       </c>
@@ -3116,7 +2530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:17">
       <c r="F15" t="s">
         <v>124</v>
       </c>
@@ -3148,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:17">
       <c r="F16" t="s">
         <v>128</v>
       </c>
@@ -3179,8 +2593,11 @@
       <c r="O16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="6:15">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16">
       <c r="F17" t="s">
         <v>132</v>
       </c>
@@ -3209,7 +2626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="6:16">
       <c r="F18" t="s">
         <v>136</v>
       </c>
@@ -3241,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:16">
       <c r="F19" t="s">
         <v>140</v>
       </c>
@@ -3273,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:16">
       <c r="F20" t="s">
         <v>144</v>
       </c>
@@ -3305,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:16">
       <c r="F21" t="s">
         <v>146</v>
       </c>
@@ -3337,7 +2754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="6:15">
+    <row r="22" spans="6:16">
       <c r="F22" t="s">
         <v>150</v>
       </c>
@@ -3369,7 +2786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="6:15">
+    <row r="23" spans="6:16">
       <c r="F23" t="s">
         <v>153</v>
       </c>
@@ -3401,7 +2818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="6:15">
+    <row r="24" spans="6:16">
       <c r="F24" t="s">
         <v>157</v>
       </c>
@@ -3433,7 +2850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="6:15">
+    <row r="25" spans="6:16">
       <c r="F25" t="s">
         <v>161</v>
       </c>
@@ -3462,7 +2879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="6:15">
+    <row r="26" spans="6:16">
       <c r="F26" t="s">
         <v>165</v>
       </c>
@@ -3494,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:15">
+    <row r="27" spans="6:16">
       <c r="F27" t="s">
         <v>169</v>
       </c>
@@ -3523,7 +2940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="6:15">
+    <row r="28" spans="6:16">
       <c r="F28" t="s">
         <v>173</v>
       </c>
@@ -3555,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:15">
+    <row r="29" spans="6:16">
       <c r="F29" t="s">
         <v>175</v>
       </c>
@@ -3847,8 +3264,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3857,22 +3275,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:G126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H126"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="23.8014705882353" customWidth="1"/>
-    <col min="6" max="6" width="36.7132352941176" customWidth="1"/>
-    <col min="7" max="7" width="19.0073529411765" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="7" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="3" t="s">
         <v>202</v>
       </c>
@@ -3885,8 +3302,11 @@
       <c r="G7" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="6:7">
+      <c r="H7" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>99</v>
       </c>
@@ -3894,7 +3314,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>99</v>
       </c>
@@ -3902,7 +3322,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>99</v>
       </c>
@@ -3910,7 +3330,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>99</v>
       </c>
@@ -3918,7 +3338,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>99</v>
       </c>
@@ -3926,7 +3346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>104</v>
       </c>
@@ -3934,7 +3354,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>104</v>
       </c>
@@ -3942,7 +3362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>104</v>
       </c>
@@ -3950,7 +3370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>104</v>
       </c>
@@ -4086,7 +3506,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:8">
       <c r="F33" t="s">
         <v>116</v>
       </c>
@@ -4094,7 +3514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:8">
       <c r="F34" t="s">
         <v>116</v>
       </c>
@@ -4102,7 +3522,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:8">
       <c r="F35" t="s">
         <v>116</v>
       </c>
@@ -4110,7 +3530,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:8">
       <c r="F36" t="s">
         <v>116</v>
       </c>
@@ -4118,7 +3538,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:8">
       <c r="F37" t="s">
         <v>120</v>
       </c>
@@ -4126,7 +3546,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:8">
       <c r="F38" t="s">
         <v>120</v>
       </c>
@@ -4134,7 +3554,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:8">
       <c r="F39" t="s">
         <v>120</v>
       </c>
@@ -4142,7 +3562,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:8">
       <c r="F40" t="s">
         <v>124</v>
       </c>
@@ -4150,7 +3570,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:8">
       <c r="F41" t="s">
         <v>124</v>
       </c>
@@ -4158,7 +3578,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="6:8">
       <c r="F42" t="s">
         <v>124</v>
       </c>
@@ -4166,39 +3586,51 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="6:8">
       <c r="F43" t="s">
         <v>128</v>
       </c>
       <c r="G43" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="44" spans="6:7">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8">
       <c r="F44" t="s">
         <v>128</v>
       </c>
       <c r="G44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="45" spans="6:7">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8">
       <c r="F45" t="s">
         <v>128</v>
       </c>
       <c r="G45" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="46" spans="6:7">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8">
       <c r="F46" t="s">
         <v>128</v>
       </c>
       <c r="G46" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="6:7">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8">
       <c r="F47" t="s">
         <v>136</v>
       </c>
@@ -4206,7 +3638,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="6:7">
+    <row r="48" spans="6:8">
       <c r="F48" t="s">
         <v>136</v>
       </c>
@@ -4839,8 +4271,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -4849,31 +4282,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:U15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:AMK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.2647058823529" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.2573529411765" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.4632352941176" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.8970588235294" style="2" customWidth="1"/>
-    <col min="9" max="10" width="24.0294117647059" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.4779411764706" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.6397058823529" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.6764705882353" style="2" customWidth="1"/>
-    <col min="14" max="17" width="11.6397058823529" style="2" customWidth="1"/>
-    <col min="18" max="18" width="46.3897058823529" style="2" customWidth="1"/>
-    <col min="19" max="1025" width="11.6397058823529" style="2" customWidth="1"/>
+    <col min="1" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.88671875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="24" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="2" customWidth="1"/>
+    <col min="14" max="17" width="11.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="46.33203125" style="2" customWidth="1"/>
+    <col min="19" max="1025" width="11.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:21">
       <c r="D7" s="2" t="s">
         <v>309</v>
       </c>
@@ -4920,7 +4352,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="5:21">
+    <row r="8" spans="4:21">
       <c r="E8" s="2" t="s">
         <v>317</v>
       </c>
@@ -4967,7 +4399,7 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="5:21">
+    <row r="9" spans="4:21">
       <c r="E9" s="2" t="s">
         <v>321</v>
       </c>
@@ -5014,7 +4446,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="5:21">
+    <row r="10" spans="4:21">
       <c r="E10" s="2" t="s">
         <v>324</v>
       </c>
@@ -5061,7 +4493,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="5:21">
+    <row r="11" spans="4:21">
       <c r="E11" s="2" t="s">
         <v>328</v>
       </c>
@@ -5108,7 +4540,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="5:21">
+    <row r="12" spans="4:21">
       <c r="E12" s="2" t="s">
         <v>333</v>
       </c>
@@ -5155,7 +4587,7 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="5:21">
+    <row r="13" spans="4:21">
       <c r="E13" s="2" t="s">
         <v>338</v>
       </c>
@@ -5202,7 +4634,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="5:21">
+    <row r="14" spans="4:21">
       <c r="E14" s="2" t="s">
         <v>342</v>
       </c>
@@ -5249,7 +4681,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="5:21">
+    <row r="15" spans="4:21">
       <c r="E15" s="2" t="s">
         <v>347</v>
       </c>
@@ -5297,29 +4729,28 @@
       <c r="U15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:AMK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.6029411764706" style="2"/>
-    <col min="4" max="4" width="22.1985294117647" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6029411764706" style="2"/>
-    <col min="6" max="6" width="24.3970588235294" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.3970588235294" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="11.6029411764706" style="2"/>
+    <col min="1" max="3" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="22.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2"/>
+    <col min="6" max="6" width="24.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
@@ -5336,7 +4767,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="4:7">
       <c r="F8" s="2" t="s">
         <v>328</v>
       </c>
@@ -5344,7 +4775,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:7">
       <c r="F9" s="2" t="s">
         <v>333</v>
       </c>
@@ -5352,7 +4783,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:7">
       <c r="F10" s="2" t="s">
         <v>338</v>
       </c>
@@ -5360,7 +4791,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:7">
       <c r="F11" s="2" t="s">
         <v>342</v>
       </c>
@@ -5368,7 +4799,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:7">
       <c r="F12" s="2" t="s">
         <v>347</v>
       </c>
@@ -5377,32 +4808,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D6:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="34.1838235294118" customWidth="1"/>
-    <col min="5" max="5" width="18.8676470588235" customWidth="1"/>
-    <col min="6" max="6" width="15.3088235294118" customWidth="1"/>
-    <col min="7" max="7" width="38.6029411764706" customWidth="1"/>
-    <col min="8" max="8" width="16.9044117647059" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.75"/>
-    <row r="7" ht="19" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="19.05" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>356</v>
       </c>
@@ -5419,7 +4848,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>359</v>
       </c>
@@ -5430,7 +4859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>359</v>
       </c>
@@ -5441,7 +4870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>359</v>
       </c>
@@ -5452,7 +4881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>359</v>
       </c>
@@ -5463,7 +4892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>359</v>
       </c>
@@ -5474,7 +4903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>359</v>
       </c>
@@ -5485,7 +4914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>359</v>
       </c>
@@ -5496,7 +4925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>359</v>
       </c>
@@ -5507,7 +4936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>359</v>
       </c>
@@ -5629,7 +5058,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14544" tabRatio="800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14544" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1478,15 +1478,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="37.21875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="14.21875" customWidth="1"/>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:15">
       <c r="F17" t="s">
         <v>42</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="6:15">
       <c r="F18" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="6:15">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
         <v>50</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
         <v>53</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="6:15">
       <c r="F22" t="s">
         <v>56</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="6:15">
       <c r="F23" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="6:15">
       <c r="F24" t="s">
         <v>62</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="6:15">
       <c r="F25" t="s">
         <v>65</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="6:15">
       <c r="F26" t="s">
         <v>68</v>
       </c>
@@ -2088,8 +2088,11 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="6:14">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15">
       <c r="F27" t="s">
         <v>69</v>
       </c>
@@ -2117,8 +2120,11 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="6:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15">
       <c r="F28" t="s">
         <v>70</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:14">
+    <row r="29" spans="6:15">
       <c r="F29" t="s">
         <v>74</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="6:15">
       <c r="F30" t="s">
         <v>77</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:15">
       <c r="F31" t="s">
         <v>80</v>
       </c>
@@ -2249,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2259,7 +2265,7 @@
     <col min="6" max="6" width="46.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" customWidth="1"/>
+    <col min="9" max="9" width="63.88671875" customWidth="1"/>
     <col min="10" max="10" width="18.5546875" customWidth="1"/>
     <col min="11" max="11" width="29.21875" customWidth="1"/>
     <col min="12" max="12" width="19.21875" customWidth="1"/>
@@ -2597,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:16">
+    <row r="17" spans="6:17">
       <c r="F17" t="s">
         <v>132</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:16">
+    <row r="18" spans="6:17">
       <c r="F18" t="s">
         <v>136</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:16">
+    <row r="19" spans="6:17">
       <c r="F19" t="s">
         <v>140</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="6:16">
+    <row r="20" spans="6:17">
       <c r="F20" t="s">
         <v>144</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="6:16">
+    <row r="21" spans="6:17">
       <c r="F21" t="s">
         <v>146</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="6:16">
+    <row r="22" spans="6:17">
       <c r="F22" t="s">
         <v>150</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="6:16">
+    <row r="23" spans="6:17">
       <c r="F23" t="s">
         <v>153</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="6:16">
+    <row r="24" spans="6:17">
       <c r="F24" t="s">
         <v>157</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="6:16">
+    <row r="25" spans="6:17">
       <c r="F25" t="s">
         <v>161</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="6:16">
+    <row r="26" spans="6:17">
       <c r="F26" t="s">
         <v>165</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:16">
+    <row r="27" spans="6:17">
       <c r="F27" t="s">
         <v>169</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="6:16">
+    <row r="28" spans="6:17">
       <c r="F28" t="s">
         <v>173</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:16">
+    <row r="29" spans="6:17">
       <c r="F29" t="s">
         <v>175</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="6:16">
+    <row r="30" spans="6:17">
       <c r="F30" t="s">
         <v>177</v>
       </c>
@@ -3035,8 +3041,11 @@
       <c r="P30" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="6:16">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17">
       <c r="F31" t="s">
         <v>179</v>
       </c>
@@ -3070,8 +3079,11 @@
       <c r="P31" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="32" spans="6:16">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17">
       <c r="F32" t="s">
         <v>180</v>
       </c>
@@ -3104,6 +3116,9 @@
       </c>
       <c r="P32" t="s">
         <v>178</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="6:15">
@@ -3278,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4030,7 +4045,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="6:7">
+    <row r="97" spans="6:8">
       <c r="F97" t="s">
         <v>173</v>
       </c>
@@ -4038,7 +4053,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="6:7">
+    <row r="98" spans="6:8">
       <c r="F98" t="s">
         <v>173</v>
       </c>
@@ -4046,7 +4061,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="6:7">
+    <row r="99" spans="6:8">
       <c r="F99" t="s">
         <v>173</v>
       </c>
@@ -4054,7 +4069,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="6:7">
+    <row r="100" spans="6:8">
       <c r="F100" t="s">
         <v>173</v>
       </c>
@@ -4062,7 +4077,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="6:7">
+    <row r="101" spans="6:8">
       <c r="F101" t="s">
         <v>173</v>
       </c>
@@ -4070,7 +4085,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="6:7">
+    <row r="102" spans="6:8">
       <c r="F102" t="s">
         <v>173</v>
       </c>
@@ -4078,7 +4093,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="6:7">
+    <row r="103" spans="6:8">
       <c r="F103" t="s">
         <v>173</v>
       </c>
@@ -4086,7 +4101,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="6:7">
+    <row r="104" spans="6:8">
       <c r="F104" t="s">
         <v>173</v>
       </c>
@@ -4094,7 +4109,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="6:7">
+    <row r="105" spans="6:8">
       <c r="F105" t="s">
         <v>175</v>
       </c>
@@ -4102,7 +4117,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="6:7">
+    <row r="106" spans="6:8">
       <c r="F106" t="s">
         <v>175</v>
       </c>
@@ -4110,7 +4125,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="6:7">
+    <row r="107" spans="6:8">
       <c r="F107" t="s">
         <v>175</v>
       </c>
@@ -4118,95 +4133,128 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="6:7">
+    <row r="108" spans="6:8">
       <c r="F108" t="s">
         <v>179</v>
       </c>
       <c r="G108" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="109" spans="6:7">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="6:8">
       <c r="F109" t="s">
         <v>179</v>
       </c>
       <c r="G109" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="110" spans="6:7">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8">
       <c r="F110" t="s">
         <v>179</v>
       </c>
       <c r="G110" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="111" spans="6:7">
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8">
       <c r="F111" t="s">
         <v>179</v>
       </c>
       <c r="G111" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="112" spans="6:7">
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8">
       <c r="F112" t="s">
         <v>179</v>
       </c>
       <c r="G112" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="113" spans="6:7">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8">
       <c r="F113" t="s">
         <v>179</v>
       </c>
       <c r="G113" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="114" spans="6:7">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8">
       <c r="F114" t="s">
         <v>179</v>
       </c>
       <c r="G114" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="115" spans="6:7">
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8">
       <c r="F115" t="s">
         <v>179</v>
       </c>
       <c r="G115" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="116" spans="6:7">
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8">
       <c r="F116" t="s">
         <v>180</v>
       </c>
       <c r="G116" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="117" spans="6:7">
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8">
       <c r="F117" t="s">
         <v>180</v>
       </c>
       <c r="G117" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="118" spans="6:7">
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8">
       <c r="F118" t="s">
         <v>180</v>
       </c>
       <c r="G118" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="119" spans="6:7">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8">
       <c r="F119" t="s">
         <v>186</v>
       </c>
@@ -4214,7 +4262,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="6:7">
+    <row r="120" spans="6:8">
       <c r="F120" t="s">
         <v>186</v>
       </c>
@@ -4222,7 +4270,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="6:7">
+    <row r="121" spans="6:8">
       <c r="F121" t="s">
         <v>186</v>
       </c>
@@ -4230,7 +4278,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="6:7">
+    <row r="122" spans="6:8">
       <c r="F122" t="s">
         <v>186</v>
       </c>
@@ -4238,7 +4286,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="6:7">
+    <row r="123" spans="6:8">
       <c r="F123" t="s">
         <v>190</v>
       </c>
@@ -4246,7 +4294,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="6:7">
+    <row r="124" spans="6:8">
       <c r="F124" t="s">
         <v>194</v>
       </c>
@@ -4254,7 +4302,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="6:7">
+    <row r="125" spans="6:8">
       <c r="F125" t="s">
         <v>198</v>
       </c>
@@ -4262,7 +4310,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="6:7">
+    <row r="126" spans="6:8">
       <c r="F126" t="s">
         <v>198</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -19,12 +19,12 @@
     <sheet name="IAM_DASHBOARD_ROLE" sheetId="5" r:id="rId5"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="381">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1125,12 +1125,91 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>choerodon.code.iam.organization</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>manage_organization</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.organization</t>
+  </si>
+  <si>
+    <t>choerodon.route.iam.organization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-service</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/iam/organization</t>
+  </si>
+  <si>
+    <t>iam-service</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织管理路由</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.iam.organization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam-service.organization.disableOrganization</t>
+  </si>
+  <si>
+    <t>iam-service.organization.enableOrganization</t>
+  </si>
+  <si>
+    <t>iam-service.organization.list</t>
+  </si>
+  <si>
+    <t>iam-service.organization.query</t>
+  </si>
+  <si>
+    <t>iam-service.organization.update</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1157,6 +1236,17 @@
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1194,13 +1284,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1476,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O31"/>
+  <dimension ref="D7:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1535,41 +1627,46 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:15">
       <c r="F9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -1578,7 +1675,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1595,10 +1692,10 @@
     </row>
     <row r="10" spans="4:15">
       <c r="F10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1607,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -1624,10 +1721,10 @@
     </row>
     <row r="11" spans="4:15">
       <c r="F11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1636,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1653,10 +1750,10 @@
     </row>
     <row r="12" spans="4:15">
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1665,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -1682,10 +1779,10 @@
     </row>
     <row r="13" spans="4:15">
       <c r="F13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1694,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -1711,10 +1808,10 @@
     </row>
     <row r="14" spans="4:15">
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1723,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -1740,10 +1837,10 @@
     </row>
     <row r="15" spans="4:15">
       <c r="F15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1752,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
@@ -1766,25 +1863,22 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="4:15">
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -1798,13 +1892,16 @@
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="6:15">
       <c r="F17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1813,7 +1910,7 @@
         <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -1830,10 +1927,10 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1842,7 +1939,7 @@
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -1859,10 +1956,10 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1871,7 +1968,7 @@
         <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -1888,10 +1985,10 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1900,7 +1997,7 @@
         <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -1917,10 +2014,10 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1929,7 +2026,7 @@
         <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -1946,10 +2043,10 @@
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1958,7 +2055,7 @@
         <v>40</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
@@ -1975,10 +2072,10 @@
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1987,7 +2084,7 @@
         <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -2004,19 +2101,19 @@
     </row>
     <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -2033,10 +2130,10 @@
     </row>
     <row r="25" spans="6:15">
       <c r="F25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -2045,7 +2142,7 @@
         <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -2062,10 +2159,10 @@
     </row>
     <row r="26" spans="6:15">
       <c r="F26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -2074,7 +2171,7 @@
         <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -2088,16 +2185,13 @@
       <c r="N26">
         <v>0</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -2106,7 +2200,7 @@
         <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -2126,19 +2220,19 @@
     </row>
     <row r="28" spans="6:15">
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2152,13 +2246,16 @@
       <c r="N28">
         <v>0</v>
       </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2167,7 +2264,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -2184,10 +2281,10 @@
     </row>
     <row r="30" spans="6:15">
       <c r="F30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -2196,7 +2293,7 @@
         <v>72</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -2213,10 +2310,10 @@
     </row>
     <row r="31" spans="6:15">
       <c r="F31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2225,7 +2322,7 @@
         <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2237,6 +2334,35 @@
         <v>1</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15">
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>0</v>
       </c>
     </row>
@@ -2253,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q37"/>
+  <dimension ref="D7:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2344,21 +2470,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:17">
-      <c r="F9" t="s">
-        <v>99</v>
+    <row r="9" spans="4:17" ht="12.75" customHeight="1">
+      <c r="F9" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
+        <v>365</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="K9" t="s">
         <v>93</v>
@@ -2370,24 +2496,27 @@
         <v>102</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:17">
       <c r="F10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -2402,24 +2531,24 @@
         <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:17">
       <c r="F11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -2434,24 +2563,24 @@
         <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="4:17">
       <c r="F12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -2466,24 +2595,24 @@
         <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="4:17">
       <c r="F13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -2498,24 +2627,24 @@
         <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:17">
       <c r="F14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -2530,24 +2659,24 @@
         <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="4:17">
       <c r="F15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -2562,24 +2691,24 @@
         <v>102</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="4:17">
       <c r="F16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -2594,88 +2723,88 @@
         <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O16">
-        <v>8</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="6:17">
       <c r="F17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="6:17">
       <c r="F18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s">
         <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="6:17">
       <c r="F19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -2690,24 +2819,24 @@
         <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="6:17">
       <c r="F20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -2722,24 +2851,24 @@
         <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="6:17">
       <c r="F21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -2754,24 +2883,24 @@
         <v>102</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="6:17">
       <c r="F22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
@@ -2786,24 +2915,24 @@
         <v>102</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="6:17">
       <c r="F23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
@@ -2818,24 +2947,24 @@
         <v>102</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="6:17">
       <c r="F24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -2850,146 +2979,146 @@
         <v>102</v>
       </c>
       <c r="N24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O24">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="6:17">
       <c r="F25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s">
         <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="6:17">
       <c r="F26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s">
         <v>40</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="6:17">
       <c r="F27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="6:17">
       <c r="F28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s">
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N28" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="6:17">
       <c r="F29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -3004,77 +3133,71 @@
         <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="6:17">
       <c r="F30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H30" t="s">
         <v>171</v>
       </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N30" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="O30">
-        <v>6</v>
-      </c>
-      <c r="P30" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="6:17">
       <c r="F31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N31" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P31" t="s">
         <v>178</v>
@@ -3085,16 +3208,16 @@
     </row>
     <row r="32" spans="6:17">
       <c r="F32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
@@ -3109,10 +3232,10 @@
         <v>102</v>
       </c>
       <c r="N32" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
         <v>178</v>
@@ -3121,79 +3244,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:15">
+    <row r="33" spans="6:17">
       <c r="F33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>171</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="M33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N33" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="O33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17">
       <c r="F34" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I34" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:15">
+    <row r="35" spans="6:17">
       <c r="F35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
@@ -3208,24 +3337,24 @@
         <v>102</v>
       </c>
       <c r="N35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17">
       <c r="F36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
@@ -3240,24 +3369,24 @@
         <v>102</v>
       </c>
       <c r="N36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17">
       <c r="F37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
@@ -3272,9 +3401,41 @@
         <v>102</v>
       </c>
       <c r="N37" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17">
+      <c r="F38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>102</v>
+      </c>
+      <c r="N38" t="s">
         <v>201</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>4</v>
       </c>
     </row>
@@ -3291,10 +3452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H126"/>
+  <dimension ref="D7:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4316,6 +4477,61 @@
       </c>
       <c r="G126" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8">
+      <c r="F127" t="s">
+        <v>363</v>
+      </c>
+      <c r="G127" t="s">
+        <v>376</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8">
+      <c r="F128" t="s">
+        <v>363</v>
+      </c>
+      <c r="G128" t="s">
+        <v>377</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8">
+      <c r="F129" t="s">
+        <v>363</v>
+      </c>
+      <c r="G129" t="s">
+        <v>378</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8">
+      <c r="F130" t="s">
+        <v>363</v>
+      </c>
+      <c r="G130" t="s">
+        <v>379</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8">
+      <c r="F131" t="s">
+        <v>363</v>
+      </c>
+      <c r="G131" t="s">
+        <v>380</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21900" windowHeight="14540" tabRatio="800" activeTab="1"/>
+    <workbookView windowHeight="14540" tabRatio="800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -321,7 +321,7 @@
     <t>ICON</t>
   </si>
   <si>
-    <t>@SORT</t>
+    <t>SORT</t>
   </si>
   <si>
     <t>CATEGORY</t>
@@ -1043,6 +1043,9 @@
     <t>FD_LEVEL</t>
   </si>
   <si>
+    <t>@SORT</t>
+  </si>
+  <si>
     <t>NEED_ROLES</t>
   </si>
   <si>
@@ -1192,10 +1195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1226,29 +1229,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1256,7 +1244,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1271,6 +1259,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1279,38 +1274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,6 +1287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1330,9 +1302,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,14 +1335,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1362,15 +1350,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,19 +1399,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,13 +1471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,61 +1495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,55 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,6 +1526,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,26 +1602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1628,6 +1616,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,17 +1650,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,168 +1693,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2985,8 +2988,8 @@
   <sheetPr/>
   <dimension ref="D7:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="B30" sqref="$A30:$XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5208,24 +5211,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5234,19 +5237,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5261,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5269,31 +5272,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5308,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5316,10 +5319,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5328,22 +5331,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5355,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5363,34 +5366,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5402,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5410,34 +5413,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5449,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5457,34 +5460,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5496,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5504,34 +5507,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5543,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5551,34 +5554,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5590,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5624,56 +5627,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5704,24 +5707,24 @@
     <row r="6" ht="14.75"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5732,7 +5735,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -5754,7 +5757,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -5765,7 +5768,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -5776,7 +5779,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -5787,7 +5790,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -5820,7 +5823,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -5831,40 +5834,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -5875,7 +5878,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -5886,7 +5889,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14540" tabRatio="800" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12660" tabRatio="800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="376">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1052,7 +1052,7 @@
     <t>IS_ENABLED</t>
   </si>
   <si>
-    <t>@POSITION</t>
+    <t>POSITION</t>
   </si>
   <si>
     <t>ProjectInfo</t>
@@ -1083,9 +1083,6 @@
   </si>
   <si>
     <t>domain</t>
-  </si>
-  <si>
-    <t>{"width": 4, "positionX": 0, "positionY": 0, "height": 3}</t>
   </si>
   <si>
     <t>Announcement</t>
@@ -1197,8 +1194,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1235,9 +1232,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1251,23 +1262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1275,13 +1272,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,62 +1285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,6 +1316,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
@@ -1393,7 +1390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,13 +1414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,19 +1438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,31 +1468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,7 +1486,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,79 +1564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,6 +1617,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1650,6 +1656,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1675,172 +1696,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2173,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:O32"/>
   <sheetViews>
@@ -2181,18 +2178,18 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="38.8897058823529" customWidth="1"/>
-    <col min="7" max="7" width="37.2205882352941" customWidth="1"/>
+    <col min="6" max="6" width="38.8857142857143" customWidth="1"/>
+    <col min="7" max="7" width="37.2190476190476" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.2205882352941" customWidth="1"/>
+    <col min="10" max="10" width="14.2190476190476" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
-    <col min="13" max="13" width="18.7794117647059" customWidth="1"/>
-    <col min="14" max="14" width="19.3308823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
+    <col min="13" max="13" width="18.7809523809524" customWidth="1"/>
+    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2984,24 +2981,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+    <sheetView topLeftCell="L2" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="15.2205882352941" customWidth="1"/>
-    <col min="6" max="6" width="46.7794117647059" customWidth="1"/>
-    <col min="7" max="7" width="16.7794117647059" customWidth="1"/>
+    <col min="4" max="4" width="15.2190476190476" customWidth="1"/>
+    <col min="6" max="6" width="46.7809523809524" customWidth="1"/>
+    <col min="7" max="7" width="16.7809523809524" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="63.8897058823529" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
-    <col min="11" max="11" width="29.2205882352941" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
+    <col min="9" max="9" width="63.8857142857143" customWidth="1"/>
+    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
+    <col min="11" max="11" width="29.2190476190476" customWidth="1"/>
+    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.75" customHeight="1" spans="4:17">
@@ -4057,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:H131"/>
   <sheetViews>
@@ -4065,10 +4062,10 @@
       <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="23.7794117647059" customWidth="1"/>
-    <col min="6" max="6" width="36.6617647058824" customWidth="1"/>
+    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
+    <col min="6" max="6" width="36.6571428571429" customWidth="1"/>
     <col min="7" max="7" width="63" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5152,28 +5149,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.6617647058824" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.2205882352941" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.2205882352941" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.4411764705882" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.8897058823529" style="2" customWidth="1"/>
+    <col min="1" max="3" width="11.6571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.2190476190476" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.2190476190476" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.4380952380952" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.8857142857143" style="2" customWidth="1"/>
     <col min="9" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.4411764705882" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.6617647058824" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.6617647058824" style="2" customWidth="1"/>
-    <col min="14" max="17" width="11.6617647058824" style="2" customWidth="1"/>
-    <col min="18" max="18" width="46.3308823529412" style="2" customWidth="1"/>
-    <col min="19" max="1025" width="11.6617647058824" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.4380952380952" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.6571428571429" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.6571428571429" style="2" customWidth="1"/>
+    <col min="14" max="17" width="11.6571428571429" style="2" customWidth="1"/>
+    <col min="18" max="18" width="46.3333333333333" style="2" customWidth="1"/>
+    <col min="19" max="1025" width="11.6571428571429" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
@@ -5358,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5366,22 +5363,22 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="I11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>333</v>
@@ -5390,10 +5387,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5405,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5413,22 +5410,22 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="I12" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>333</v>
@@ -5437,10 +5434,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5452,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5460,22 +5457,22 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="I13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>333</v>
@@ -5484,7 +5481,7 @@
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>341</v>
@@ -5499,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5507,22 +5504,22 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="I14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>333</v>
@@ -5531,10 +5528,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5546,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5554,22 +5551,22 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="I15" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>333</v>
@@ -5578,10 +5575,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5593,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5607,7 +5604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:G12"/>
   <sheetViews>
@@ -5615,68 +5612,68 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.5514705882353" style="2"/>
-    <col min="4" max="4" width="22.2205882352941" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5514705882353" style="2"/>
-    <col min="6" max="6" width="24.4411764705882" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.4411764705882" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="11.5514705882353" style="2"/>
+    <col min="1" max="3" width="11.552380952381" style="2"/>
+    <col min="4" max="4" width="22.2190476190476" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.552380952381" style="2"/>
+    <col min="6" max="6" width="24.4380952380952" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.4380952380952" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="11.552380952381" style="2"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5687,7 +5684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D6:H26"/>
   <sheetViews>
@@ -5695,36 +5692,36 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88970588235294" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="34.2205882352941" customWidth="1"/>
-    <col min="5" max="5" width="18.8897058823529" customWidth="1"/>
-    <col min="6" max="6" width="15.3308823529412" customWidth="1"/>
-    <col min="7" max="7" width="38.5514705882353" customWidth="1"/>
-    <col min="8" max="8" width="16.8897058823529" customWidth="1"/>
+    <col min="4" max="4" width="34.2190476190476" customWidth="1"/>
+    <col min="5" max="5" width="18.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.552380952381" customWidth="1"/>
+    <col min="8" max="8" width="16.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.75"/>
+    <row r="6" ht="15"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -5746,7 +5743,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -5757,7 +5754,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -5768,7 +5765,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -5779,7 +5776,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -5790,7 +5787,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -5801,7 +5798,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -5812,7 +5809,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -5823,7 +5820,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -5834,40 +5831,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -5878,7 +5875,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -5889,7 +5886,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660" tabRatio="800" activeTab="3"/>
+    <workbookView windowWidth="19575" windowHeight="6585" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="377">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -731,6 +731,9 @@
     <t>iam-service.menu.delete</t>
   </si>
   <si>
+    <t>iam-service.menu.menuConfig</t>
+  </si>
+  <si>
     <t>iam-service.label.listByType</t>
   </si>
   <si>
@@ -1192,10 +1195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1226,21 +1229,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1255,15 +1259,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1271,39 +1275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,6 +1283,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,21 +1305,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,14 +1322,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,6 +1341,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
@@ -1390,7 +1393,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,13 +1543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,157 +1573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,11 +1602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,15 +1622,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1637,36 +1637,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,151 +1666,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1856,54 +1859,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2178,7 +2181,7 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="38.8857142857143" customWidth="1"/>
@@ -2193,7 +2196,7 @@
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="4:15">
+    <row r="8" customHeight="1" spans="4:15">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -2989,7 +2992,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="15.2190476190476" customWidth="1"/>
     <col min="6" max="6" width="46.7809523809524" customWidth="1"/>
@@ -3001,7 +3004,7 @@
     <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:17">
+    <row r="7" customHeight="1" spans="4:17">
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+    <row r="8" customHeight="1" spans="6:15">
       <c r="F8" s="3" t="s">
         <v>97</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="6:17">
+    <row r="9" customHeight="1" spans="6:17">
       <c r="F9" s="4" t="s">
         <v>103</v>
       </c>
@@ -4056,20 +4059,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H131"/>
+  <dimension ref="D7:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="I72" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
     <col min="6" max="6" width="36.6571428571429" customWidth="1"/>
     <col min="7" max="7" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:8">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="3" t="s">
         <v>211</v>
       </c>
@@ -4168,7 +4171,7 @@
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
         <v>224</v>
@@ -4176,7 +4179,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
         <v>225</v>
@@ -4256,7 +4259,7 @@
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
         <v>235</v>
@@ -4275,7 +4278,7 @@
         <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="6:7">
@@ -4283,7 +4286,7 @@
         <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="6:7">
@@ -4291,7 +4294,7 @@
         <v>125</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="6:7">
@@ -4307,7 +4310,7 @@
         <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="6:7">
@@ -4320,7 +4323,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G37" t="s">
         <v>240</v>
@@ -4344,7 +4347,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G40" t="s">
         <v>243</v>
@@ -4366,15 +4369,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="6:8">
+    <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
         <v>246</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="6:8">
@@ -4410,12 +4410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="6:7">
+    <row r="47" spans="6:8">
       <c r="F47" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G47" t="s">
         <v>250</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="6:7">
@@ -4460,7 +4463,7 @@
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
         <v>256</v>
@@ -4532,7 +4535,7 @@
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G62" t="s">
         <v>265</v>
@@ -4596,7 +4599,7 @@
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G70" t="s">
         <v>273</v>
@@ -4652,7 +4655,7 @@
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G77" t="s">
         <v>280</v>
@@ -4732,7 +4735,7 @@
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G87" t="s">
         <v>290</v>
@@ -4756,7 +4759,7 @@
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G90" t="s">
         <v>293</v>
@@ -4764,7 +4767,7 @@
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G91" t="s">
         <v>294</v>
@@ -4812,10 +4815,10 @@
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="6:7">
@@ -4823,7 +4826,7 @@
         <v>182</v>
       </c>
       <c r="G98" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="6:7">
@@ -4876,7 +4879,7 @@
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G105" t="s">
         <v>307</v>
@@ -4898,15 +4901,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="6:8">
+    <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G108" t="s">
-        <v>235</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="6:8">
@@ -4914,7 +4914,7 @@
         <v>188</v>
       </c>
       <c r="G109" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="116" spans="6:8">
       <c r="F116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G116" t="s">
         <v>307</v>
@@ -5019,12 +5019,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="6:7">
+    <row r="119" spans="6:8">
       <c r="F119" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G119" t="s">
         <v>310</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="6:7">
@@ -5053,7 +5056,7 @@
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G123" t="s">
         <v>314</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G124" t="s">
         <v>315</v>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G125" t="s">
         <v>316</v>
@@ -5083,15 +5086,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="127" spans="6:8">
+    <row r="127" spans="6:7">
       <c r="F127" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="G127" t="s">
         <v>318</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
       </c>
     </row>
     <row r="128" spans="6:8">
@@ -5135,6 +5135,17 @@
         <v>322</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8">
+      <c r="F132" t="s">
+        <v>103</v>
+      </c>
+      <c r="G132" t="s">
+        <v>323</v>
+      </c>
+      <c r="H132">
         <v>1</v>
       </c>
     </row>
@@ -5153,11 +5164,11 @@
   <sheetPr/>
   <dimension ref="D7:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="3" width="11.6571428571429" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.2190476190476" style="2" customWidth="1"/>
@@ -5175,7 +5186,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -5184,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>88</v>
@@ -5193,13 +5204,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
@@ -5208,24 +5219,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5234,19 +5245,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5261,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5269,31 +5280,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5308,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5316,10 +5327,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5328,22 +5339,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5355,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5363,34 +5374,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5402,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5410,34 +5421,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5449,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5457,34 +5468,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5496,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5504,34 +5515,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5543,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5551,34 +5562,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5590,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5612,7 +5623,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="11.552380952381" style="2"/>
     <col min="4" max="4" width="22.2190476190476" style="2" customWidth="1"/>
@@ -5624,56 +5635,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5692,7 +5703,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="34.2190476190476" customWidth="1"/>
     <col min="5" max="5" width="18.8857142857143" customWidth="1"/>
@@ -5701,27 +5712,27 @@
     <col min="8" max="8" width="16.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="15"/>
+    <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5732,7 +5743,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -5743,7 +5754,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -5754,7 +5765,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -5765,7 +5776,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -5776,7 +5787,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -5787,7 +5798,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -5798,7 +5809,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -5809,7 +5820,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -5820,7 +5831,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -5831,40 +5842,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -5875,7 +5886,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -5886,7 +5897,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="6585" tabRatio="800" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="382">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -734,6 +734,12 @@
     <t>iam-service.menu.menuConfig</t>
   </si>
   <si>
+    <t>iam-service.menu.check</t>
+  </si>
+  <si>
+    <t>iam-service.menu.saveMenuConfig</t>
+  </si>
+  <si>
     <t>iam-service.label.listByType</t>
   </si>
   <si>
@@ -767,6 +773,9 @@
     <t>iam-service.role-member.pagingQueryUsersByRoleIdOnSiteLevel</t>
   </si>
   <si>
+    <t>iam-service.permission.queryByRoleIds</t>
+  </si>
+  <si>
     <t>iam-service.role-member.createOrUpdateOnSiteLevel</t>
   </si>
   <si>
@@ -782,6 +791,9 @@
     <t>iam-service.role-member.pagingQueryClientsWithSiteLevelRoles</t>
   </si>
   <si>
+    <t>iam-service.role-member.pagingQueryClientsByRoleIdOnSiteLevel</t>
+  </si>
+  <si>
     <t>iam-service.user.pagingQueryAdminUsers</t>
   </si>
   <si>
@@ -798,6 +810,9 @@
   </si>
   <si>
     <t>iam-service.dashboard.update</t>
+  </si>
+  <si>
+    <t>iam-service.role.pagedSearch</t>
   </si>
   <si>
     <t>iam-service.project-type.pagingQuery</t>
@@ -1195,9 +1210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1228,8 +1243,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,29 +1274,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,14 +1295,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,35 +1357,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1364,9 +1372,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,7 +1408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,7 +1444,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,19 +1498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,7 +1534,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,127 +1582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,6 +1641,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1637,6 +1661,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,6 +1697,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1666,184 +1714,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2988,8 +3003,8 @@
   <sheetPr/>
   <dimension ref="D7:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4059,10 +4074,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H132"/>
+  <dimension ref="D7:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4179,7 +4194,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
         <v>225</v>
@@ -4187,7 +4202,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
         <v>226</v>
@@ -4195,7 +4210,7 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
         <v>227</v>
@@ -4267,7 +4282,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s">
         <v>236</v>
@@ -4275,7 +4290,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
         <v>237</v>
@@ -4283,34 +4298,34 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="6:7">
@@ -4331,206 +4346,206 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="6:8">
-      <c r="F44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" t="s">
+    <row r="47" spans="6:7">
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" t="s">
         <v>247</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" t="s">
-        <v>248</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" t="s">
-        <v>249</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8">
-      <c r="F47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" t="s">
-        <v>250</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" t="s">
+        <v>253</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="6:7">
-      <c r="F52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="53" spans="6:7">
-      <c r="F53" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7">
-      <c r="F54" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7">
-      <c r="F55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" t="s">
-        <v>258</v>
+      <c r="H55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="6:7">
@@ -4538,191 +4553,191 @@
         <v>149</v>
       </c>
       <c r="G62" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G63" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G64" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G66" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G72" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="6:7">
@@ -4730,7 +4745,7 @@
         <v>159</v>
       </c>
       <c r="G86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="6:7">
@@ -4738,271 +4753,247 @@
         <v>159</v>
       </c>
       <c r="G87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G90" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G96" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G97" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G101" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G104" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G105" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G106" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G107" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
+        <v>182</v>
+      </c>
+      <c r="G108" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7">
+      <c r="F109" t="s">
+        <v>182</v>
+      </c>
+      <c r="G109" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7">
+      <c r="F110" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7">
+      <c r="F111" t="s">
+        <v>182</v>
+      </c>
+      <c r="G111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7">
+      <c r="F112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7">
+      <c r="F113" t="s">
+        <v>182</v>
+      </c>
+      <c r="G113" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7">
+      <c r="F114" t="s">
         <v>184</v>
       </c>
-      <c r="G108" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="6:8">
-      <c r="F109" t="s">
-        <v>188</v>
-      </c>
-      <c r="G109" t="s">
-        <v>236</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="6:8">
-      <c r="F110" t="s">
-        <v>188</v>
-      </c>
-      <c r="G110" t="s">
-        <v>301</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="6:8">
-      <c r="F111" t="s">
-        <v>188</v>
-      </c>
-      <c r="G111" t="s">
-        <v>302</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="6:8">
-      <c r="F112" t="s">
-        <v>188</v>
-      </c>
-      <c r="G112" t="s">
-        <v>303</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="6:8">
-      <c r="F113" t="s">
-        <v>188</v>
-      </c>
-      <c r="G113" t="s">
-        <v>304</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="6:8">
-      <c r="F114" t="s">
-        <v>188</v>
-      </c>
       <c r="G114" t="s">
-        <v>305</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="6:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G115" t="s">
-        <v>306</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="6:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G116" t="s">
-        <v>307</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" spans="6:8">
       <c r="F117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G117" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -5010,10 +5001,10 @@
     </row>
     <row r="118" spans="6:8">
       <c r="F118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G118" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -5021,131 +5012,219 @@
     </row>
     <row r="119" spans="6:8">
       <c r="F119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G119" t="s">
+        <v>307</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8">
+      <c r="F120" t="s">
+        <v>188</v>
+      </c>
+      <c r="G120" t="s">
+        <v>308</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8">
+      <c r="F121" t="s">
+        <v>188</v>
+      </c>
+      <c r="G121" t="s">
+        <v>309</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8">
+      <c r="F122" t="s">
+        <v>188</v>
+      </c>
+      <c r="G122" t="s">
+        <v>310</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8">
+      <c r="F123" t="s">
+        <v>188</v>
+      </c>
+      <c r="G123" t="s">
+        <v>311</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8">
+      <c r="F124" t="s">
+        <v>188</v>
+      </c>
+      <c r="G124" t="s">
+        <v>312</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8">
+      <c r="F125" t="s">
         <v>189</v>
       </c>
-      <c r="G119" t="s">
-        <v>310</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="6:7">
-      <c r="F120" t="s">
+      <c r="G125" t="s">
+        <v>313</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8">
+      <c r="F126" t="s">
+        <v>189</v>
+      </c>
+      <c r="G126" t="s">
+        <v>314</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8">
+      <c r="F127" t="s">
+        <v>189</v>
+      </c>
+      <c r="G127" t="s">
+        <v>315</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7">
+      <c r="F128" t="s">
         <v>195</v>
       </c>
-      <c r="G120" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="6:7">
-      <c r="F121" t="s">
+      <c r="G128" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7">
+      <c r="F129" t="s">
         <v>195</v>
       </c>
-      <c r="G121" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="6:7">
-      <c r="F122" t="s">
+      <c r="G129" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7">
+      <c r="F130" t="s">
         <v>195</v>
       </c>
-      <c r="G122" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="6:7">
-      <c r="F123" t="s">
+      <c r="G130" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7">
+      <c r="F131" t="s">
         <v>195</v>
       </c>
-      <c r="G123" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="124" spans="6:7">
-      <c r="F124" t="s">
+      <c r="G131" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7">
+      <c r="F132" t="s">
         <v>199</v>
       </c>
-      <c r="G124" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="125" spans="6:7">
-      <c r="F125" t="s">
+      <c r="G132" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7">
+      <c r="F133" t="s">
         <v>203</v>
       </c>
-      <c r="G125" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="126" spans="6:7">
-      <c r="F126" t="s">
+      <c r="G133" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7">
+      <c r="F134" t="s">
         <v>207</v>
       </c>
-      <c r="G126" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="6:7">
-      <c r="F127" t="s">
+      <c r="G134" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7">
+      <c r="F135" t="s">
         <v>207</v>
       </c>
-      <c r="G127" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="6:8">
-      <c r="F128" t="s">
+      <c r="G135" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8">
+      <c r="F136" t="s">
         <v>103</v>
       </c>
-      <c r="G128" t="s">
-        <v>319</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="6:8">
-      <c r="F129" t="s">
+      <c r="G136" t="s">
+        <v>324</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8">
+      <c r="F137" t="s">
         <v>103</v>
       </c>
-      <c r="G129" t="s">
-        <v>320</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="6:8">
-      <c r="F130" t="s">
+      <c r="G137" t="s">
+        <v>325</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8">
+      <c r="F138" t="s">
         <v>103</v>
       </c>
-      <c r="G130" t="s">
-        <v>321</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="6:8">
-      <c r="F131" t="s">
+      <c r="G138" t="s">
+        <v>326</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8">
+      <c r="F139" t="s">
         <v>103</v>
       </c>
-      <c r="G131" t="s">
-        <v>322</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="6:8">
-      <c r="F132" t="s">
+      <c r="G139" t="s">
+        <v>327</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8">
+      <c r="F140" t="s">
         <v>103</v>
       </c>
-      <c r="G132" t="s">
-        <v>323</v>
-      </c>
-      <c r="H132">
+      <c r="G140" t="s">
+        <v>328</v>
+      </c>
+      <c r="H140">
         <v>1</v>
       </c>
     </row>
@@ -5186,7 +5265,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -5195,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>88</v>
@@ -5204,13 +5283,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
@@ -5219,24 +5298,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5245,19 +5324,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5272,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5280,31 +5359,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5319,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5327,10 +5406,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5339,22 +5418,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5366,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5374,34 +5453,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5413,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5421,34 +5500,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5460,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5468,34 +5547,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5507,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5515,34 +5594,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5554,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5562,34 +5641,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5601,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5635,56 +5714,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5715,24 +5794,24 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5743,7 +5822,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -5754,7 +5833,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -5765,7 +5844,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -5776,7 +5855,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -5787,7 +5866,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -5798,7 +5877,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -5809,7 +5888,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -5820,7 +5899,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -5831,7 +5910,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -5842,40 +5921,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -5886,7 +5965,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -5897,7 +5976,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="800" activeTab="2"/>
+    <workbookView windowWidth="19575" windowHeight="6585" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="393">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -782,9 +782,15 @@
     <t>iam-service.role-member.deleteOnSiteLevel</t>
   </si>
   <si>
+    <t>iam-service.role-member.latestHistoryOnSite</t>
+  </si>
+  <si>
     <t>iam-service.role-member.pagingQueryUsersWithSiteLevelRoles</t>
   </si>
   <si>
+    <t>iam-service.role-member.downloadTemplatesOnSite</t>
+  </si>
+  <si>
     <t>iam-service.role-member.listRolesWithClientCountOnSiteLevel</t>
   </si>
   <si>
@@ -857,9 +863,21 @@
     <t>iam-service.organization-user.update</t>
   </si>
   <si>
+    <t>iam-service.organization-user.importUsersFromExcel</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.latestHistory</t>
+  </si>
+  <si>
+    <t>iam-service.organization-user.check</t>
+  </si>
+  <si>
     <t>iam-service.organization-user.delete</t>
   </si>
   <si>
+    <t>iam-service.organization-user.downloadTemplates</t>
+  </si>
+  <si>
     <t>iam-service.organization-user.disableUser</t>
   </si>
   <si>
@@ -878,12 +896,18 @@
     <t>iam-service.role-member.deleteOnOrganizationLevel</t>
   </si>
   <si>
+    <t>iam-service.role-member.downloadTemplatesOnOrganization</t>
+  </si>
+  <si>
     <t>iam-service.role-member.listRolesWithUserCountOnOrganizationLevel</t>
   </si>
   <si>
     <t>iam-service.role-member.pagingQueryUsersByRoleIdOnOrganizationLevel</t>
   </si>
   <si>
+    <t>iam-service.role-member.latestHistoryOnOrganization</t>
+  </si>
+  <si>
     <t>iam-service.role-member.pagingQueryUsersWithOrganizationLevelRoles</t>
   </si>
   <si>
@@ -989,6 +1013,12 @@
     <t>iam-service.role-member.pagingQueryUsersWithProjectLevelRoles</t>
   </si>
   <si>
+    <t>iam-service.role-member.downloadTemplatesOnProject</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.latestHistoryOnProject</t>
+  </si>
+  <si>
     <t>iam-service.role-member.listRolesWithClientCountOnProjectLevel</t>
   </si>
   <si>
@@ -1008,6 +1038,9 @@
   </si>
   <si>
     <t>iam-service.user.queryInfo</t>
+  </si>
+  <si>
+    <t>iam-service.user.check</t>
   </si>
   <si>
     <t>iam-service.user.updateInfo</t>
@@ -1210,10 +1243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1243,29 +1276,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,8 +1307,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,15 +1368,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1340,14 +1397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1356,24 +1405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,7 +1421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,13 +1441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,25 +1459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,7 +1489,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,37 +1525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,37 +1543,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,13 +1597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,13 +1615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,6 +1650,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1641,11 +1689,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,41 +1728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,148 +1750,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2192,8 +2225,8 @@
   <sheetPr/>
   <dimension ref="D7:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3003,8 +3036,8 @@
   <sheetPr/>
   <dimension ref="D7:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4074,16 +4107,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H140"/>
+  <dimension ref="D7:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="6" max="6" width="36.6571428571429" customWidth="1"/>
+    <col min="6" max="6" width="49.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="63" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4381,7 +4414,7 @@
         <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="6:7">
@@ -4389,7 +4422,7 @@
         <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="6:7">
@@ -4402,7 +4435,7 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G45" t="s">
         <v>245</v>
@@ -4410,7 +4443,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
         <v>246</v>
@@ -4426,7 +4459,7 @@
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
         <v>248</v>
@@ -4434,7 +4467,7 @@
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
         <v>249</v>
@@ -4456,26 +4489,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="6:8">
+    <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
         <v>252</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="6:8">
+    </row>
+    <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G53" t="s">
         <v>253</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="6:8">
@@ -4500,20 +4527,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="6:7">
+    <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="57" spans="6:7">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
       <c r="F57" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G57" t="s">
         <v>257</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="6:7">
@@ -4550,7 +4583,7 @@
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G62" t="s">
         <v>262</v>
@@ -4558,7 +4591,7 @@
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G63" t="s">
         <v>263</v>
@@ -4622,7 +4655,7 @@
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G71" t="s">
         <v>271</v>
@@ -4630,7 +4663,7 @@
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G72" t="s">
         <v>272</v>
@@ -4638,7 +4671,7 @@
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G73" t="s">
         <v>273</v>
@@ -4646,7 +4679,7 @@
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G74" t="s">
         <v>274</v>
@@ -4654,7 +4687,7 @@
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G75" t="s">
         <v>275</v>
@@ -4662,7 +4695,7 @@
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
         <v>276</v>
@@ -4686,7 +4719,7 @@
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G79" t="s">
         <v>279</v>
@@ -4694,7 +4727,7 @@
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
         <v>280</v>
@@ -4702,7 +4735,7 @@
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G81" t="s">
         <v>281</v>
@@ -4710,7 +4743,7 @@
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G82" t="s">
         <v>282</v>
@@ -4718,7 +4751,7 @@
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G83" t="s">
         <v>283</v>
@@ -4726,7 +4759,7 @@
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
         <v>284</v>
@@ -4734,7 +4767,7 @@
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G85" t="s">
         <v>285</v>
@@ -4742,7 +4775,7 @@
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G86" t="s">
         <v>286</v>
@@ -4750,7 +4783,7 @@
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G87" t="s">
         <v>287</v>
@@ -4758,7 +4791,7 @@
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G88" t="s">
         <v>288</v>
@@ -4766,7 +4799,7 @@
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G89" t="s">
         <v>289</v>
@@ -4774,7 +4807,7 @@
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s">
         <v>290</v>
@@ -4782,7 +4815,7 @@
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G91" t="s">
         <v>291</v>
@@ -4790,7 +4823,7 @@
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G92" t="s">
         <v>292</v>
@@ -4798,7 +4831,7 @@
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G93" t="s">
         <v>293</v>
@@ -4822,7 +4855,7 @@
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G96" t="s">
         <v>296</v>
@@ -4830,7 +4863,7 @@
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G97" t="s">
         <v>297</v>
@@ -4838,7 +4871,7 @@
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G98" t="s">
         <v>298</v>
@@ -4846,7 +4879,7 @@
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G99" t="s">
         <v>299</v>
@@ -4854,7 +4887,7 @@
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G100" t="s">
         <v>300</v>
@@ -4862,7 +4895,7 @@
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G101" t="s">
         <v>301</v>
@@ -4870,7 +4903,7 @@
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G102" t="s">
         <v>302</v>
@@ -4878,7 +4911,7 @@
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G103" t="s">
         <v>303</v>
@@ -4886,7 +4919,7 @@
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G104" t="s">
         <v>304</v>
@@ -4894,7 +4927,7 @@
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G105" t="s">
         <v>305</v>
@@ -4902,79 +4935,79 @@
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G107" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G108" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G110" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G111" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G113" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G114" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G115" t="s">
         <v>314</v>
@@ -4982,200 +5015,194 @@
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G116" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="6:8">
+    <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G117" t="s">
-        <v>239</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="6:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G118" t="s">
-        <v>306</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="6:8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G119" t="s">
-        <v>307</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="6:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G120" t="s">
-        <v>308</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="6:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G121" t="s">
-        <v>309</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="6:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G122" t="s">
-        <v>310</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="6:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G123" t="s">
-        <v>311</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="6:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G124" t="s">
-        <v>312</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="6:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G125" t="s">
-        <v>313</v>
-      </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="6:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G126" t="s">
-        <v>314</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="6:8">
       <c r="F127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G127" t="s">
+        <v>239</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8">
+      <c r="F128" t="s">
+        <v>188</v>
+      </c>
+      <c r="G128" t="s">
+        <v>314</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8">
+      <c r="F129" t="s">
+        <v>188</v>
+      </c>
+      <c r="G129" t="s">
         <v>315</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7">
-      <c r="F128" t="s">
-        <v>195</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8">
+      <c r="F130" t="s">
+        <v>188</v>
+      </c>
+      <c r="G130" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="129" spans="6:7">
-      <c r="F129" t="s">
-        <v>195</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8">
+      <c r="F131" t="s">
+        <v>188</v>
+      </c>
+      <c r="G131" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="130" spans="6:7">
-      <c r="F130" t="s">
-        <v>195</v>
-      </c>
-      <c r="G130" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7">
-      <c r="F131" t="s">
-        <v>195</v>
-      </c>
-      <c r="G131" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="132" spans="6:7">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8">
       <c r="F132" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G132" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="133" spans="6:7">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8">
       <c r="F133" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G133" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="134" spans="6:7">
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8">
       <c r="F134" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G134" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="135" spans="6:7">
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8">
       <c r="F135" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G135" t="s">
         <v>323</v>
       </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="6:8">
       <c r="F136" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="G136" t="s">
         <v>324</v>
@@ -5186,7 +5213,7 @@
     </row>
     <row r="137" spans="6:8">
       <c r="F137" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="G137" t="s">
         <v>325</v>
@@ -5195,36 +5222,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="6:8">
+    <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="G138" t="s">
         <v>326</v>
       </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="6:8">
+    </row>
+    <row r="139" spans="6:7">
       <c r="F139" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="G139" t="s">
         <v>327</v>
       </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="6:8">
+    </row>
+    <row r="140" spans="6:7">
       <c r="F140" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="G140" t="s">
         <v>328</v>
       </c>
-      <c r="H140">
+    </row>
+    <row r="141" spans="6:7">
+      <c r="F141" t="s">
+        <v>195</v>
+      </c>
+      <c r="G141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7">
+      <c r="F142" t="s">
+        <v>195</v>
+      </c>
+      <c r="G142" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7">
+      <c r="F143" t="s">
+        <v>199</v>
+      </c>
+      <c r="G143" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7">
+      <c r="F144" t="s">
+        <v>203</v>
+      </c>
+      <c r="G144" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7">
+      <c r="F145" t="s">
+        <v>207</v>
+      </c>
+      <c r="G145" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7">
+      <c r="F146" t="s">
+        <v>207</v>
+      </c>
+      <c r="G146" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8">
+      <c r="F147" t="s">
+        <v>103</v>
+      </c>
+      <c r="G147" t="s">
+        <v>335</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8">
+      <c r="F148" t="s">
+        <v>103</v>
+      </c>
+      <c r="G148" t="s">
+        <v>336</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8">
+      <c r="F149" t="s">
+        <v>103</v>
+      </c>
+      <c r="G149" t="s">
+        <v>337</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8">
+      <c r="F150" t="s">
+        <v>103</v>
+      </c>
+      <c r="G150" t="s">
+        <v>338</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8">
+      <c r="F151" t="s">
+        <v>103</v>
+      </c>
+      <c r="G151" t="s">
+        <v>339</v>
+      </c>
+      <c r="H151">
         <v>1</v>
       </c>
     </row>
@@ -5265,7 +5386,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="2" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -5274,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>88</v>
@@ -5283,13 +5404,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
@@ -5298,24 +5419,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5324,19 +5445,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5351,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5359,31 +5480,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5398,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5406,10 +5527,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5418,22 +5539,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5445,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5453,34 +5574,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5492,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5500,34 +5621,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5539,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5547,34 +5668,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5586,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5594,34 +5715,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5633,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5641,34 +5762,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5680,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5714,56 +5835,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5794,24 +5915,24 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5822,7 +5943,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -5833,7 +5954,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -5844,7 +5965,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -5855,7 +5976,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -5866,7 +5987,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -5877,7 +5998,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -5888,7 +6009,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -5899,7 +6020,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -5910,7 +6031,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -5921,40 +6042,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -5965,7 +6086,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -5976,7 +6097,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="6585" tabRatio="800" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7170" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="406">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -842,9 +842,18 @@
     <t>iam-service.organization-project.update</t>
   </si>
   <si>
+    <t>iam-service.organization-project.getGroupInfoByEnableProject</t>
+  </si>
+  <si>
+    <t>organization-service.project-category-org.getProjectCategoryList</t>
+  </si>
+  <si>
     <t>iam-service.organization-project.check</t>
   </si>
   <si>
+    <t>iam-service.organization-project.getAgileProjects</t>
+  </si>
+  <si>
     <t>iam-service.organization-project.enableProject</t>
   </si>
   <si>
@@ -857,6 +866,9 @@
     <t>iam-service.organization-user.list</t>
   </si>
   <si>
+    <t>iam-service.password-policy.queryByOrganizationId</t>
+  </si>
+  <si>
     <t>iam-service.organization-user.query</t>
   </si>
   <si>
@@ -932,6 +944,9 @@
     <t>iam-service.client.list</t>
   </si>
   <si>
+    <t>iam-service.client.createInfo</t>
+  </si>
+  <si>
     <t>iam-service.client.query</t>
   </si>
   <si>
@@ -944,6 +959,9 @@
     <t>iam-service.ldap.create</t>
   </si>
   <si>
+    <t>iam-service.ldap.latestHistory</t>
+  </si>
+  <si>
     <t>iam-service.ldap.query</t>
   </si>
   <si>
@@ -974,21 +992,36 @@
     <t>iam-service.password-policy.create</t>
   </si>
   <si>
-    <t>iam-service.password-policy.queryByOrganizationId</t>
-  </si>
-  <si>
     <t>iam-service.password-policy.update</t>
   </si>
   <si>
     <t>iam-service.organization.queryOrgLevel</t>
   </si>
   <si>
+    <t>iam-service.application.queryApplicationList</t>
+  </si>
+  <si>
     <t>iam-service.application.pagingQuery</t>
   </si>
   <si>
+    <t>iam-service.application.queryEnabledApplication</t>
+  </si>
+  <si>
+    <t>iam-service.application.queryDescendant</t>
+  </si>
+  <si>
+    <t>iam-service.application.addToCombination</t>
+  </si>
+  <si>
+    <t>iam-service.application.query</t>
+  </si>
+  <si>
     <t>iam-service.application.create</t>
   </si>
   <si>
+    <t>iam-service.application.check</t>
+  </si>
+  <si>
     <t>iam-service.application.types</t>
   </si>
   <si>
@@ -1023,6 +1056,12 @@
   </si>
   <si>
     <t>iam-service.role-member.pagingQueryClientsWithProjectLevelRoles</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.getUserWithProjLevelRolesByUserId</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.import2MemberRoleOnProject</t>
   </si>
   <si>
     <t>iam-service.role-member.pagingQueryClientsByRoleIdOnProjectLevel</t>
@@ -1243,10 +1282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1276,37 +1315,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1314,9 +1322,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,10 +1368,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1369,21 +1383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1406,7 +1406,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,7 +1429,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,13 +1480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,7 +1504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,25 +1528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,19 +1558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,25 +1570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,7 +1588,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,37 +1636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,6 +1655,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,40 +1689,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1707,8 +1727,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,170 +1757,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3036,8 +3075,8 @@
   <sheetPr/>
   <dimension ref="D7:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4107,10 +4146,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H151"/>
+  <dimension ref="D7:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4599,7 +4638,7 @@
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
         <v>264</v>
@@ -4607,7 +4646,7 @@
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G65" t="s">
         <v>265</v>
@@ -4615,7 +4654,7 @@
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G66" t="s">
         <v>266</v>
@@ -4703,7 +4742,7 @@
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G77" t="s">
         <v>277</v>
@@ -4711,7 +4750,7 @@
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G78" t="s">
         <v>278</v>
@@ -4719,7 +4758,7 @@
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G79" t="s">
         <v>279</v>
@@ -4727,7 +4766,7 @@
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G80" t="s">
         <v>280</v>
@@ -4783,7 +4822,7 @@
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G87" t="s">
         <v>287</v>
@@ -4791,7 +4830,7 @@
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G88" t="s">
         <v>288</v>
@@ -4799,7 +4838,7 @@
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G89" t="s">
         <v>289</v>
@@ -4807,7 +4846,7 @@
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G90" t="s">
         <v>290</v>
@@ -4839,7 +4878,7 @@
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G94" t="s">
         <v>294</v>
@@ -4847,7 +4886,7 @@
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G95" t="s">
         <v>295</v>
@@ -4855,7 +4894,7 @@
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G96" t="s">
         <v>296</v>
@@ -4863,7 +4902,7 @@
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G97" t="s">
         <v>297</v>
@@ -4871,7 +4910,7 @@
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G98" t="s">
         <v>298</v>
@@ -4919,7 +4958,7 @@
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G104" t="s">
         <v>304</v>
@@ -4927,7 +4966,7 @@
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G105" t="s">
         <v>305</v>
@@ -4935,7 +4974,7 @@
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G106" t="s">
         <v>306</v>
@@ -4943,7 +4982,7 @@
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G107" t="s">
         <v>307</v>
@@ -4951,7 +4990,7 @@
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G108" t="s">
         <v>308</v>
@@ -4959,7 +4998,7 @@
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G109" t="s">
         <v>309</v>
@@ -4967,7 +5006,7 @@
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G110" t="s">
         <v>310</v>
@@ -4975,39 +5014,39 @@
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G111" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G113" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G114" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G115" t="s">
         <v>314</v>
@@ -5015,7 +5054,7 @@
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G116" t="s">
         <v>315</v>
@@ -5023,7 +5062,7 @@
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G117" t="s">
         <v>316</v>
@@ -5031,7 +5070,7 @@
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G118" t="s">
         <v>317</v>
@@ -5039,7 +5078,7 @@
     </row>
     <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G119" t="s">
         <v>318</v>
@@ -5047,7 +5086,7 @@
     </row>
     <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G120" t="s">
         <v>319</v>
@@ -5055,7 +5094,7 @@
     </row>
     <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G121" t="s">
         <v>320</v>
@@ -5063,7 +5102,7 @@
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G122" t="s">
         <v>321</v>
@@ -5071,7 +5110,7 @@
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G123" t="s">
         <v>322</v>
@@ -5079,7 +5118,7 @@
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G124" t="s">
         <v>323</v>
@@ -5087,7 +5126,7 @@
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G125" t="s">
         <v>324</v>
@@ -5095,211 +5134,196 @@
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7">
+      <c r="F127" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="127" spans="6:8">
-      <c r="F127" t="s">
-        <v>188</v>
-      </c>
-      <c r="G127" t="s">
-        <v>239</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="6:8">
+    <row r="128" spans="6:7">
       <c r="F128" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G128" t="s">
-        <v>314</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="6:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7">
       <c r="F129" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G129" t="s">
-        <v>315</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="6:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7">
       <c r="F130" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G130" t="s">
-        <v>316</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="6:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7">
       <c r="F131" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G131" t="s">
-        <v>317</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="6:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7">
       <c r="F132" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G132" t="s">
-        <v>320</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="6:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7">
       <c r="F133" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G133" t="s">
-        <v>321</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="6:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7">
       <c r="F134" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G134" t="s">
-        <v>322</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="6:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7">
       <c r="F135" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G135" t="s">
-        <v>323</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="6:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7">
       <c r="F136" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G136" t="s">
-        <v>324</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="6:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7">
       <c r="F137" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G137" t="s">
-        <v>325</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G138" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="6:7">
       <c r="F139" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G139" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="6:7">
       <c r="F140" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G140" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8">
+      <c r="F141" t="s">
+        <v>188</v>
+      </c>
+      <c r="G141" t="s">
+        <v>239</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8">
+      <c r="F142" t="s">
+        <v>188</v>
+      </c>
+      <c r="G142" t="s">
+        <v>325</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8">
+      <c r="F143" t="s">
+        <v>188</v>
+      </c>
+      <c r="G143" t="s">
+        <v>326</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8">
+      <c r="F144" t="s">
+        <v>188</v>
+      </c>
+      <c r="G144" t="s">
+        <v>327</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8">
+      <c r="F145" t="s">
+        <v>188</v>
+      </c>
+      <c r="G145" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="141" spans="6:7">
-      <c r="F141" t="s">
-        <v>195</v>
-      </c>
-      <c r="G141" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="142" spans="6:7">
-      <c r="F142" t="s">
-        <v>195</v>
-      </c>
-      <c r="G142" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="143" spans="6:7">
-      <c r="F143" t="s">
-        <v>199</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8">
+      <c r="F146" t="s">
+        <v>188</v>
+      </c>
+      <c r="G146" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="144" spans="6:7">
-      <c r="F144" t="s">
-        <v>203</v>
-      </c>
-      <c r="G144" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7">
-      <c r="F145" t="s">
-        <v>207</v>
-      </c>
-      <c r="G145" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="146" spans="6:7">
-      <c r="F146" t="s">
-        <v>207</v>
-      </c>
-      <c r="G146" t="s">
-        <v>334</v>
+      <c r="H146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="6:8">
       <c r="F147" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="G147" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -5307,10 +5331,10 @@
     </row>
     <row r="148" spans="6:8">
       <c r="F148" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="G148" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5318,10 +5342,10 @@
     </row>
     <row r="149" spans="6:8">
       <c r="F149" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="G149" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -5329,10 +5353,10 @@
     </row>
     <row r="150" spans="6:8">
       <c r="F150" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="G150" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -5340,12 +5364,139 @@
     </row>
     <row r="151" spans="6:8">
       <c r="F151" t="s">
+        <v>189</v>
+      </c>
+      <c r="G151" t="s">
+        <v>338</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7">
+      <c r="F152" t="s">
+        <v>195</v>
+      </c>
+      <c r="G152" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7">
+      <c r="F153" t="s">
+        <v>195</v>
+      </c>
+      <c r="G153" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7">
+      <c r="F154" t="s">
+        <v>195</v>
+      </c>
+      <c r="G154" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7">
+      <c r="F155" t="s">
+        <v>195</v>
+      </c>
+      <c r="G155" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7">
+      <c r="F156" t="s">
+        <v>195</v>
+      </c>
+      <c r="G156" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="157" spans="6:7">
+      <c r="F157" t="s">
+        <v>199</v>
+      </c>
+      <c r="G157" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="158" spans="6:7">
+      <c r="F158" t="s">
+        <v>203</v>
+      </c>
+      <c r="G158" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="159" spans="6:7">
+      <c r="F159" t="s">
+        <v>207</v>
+      </c>
+      <c r="G159" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="6:7">
+      <c r="F160" t="s">
+        <v>207</v>
+      </c>
+      <c r="G160" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8">
+      <c r="F161" t="s">
         <v>103</v>
       </c>
-      <c r="G151" t="s">
-        <v>339</v>
-      </c>
-      <c r="H151">
+      <c r="G161" t="s">
+        <v>348</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8">
+      <c r="F162" t="s">
+        <v>103</v>
+      </c>
+      <c r="G162" t="s">
+        <v>349</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8">
+      <c r="F163" t="s">
+        <v>103</v>
+      </c>
+      <c r="G163" t="s">
+        <v>350</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8">
+      <c r="F164" t="s">
+        <v>103</v>
+      </c>
+      <c r="G164" t="s">
+        <v>351</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8">
+      <c r="F165" t="s">
+        <v>103</v>
+      </c>
+      <c r="G165" t="s">
+        <v>352</v>
+      </c>
+      <c r="H165">
         <v>1</v>
       </c>
     </row>
@@ -5386,7 +5537,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="2" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -5395,7 +5546,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>88</v>
@@ -5404,13 +5555,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
@@ -5419,24 +5570,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5445,19 +5596,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5472,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5480,31 +5631,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5519,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5527,10 +5678,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5539,22 +5690,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5566,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5574,34 +5725,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5613,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5621,34 +5772,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5660,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5668,34 +5819,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5707,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5715,34 +5866,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5754,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5762,34 +5913,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5801,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5835,56 +5986,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5915,24 +6066,24 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5943,7 +6094,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -5954,7 +6105,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -5965,7 +6116,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -5976,7 +6127,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -5987,7 +6138,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -5998,7 +6149,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -6009,7 +6160,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -6020,7 +6171,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -6031,7 +6182,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -6042,40 +6193,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -6086,7 +6237,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -6097,7 +6248,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7170" tabRatio="800" activeTab="2"/>
+    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="407">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1032,6 +1032,9 @@
   </si>
   <si>
     <t>iam-service.application.enabled</t>
+  </si>
+  <si>
+    <t>iam-service.role-member.createOrUpdateOnProjectLevel</t>
   </si>
   <si>
     <t>iam-service.role-member.deleteOnProjectLevel</t>
@@ -1323,14 +1326,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,35 +1422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1405,8 +1438,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,45 +1469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
@@ -1480,7 +1483,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,43 +1633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,127 +1663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,18 +1696,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1733,26 +1740,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1771,31 +1789,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1804,133 +1807,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4148,8 +4151,8 @@
   <sheetPr/>
   <dimension ref="D7:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -5137,7 +5140,7 @@
         <v>182</v>
       </c>
       <c r="G126" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="6:7">
@@ -5145,7 +5148,7 @@
         <v>182</v>
       </c>
       <c r="G127" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="6:7">
@@ -5153,7 +5156,7 @@
         <v>182</v>
       </c>
       <c r="G128" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="6:7">
@@ -5161,7 +5164,7 @@
         <v>182</v>
       </c>
       <c r="G129" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="6:7">
@@ -5169,7 +5172,7 @@
         <v>182</v>
       </c>
       <c r="G130" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="6:7">
@@ -5177,7 +5180,7 @@
         <v>182</v>
       </c>
       <c r="G131" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="6:7">
@@ -5185,7 +5188,7 @@
         <v>182</v>
       </c>
       <c r="G132" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="6:7">
@@ -5193,7 +5196,7 @@
         <v>182</v>
       </c>
       <c r="G133" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="6:7">
@@ -5201,7 +5204,7 @@
         <v>182</v>
       </c>
       <c r="G134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="6:7">
@@ -5209,7 +5212,7 @@
         <v>182</v>
       </c>
       <c r="G135" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="6:7">
@@ -5217,7 +5220,7 @@
         <v>182</v>
       </c>
       <c r="G136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="6:7">
@@ -5225,7 +5228,7 @@
         <v>182</v>
       </c>
       <c r="G137" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="6:7">
@@ -5233,7 +5236,7 @@
         <v>184</v>
       </c>
       <c r="G138" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="6:7">
@@ -5241,7 +5244,7 @@
         <v>184</v>
       </c>
       <c r="G139" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="6:7">
@@ -5249,7 +5252,7 @@
         <v>184</v>
       </c>
       <c r="G140" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="6:8">
@@ -5268,7 +5271,7 @@
         <v>188</v>
       </c>
       <c r="G142" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5279,7 +5282,7 @@
         <v>188</v>
       </c>
       <c r="G143" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -5290,7 +5293,7 @@
         <v>188</v>
       </c>
       <c r="G144" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -5301,7 +5304,7 @@
         <v>188</v>
       </c>
       <c r="G145" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -5312,7 +5315,7 @@
         <v>188</v>
       </c>
       <c r="G146" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5323,7 +5326,7 @@
         <v>188</v>
       </c>
       <c r="G147" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -5334,7 +5337,7 @@
         <v>188</v>
       </c>
       <c r="G148" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5345,7 +5348,7 @@
         <v>189</v>
       </c>
       <c r="G149" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -5356,7 +5359,7 @@
         <v>189</v>
       </c>
       <c r="G150" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -5367,7 +5370,7 @@
         <v>189</v>
       </c>
       <c r="G151" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -5378,7 +5381,7 @@
         <v>195</v>
       </c>
       <c r="G152" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="6:7">
@@ -5386,7 +5389,7 @@
         <v>195</v>
       </c>
       <c r="G153" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="6:7">
@@ -5394,7 +5397,7 @@
         <v>195</v>
       </c>
       <c r="G154" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="155" spans="6:7">
@@ -5402,7 +5405,7 @@
         <v>195</v>
       </c>
       <c r="G155" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="6:7">
@@ -5410,7 +5413,7 @@
         <v>195</v>
       </c>
       <c r="G156" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="6:7">
@@ -5418,7 +5421,7 @@
         <v>199</v>
       </c>
       <c r="G157" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="6:7">
@@ -5426,7 +5429,7 @@
         <v>203</v>
       </c>
       <c r="G158" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="6:7">
@@ -5434,7 +5437,7 @@
         <v>207</v>
       </c>
       <c r="G159" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="160" spans="6:7">
@@ -5442,7 +5445,7 @@
         <v>207</v>
       </c>
       <c r="G160" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161" spans="6:8">
@@ -5450,7 +5453,7 @@
         <v>103</v>
       </c>
       <c r="G161" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -5461,7 +5464,7 @@
         <v>103</v>
       </c>
       <c r="G162" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -5472,7 +5475,7 @@
         <v>103</v>
       </c>
       <c r="G163" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -5483,7 +5486,7 @@
         <v>103</v>
       </c>
       <c r="G164" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -5494,7 +5497,7 @@
         <v>103</v>
       </c>
       <c r="G165" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5537,7 +5540,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -5546,7 +5549,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>88</v>
@@ -5555,13 +5558,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
@@ -5570,24 +5573,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5596,19 +5599,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5623,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5631,31 +5634,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5670,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5678,10 +5681,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5690,22 +5693,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5717,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5725,34 +5728,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5764,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5772,34 +5775,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5811,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5819,34 +5822,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5858,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5866,34 +5869,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5905,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5913,34 +5916,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5952,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5986,56 +5989,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -6066,24 +6069,24 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -6094,7 +6097,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -6105,7 +6108,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -6116,7 +6119,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -6127,7 +6130,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -6138,7 +6141,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -6149,7 +6152,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -6160,7 +6163,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -6171,7 +6174,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -6182,7 +6185,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -6193,40 +6196,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -6237,7 +6240,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -6248,7 +6251,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="6585" tabRatio="800" activeTab="2"/>
+    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="378">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -962,6 +962,9 @@
     <t>iam-service.application.enabled</t>
   </si>
   <si>
+    <t>iam-service.role-member.createOrUpdateOnProjectLevel</t>
+  </si>
+  <si>
     <t>iam-service.role-member.deleteOnProjectLevel</t>
   </si>
   <si>
@@ -1195,10 +1198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1235,49 +1238,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1289,37 +1253,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1349,10 +1288,41 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1365,15 +1335,48 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,7 +1396,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,7 +1468,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,31 +1528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,7 +1558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,115 +1570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,6 +1606,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1613,15 +1660,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,41 +1696,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1702,148 +1705,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4061,8 +4064,8 @@
   <sheetPr/>
   <dimension ref="D7:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4826,7 +4829,7 @@
         <v>182</v>
       </c>
       <c r="G98" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="6:7">
@@ -4834,7 +4837,7 @@
         <v>182</v>
       </c>
       <c r="G99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="6:7">
@@ -4842,7 +4845,7 @@
         <v>182</v>
       </c>
       <c r="G100" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="6:7">
@@ -4850,7 +4853,7 @@
         <v>182</v>
       </c>
       <c r="G101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="6:7">
@@ -4858,7 +4861,7 @@
         <v>182</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="6:7">
@@ -4866,7 +4869,7 @@
         <v>182</v>
       </c>
       <c r="G103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="6:7">
@@ -4874,7 +4877,7 @@
         <v>182</v>
       </c>
       <c r="G104" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="6:7">
@@ -4882,7 +4885,7 @@
         <v>182</v>
       </c>
       <c r="G105" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="6:7">
@@ -4890,7 +4893,7 @@
         <v>184</v>
       </c>
       <c r="G106" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="6:7">
@@ -4898,7 +4901,7 @@
         <v>184</v>
       </c>
       <c r="G107" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="6:7">
@@ -4906,7 +4909,7 @@
         <v>184</v>
       </c>
       <c r="G108" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="6:8">
@@ -4925,7 +4928,7 @@
         <v>188</v>
       </c>
       <c r="G110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -4936,7 +4939,7 @@
         <v>188</v>
       </c>
       <c r="G111" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -4947,7 +4950,7 @@
         <v>188</v>
       </c>
       <c r="G112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -4958,7 +4961,7 @@
         <v>188</v>
       </c>
       <c r="G113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -4969,7 +4972,7 @@
         <v>188</v>
       </c>
       <c r="G114" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -4980,7 +4983,7 @@
         <v>188</v>
       </c>
       <c r="G115" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -4991,7 +4994,7 @@
         <v>188</v>
       </c>
       <c r="G116" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -5002,7 +5005,7 @@
         <v>189</v>
       </c>
       <c r="G117" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -5013,7 +5016,7 @@
         <v>189</v>
       </c>
       <c r="G118" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -5024,7 +5027,7 @@
         <v>189</v>
       </c>
       <c r="G119" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -5035,7 +5038,7 @@
         <v>195</v>
       </c>
       <c r="G120" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="6:7">
@@ -5043,7 +5046,7 @@
         <v>195</v>
       </c>
       <c r="G121" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="6:7">
@@ -5051,7 +5054,7 @@
         <v>195</v>
       </c>
       <c r="G122" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="6:7">
@@ -5059,7 +5062,7 @@
         <v>195</v>
       </c>
       <c r="G123" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="6:7">
@@ -5067,7 +5070,7 @@
         <v>199</v>
       </c>
       <c r="G124" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="6:7">
@@ -5075,7 +5078,7 @@
         <v>203</v>
       </c>
       <c r="G125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="6:7">
@@ -5083,7 +5086,7 @@
         <v>207</v>
       </c>
       <c r="G126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="6:7">
@@ -5091,7 +5094,7 @@
         <v>207</v>
       </c>
       <c r="G127" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="6:8">
@@ -5099,7 +5102,7 @@
         <v>103</v>
       </c>
       <c r="G128" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -5110,7 +5113,7 @@
         <v>103</v>
       </c>
       <c r="G129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -5121,7 +5124,7 @@
         <v>103</v>
       </c>
       <c r="G130" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5132,7 +5135,7 @@
         <v>103</v>
       </c>
       <c r="G131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5143,7 +5146,7 @@
         <v>103</v>
       </c>
       <c r="G132" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -5186,7 +5189,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -5195,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>88</v>
@@ -5204,13 +5207,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
@@ -5219,24 +5222,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5245,19 +5248,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5272,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5280,31 +5283,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5319,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5327,10 +5330,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5339,22 +5342,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5366,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5374,34 +5377,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5413,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5421,34 +5424,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5460,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5468,34 +5471,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5507,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5515,34 +5518,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5554,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5562,34 +5565,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5601,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5635,56 +5638,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5715,24 +5718,24 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -5754,7 +5757,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -5765,7 +5768,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -5776,7 +5779,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -5787,7 +5790,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -5820,7 +5823,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -5831,7 +5834,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -5842,40 +5845,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -5886,7 +5889,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -5897,7 +5900,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="408">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -995,6 +995,9 @@
     <t>iam-service.password-policy.update</t>
   </si>
   <si>
+    <t>iam-service.organization.updateOnOrganizationLevel</t>
+  </si>
+  <si>
     <t>iam-service.organization.queryOrgLevel</t>
   </si>
   <si>
@@ -1287,8 +1290,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1318,6 +1321,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1333,21 +1350,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1355,14 +1357,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,23 +1387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,33 +1419,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,6 +1441,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
@@ -1483,25 +1486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,37 +1516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,19 +1564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,37 +1600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,13 +1630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,13 +1654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,30 +1695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1733,9 +1712,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1755,26 +1736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1789,151 +1750,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3078,8 +3081,8 @@
   <sheetPr/>
   <dimension ref="D7:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4149,10 +4152,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H165"/>
+  <dimension ref="D7:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -5041,7 +5044,7 @@
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G114" t="s">
         <v>313</v>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G126" t="s">
         <v>325</v>
@@ -5233,7 +5236,7 @@
     </row>
     <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G138" t="s">
         <v>337</v>
@@ -5255,15 +5258,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="141" spans="6:8">
+    <row r="141" spans="6:7">
       <c r="F141" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G141" t="s">
-        <v>239</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" spans="6:8">
@@ -5271,7 +5271,7 @@
         <v>188</v>
       </c>
       <c r="G142" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5315,7 +5315,7 @@
         <v>188</v>
       </c>
       <c r="G146" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>188</v>
       </c>
       <c r="G148" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="149" spans="6:8">
       <c r="F149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G149" t="s">
         <v>337</v>
@@ -5376,12 +5376,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="6:7">
+    <row r="152" spans="6:8">
       <c r="F152" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G152" t="s">
         <v>340</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="6:7">
@@ -5418,7 +5421,7 @@
     </row>
     <row r="157" spans="6:7">
       <c r="F157" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G157" t="s">
         <v>345</v>
@@ -5426,7 +5429,7 @@
     </row>
     <row r="158" spans="6:7">
       <c r="F158" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G158" t="s">
         <v>346</v>
@@ -5434,7 +5437,7 @@
     </row>
     <row r="159" spans="6:7">
       <c r="F159" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G159" t="s">
         <v>347</v>
@@ -5448,15 +5451,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="6:8">
+    <row r="161" spans="6:7">
       <c r="F161" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="G161" t="s">
         <v>349</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
       </c>
     </row>
     <row r="162" spans="6:8">
@@ -5500,6 +5500,17 @@
         <v>353</v>
       </c>
       <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8">
+      <c r="F166" t="s">
+        <v>103</v>
+      </c>
+      <c r="G166" t="s">
+        <v>354</v>
+      </c>
+      <c r="H166">
         <v>1</v>
       </c>
     </row>
@@ -5540,7 +5551,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -5549,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>88</v>
@@ -5558,13 +5569,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
@@ -5573,24 +5584,24 @@
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -5599,19 +5610,19 @@
         <v>185</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>67</v>
@@ -5626,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5634,31 +5645,31 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>198</v>
@@ -5673,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5681,10 +5692,10 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>167</v>
@@ -5693,22 +5704,22 @@
         <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -5720,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5728,34 +5739,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O11" s="2">
         <v>3</v>
@@ -5767,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5775,34 +5786,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
@@ -5814,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5822,34 +5833,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
@@ -5861,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5869,34 +5880,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O14" s="2">
         <v>9</v>
@@ -5908,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -5916,34 +5927,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -5955,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5989,56 +6000,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -6069,24 +6080,24 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G8" t="s">
         <v>141</v>
@@ -6097,7 +6108,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -6108,7 +6119,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G10" t="s">
         <v>149</v>
@@ -6119,7 +6130,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -6130,7 +6141,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
@@ -6141,7 +6152,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -6152,7 +6163,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -6163,7 +6174,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -6174,7 +6185,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G16" t="s">
         <v>170</v>
@@ -6185,7 +6196,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -6196,40 +6207,40 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G19" t="s">
         <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G20" t="s">
         <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -6240,7 +6251,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G22" t="s">
         <v>182</v>
@@ -6251,7 +6262,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="800" activeTab="2"/>
+    <workbookView windowHeight="16900" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>授权管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.role</t>
+  </si>
+  <si>
+    <t>组织角色管理路由</t>
   </si>
   <si>
     <t>IAM_MENU_B</t>
@@ -692,6 +698,15 @@
     <t>token</t>
   </si>
   <si>
+    <t>choerodon.code.rentsetting.role</t>
+  </si>
+  <si>
+    <t>组织角色管理</t>
+  </si>
+  <si>
+    <t>Organization Role</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -1122,6 +1137,36 @@
   </si>
   <si>
     <t>iam-service.organization.update</t>
+  </si>
+  <si>
+    <t>iam-service.organization-role.create</t>
+  </si>
+  <si>
+    <t>iam-service.organization-role.check</t>
+  </si>
+  <si>
+    <t>iam-service.organization-role.pagingQuery</t>
+  </si>
+  <si>
+    <t>iam-service.organization-role.queryById</t>
+  </si>
+  <si>
+    <t>iam-service.organization-role.update</t>
+  </si>
+  <si>
+    <t>iam-service.organization-role.disable</t>
+  </si>
+  <si>
+    <t>iam-service.organization-role.enable</t>
+  </si>
+  <si>
+    <t>iam-service.menu.orgMenuConfig</t>
+  </si>
+  <si>
+    <t>iam-service.label.listByTypeAtOrg</t>
+  </si>
+  <si>
+    <t>iam-service.permission.queryByRoleIdsAtOrg</t>
   </si>
   <si>
     <t>IAM_DASHBOARD</t>
@@ -1289,11 +1334,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1317,28 +1362,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="华文宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,14 +1386,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,17 +1431,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,17 +1456,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1419,8 +1484,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,13 +1507,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1448,27 +1515,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1486,7 +1536,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,19 +1668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,31 +1680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,103 +1704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,17 +1745,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,6 +1770,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,25 +1805,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1769,237 +1828,231 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2266,98 +2319,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:O32"/>
+  <dimension ref="D7:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="38.8857142857143" customWidth="1"/>
-    <col min="7" max="7" width="37.2190476190476" customWidth="1"/>
+    <col min="6" max="6" width="38.8823529411765" customWidth="1"/>
+    <col min="7" max="7" width="37.2205882352941" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.2190476190476" customWidth="1"/>
+    <col min="10" max="10" width="14.2205882352941" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="18.7809523809524" customWidth="1"/>
-    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
+    <col min="13" max="13" width="18.7794117647059" customWidth="1"/>
+    <col min="14" max="14" width="19.3308823529412" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
-      <c r="D7" s="3" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="4:15">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" ht="12.75" customHeight="1" spans="4:15">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3063,6 +3116,35 @@
         <v>1</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>0</v>
       </c>
     </row>
@@ -3077,126 +3159,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:Q38"/>
+  <dimension ref="D7:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="15.2190476190476" customWidth="1"/>
-    <col min="6" max="6" width="46.7809523809524" customWidth="1"/>
-    <col min="7" max="7" width="16.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="15.2205882352941" customWidth="1"/>
+    <col min="6" max="6" width="46.7794117647059" customWidth="1"/>
+    <col min="7" max="7" width="16.7794117647059" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="63.8857142857143" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="29.2190476190476" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
+    <col min="9" max="9" width="63.8823529411765" customWidth="1"/>
+    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
+    <col min="11" max="11" width="29.2205882352941" customWidth="1"/>
+    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
+    <col min="14" max="14" width="26.3382352941176" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:17">
-      <c r="D7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:17">
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="L7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:15">
-      <c r="F8" s="3" t="s">
-        <v>97</v>
+    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+      <c r="F8" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="6:17">
-      <c r="F9" s="4" t="s">
-        <v>103</v>
+    <row r="9" ht="12.75" customHeight="1" spans="6:17">
+      <c r="F9" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>106</v>
+      <c r="J9" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -3207,13 +3290,13 @@
     </row>
     <row r="10" spans="6:15">
       <c r="F10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -3222,16 +3305,16 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -3239,13 +3322,13 @@
     </row>
     <row r="11" spans="6:15">
       <c r="F11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -3254,16 +3337,16 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O11">
         <v>80</v>
@@ -3271,13 +3354,13 @@
     </row>
     <row r="12" spans="6:15">
       <c r="F12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -3286,16 +3369,16 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O12">
         <v>50</v>
@@ -3303,13 +3386,13 @@
     </row>
     <row r="13" spans="6:15">
       <c r="F13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
@@ -3318,16 +3401,16 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O13">
         <v>40</v>
@@ -3335,13 +3418,13 @@
     </row>
     <row r="14" spans="6:15">
       <c r="F14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
@@ -3350,16 +3433,16 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O14">
         <v>60</v>
@@ -3367,13 +3450,13 @@
     </row>
     <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
         <v>33</v>
@@ -3382,16 +3465,16 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s">
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O15">
         <v>70</v>
@@ -3399,13 +3482,13 @@
     </row>
     <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
@@ -3414,16 +3497,16 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O16">
         <v>90</v>
@@ -3431,13 +3514,13 @@
     </row>
     <row r="17" spans="6:17">
       <c r="F17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
@@ -3446,16 +3529,16 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s">
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -3466,28 +3549,28 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -3495,13 +3578,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
         <v>42</v>
@@ -3510,16 +3593,16 @@
         <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O19">
         <v>40</v>
@@ -3527,13 +3610,13 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -3542,16 +3625,16 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O20">
         <v>20</v>
@@ -3559,13 +3642,13 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
@@ -3574,16 +3657,16 @@
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s">
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O21">
         <v>30</v>
@@ -3591,13 +3674,13 @@
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
         <v>51</v>
@@ -3606,16 +3689,16 @@
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s">
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O22">
         <v>60</v>
@@ -3623,13 +3706,13 @@
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
         <v>54</v>
@@ -3638,16 +3721,16 @@
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O23">
         <v>70</v>
@@ -3655,13 +3738,13 @@
     </row>
     <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I24" t="s">
         <v>57</v>
@@ -3670,16 +3753,16 @@
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O24">
         <v>80</v>
@@ -3687,13 +3770,13 @@
     </row>
     <row r="25" spans="6:15">
       <c r="F25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I25" t="s">
         <v>60</v>
@@ -3702,16 +3785,16 @@
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O25">
         <v>10</v>
@@ -3719,28 +3802,28 @@
     </row>
     <row r="26" spans="6:15">
       <c r="F26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s">
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O26">
         <v>40</v>
@@ -3748,13 +3831,13 @@
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
         <v>63</v>
@@ -3763,16 +3846,16 @@
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s">
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O27">
         <v>10</v>
@@ -3780,28 +3863,28 @@
     </row>
     <row r="28" spans="6:15">
       <c r="F28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s">
         <v>67</v>
       </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O28">
         <v>90</v>
@@ -3809,13 +3892,13 @@
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I29" t="s">
         <v>66</v>
@@ -3824,16 +3907,16 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s">
         <v>67</v>
       </c>
       <c r="M29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O29">
         <v>20</v>
@@ -3841,13 +3924,13 @@
     </row>
     <row r="30" spans="6:15">
       <c r="F30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I30" t="s">
         <v>69</v>
@@ -3856,16 +3939,16 @@
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s">
         <v>67</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O30">
         <v>10</v>
@@ -3873,34 +3956,34 @@
     </row>
     <row r="31" spans="6:17">
       <c r="F31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s">
         <v>67</v>
       </c>
       <c r="M31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O31">
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3908,13 +3991,13 @@
     </row>
     <row r="32" spans="6:17">
       <c r="F32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
         <v>72</v>
@@ -3923,22 +4006,22 @@
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s">
         <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O32">
         <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -3946,13 +4029,13 @@
     </row>
     <row r="33" spans="6:17">
       <c r="F33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
@@ -3961,22 +4044,22 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s">
         <v>67</v>
       </c>
       <c r="M33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O33">
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3984,28 +4067,28 @@
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L34" t="s">
         <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O34">
         <v>10</v>
@@ -4013,13 +4096,13 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I35" t="s">
         <v>74</v>
@@ -4028,16 +4111,16 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s">
         <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -4045,13 +4128,13 @@
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I36" t="s">
         <v>78</v>
@@ -4060,16 +4143,16 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s">
         <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O36">
         <v>20</v>
@@ -4077,13 +4160,13 @@
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
         <v>81</v>
@@ -4092,16 +4175,16 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s">
         <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O37">
         <v>30</v>
@@ -4109,13 +4192,13 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I38" t="s">
         <v>84</v>
@@ -4124,19 +4207,51 @@
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s">
         <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O38">
         <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15">
+      <c r="F39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O39" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4150,412 +4265,412 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:H166"/>
+  <dimension ref="D7:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="6" max="6" width="49.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="23.7794117647059" customWidth="1"/>
+    <col min="6" max="6" width="49.1397058823529" customWidth="1"/>
     <col min="7" max="7" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
-      <c r="D7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="3" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:8">
+      <c r="D7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G49" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G50" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G52" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -4563,10 +4678,10 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G55" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -4574,10 +4689,10 @@
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G56" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -4585,10 +4700,10 @@
     </row>
     <row r="57" spans="6:8">
       <c r="F57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -4596,682 +4711,682 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G61" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G62" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G66" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G68" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G69" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G70" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G71" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G74" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G75" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G76" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G77" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G78" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G79" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G80" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G81" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G82" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G83" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G84" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G85" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G86" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G88" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G89" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G91" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G92" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G93" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G94" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G95" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G96" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G97" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G98" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G99" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G100" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G101" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G102" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G104" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G105" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G106" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G108" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G109" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G110" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G111" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G112" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G113" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G114" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G115" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G116" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G117" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G118" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G119" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G120" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G121" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G122" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G123" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G124" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G125" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G126" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="6:7">
       <c r="F127" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G127" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="6:7">
       <c r="F128" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G128" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="6:7">
       <c r="F129" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G129" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="6:7">
       <c r="F130" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G130" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="6:7">
       <c r="F131" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G131" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="6:7">
       <c r="F132" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G132" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="6:7">
       <c r="F133" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G133" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="6:7">
       <c r="F134" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G134" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="6:7">
       <c r="F135" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G135" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="6:7">
       <c r="F136" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G136" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137" spans="6:7">
       <c r="F137" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G137" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G138" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="6:7">
       <c r="F139" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G139" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="6:7">
       <c r="F140" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G140" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141" spans="6:7">
       <c r="F141" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G141" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="6:8">
       <c r="F142" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G142" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5279,10 +5394,10 @@
     </row>
     <row r="143" spans="6:8">
       <c r="F143" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G143" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -5290,10 +5405,10 @@
     </row>
     <row r="144" spans="6:8">
       <c r="F144" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G144" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -5301,10 +5416,10 @@
     </row>
     <row r="145" spans="6:8">
       <c r="F145" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G145" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -5312,10 +5427,10 @@
     </row>
     <row r="146" spans="6:8">
       <c r="F146" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G146" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5323,10 +5438,10 @@
     </row>
     <row r="147" spans="6:8">
       <c r="F147" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G147" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -5334,10 +5449,10 @@
     </row>
     <row r="148" spans="6:8">
       <c r="F148" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G148" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5345,10 +5460,10 @@
     </row>
     <row r="149" spans="6:8">
       <c r="F149" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G149" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -5356,10 +5471,10 @@
     </row>
     <row r="150" spans="6:8">
       <c r="F150" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G150" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -5367,10 +5482,10 @@
     </row>
     <row r="151" spans="6:8">
       <c r="F151" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G151" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -5378,10 +5493,10 @@
     </row>
     <row r="152" spans="6:8">
       <c r="F152" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G152" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -5389,82 +5504,82 @@
     </row>
     <row r="153" spans="6:7">
       <c r="F153" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G153" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" spans="6:7">
       <c r="F154" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G154" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="6:7">
       <c r="F155" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G155" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="6:7">
       <c r="F156" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G156" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="6:7">
       <c r="F157" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G157" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="6:7">
       <c r="F158" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G158" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="6:7">
       <c r="F159" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G159" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160" spans="6:7">
       <c r="F160" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G160" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="6:7">
       <c r="F161" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G161" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="6:8">
       <c r="F162" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G162" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -5472,10 +5587,10 @@
     </row>
     <row r="163" spans="6:8">
       <c r="F163" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G163" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -5483,10 +5598,10 @@
     </row>
     <row r="164" spans="6:8">
       <c r="F164" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G164" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -5494,10 +5609,10 @@
     </row>
     <row r="165" spans="6:8">
       <c r="F165" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G165" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5505,13 +5620,93 @@
     </row>
     <row r="166" spans="6:8">
       <c r="F166" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G166" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H166">
         <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="6:7">
+      <c r="F167" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G167" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="6:7">
+      <c r="F168" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G168" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="169" spans="6:7">
+      <c r="F169" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G169" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="170" spans="6:7">
+      <c r="F170" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G170" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="6:7">
+      <c r="F171" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G171" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="172" spans="6:7">
+      <c r="F172" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G172" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="173" spans="6:7">
+      <c r="F173" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G173" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7">
+      <c r="F174" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G174" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="6:7">
+      <c r="F175" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G175" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="6:7">
+      <c r="F176" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G176" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5525,7 +5720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:U15"/>
   <sheetViews>
@@ -5533,440 +5728,440 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.2190476190476" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.2190476190476" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.4380952380952" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.8857142857143" style="2" customWidth="1"/>
-    <col min="9" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.4380952380952" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.6571428571429" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.6571428571429" style="2" customWidth="1"/>
-    <col min="14" max="17" width="11.6571428571429" style="2" customWidth="1"/>
-    <col min="18" max="18" width="46.3333333333333" style="2" customWidth="1"/>
-    <col min="19" max="1025" width="11.6571428571429" style="2" customWidth="1"/>
+    <col min="1" max="3" width="11.6544117647059" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.2205882352941" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.2205882352941" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.4411764705882" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.8823529411765" style="3" customWidth="1"/>
+    <col min="9" max="10" width="24" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.4411764705882" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6544117647059" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.6544117647059" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.6544117647059" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.3308823529412" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.6544117647059" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
-      <c r="D7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="G7" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>363</v>
+      <c r="N7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="5:21">
-      <c r="E8" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>5</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>367</v>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
     </row>
     <row r="9" spans="5:21">
-      <c r="E9" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="M9" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>4</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>367</v>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
     </row>
     <row r="10" spans="5:21">
-      <c r="E10" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="M10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O10" s="3">
         <v>6</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>367</v>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
     </row>
     <row r="11" spans="5:21">
-      <c r="E11" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="M11" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O11" s="3">
         <v>3</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>378</v>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
     </row>
     <row r="12" spans="5:21">
-      <c r="E12" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="M12" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O12" s="3">
         <v>11</v>
       </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>383</v>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
     </row>
     <row r="13" spans="5:21">
-      <c r="E13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>365</v>
+      <c r="E13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="M13" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O13" s="3">
         <v>12</v>
       </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>387</v>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
     </row>
     <row r="14" spans="5:21">
-      <c r="E14" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="M14" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="O14" s="3">
         <v>9</v>
       </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>392</v>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
     </row>
     <row r="15" spans="5:21">
-      <c r="E15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="M15" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="O15" s="3">
         <v>10</v>
       </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>397</v>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -5980,7 +6175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G12"/>
   <sheetViews>
@@ -5988,68 +6183,68 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" style="2"/>
-    <col min="4" max="4" width="22.2190476190476" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" style="2"/>
-    <col min="6" max="6" width="24.4380952380952" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.4380952380952" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="11.552380952381" style="2"/>
+    <col min="1" max="3" width="11.5514705882353" style="3"/>
+    <col min="4" max="4" width="22.2205882352941" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5514705882353" style="3"/>
+    <col min="6" max="6" width="24.4411764705882" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.4411764705882" style="3" customWidth="1"/>
+    <col min="8" max="1025" width="11.5514705882353" style="3"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
-      <c r="D7" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7">
-      <c r="F9" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>401</v>
+      <c r="G10" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>401</v>
+      <c r="F11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>401</v>
+      <c r="F12" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -6060,47 +6255,47 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D6:H26"/>
+  <dimension ref="D6:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88235294117647" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="34.2190476190476" customWidth="1"/>
-    <col min="5" max="5" width="18.8857142857143" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="38.552380952381" customWidth="1"/>
-    <col min="8" max="8" width="16.8857142857143" customWidth="1"/>
+    <col min="4" max="4" width="34.2205882352941" customWidth="1"/>
+    <col min="5" max="5" width="18.8823529411765" customWidth="1"/>
+    <col min="6" max="6" width="15.3308823529412" customWidth="1"/>
+    <col min="7" max="7" width="38.5514705882353" customWidth="1"/>
+    <col min="8" max="8" width="16.8823529411765" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="13.5"/>
+    <row r="6" ht="14.75"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
@@ -6108,10 +6303,10 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -6119,10 +6314,10 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -6130,10 +6325,10 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -6141,10 +6336,10 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
@@ -6152,10 +6347,10 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -6163,10 +6358,10 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -6174,10 +6369,10 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H15" t="s">
         <v>44</v>
@@ -6185,10 +6380,10 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
@@ -6196,10 +6391,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
         <v>44</v>
@@ -6207,43 +6402,43 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H18" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -6251,10 +6446,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H22" t="s">
         <v>67</v>
@@ -6262,10 +6457,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -6273,10 +6468,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
         <v>67</v>
@@ -6284,10 +6479,10 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
         <v>67</v>
@@ -6295,13 +6490,24 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16900" tabRatio="800" activeTab="2"/>
+    <workbookView windowHeight="14540" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>choerodon.route.rentsetting.role</t>
+  </si>
+  <si>
+    <t>/iam/org-role</t>
   </si>
   <si>
     <t>组织角色管理路由</t>
@@ -1333,10 +1336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1372,13 +1375,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1392,6 +1388,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1400,8 +1403,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1424,33 +1428,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1469,6 +1450,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1476,24 +1473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,7 +1498,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,7 +1551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,13 +1563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,7 +1587,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,133 +1719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,8 +1751,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1758,33 +1761,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1805,24 +1782,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1842,100 +1821,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1944,49 +1947,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2323,8 +2326,8 @@
   <sheetPr/>
   <dimension ref="D7:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3124,7 +3127,7 @@
         <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -3133,7 +3136,7 @@
         <v>44</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -3182,7 +3185,7 @@
   <sheetData>
     <row r="7" ht="12.75" customHeight="1" spans="4:17">
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -3191,34 +3194,34 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>11</v>
@@ -3226,28 +3229,28 @@
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="6:15">
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8">
         <v>10</v>
@@ -3255,31 +3258,31 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="6:17">
       <c r="F9" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -3290,13 +3293,13 @@
     </row>
     <row r="10" spans="6:15">
       <c r="F10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -3305,16 +3308,16 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -3322,13 +3325,13 @@
     </row>
     <row r="11" spans="6:15">
       <c r="F11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -3337,16 +3340,16 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O11">
         <v>80</v>
@@ -3354,13 +3357,13 @@
     </row>
     <row r="12" spans="6:15">
       <c r="F12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -3369,16 +3372,16 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O12">
         <v>50</v>
@@ -3386,13 +3389,13 @@
     </row>
     <row r="13" spans="6:15">
       <c r="F13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
@@ -3401,16 +3404,16 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13">
         <v>40</v>
@@ -3418,13 +3421,13 @@
     </row>
     <row r="14" spans="6:15">
       <c r="F14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
@@ -3433,16 +3436,16 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14">
         <v>60</v>
@@ -3450,13 +3453,13 @@
     </row>
     <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
         <v>33</v>
@@ -3465,16 +3468,16 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O15">
         <v>70</v>
@@ -3482,13 +3485,13 @@
     </row>
     <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
@@ -3497,16 +3500,16 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O16">
         <v>90</v>
@@ -3514,13 +3517,13 @@
     </row>
     <row r="17" spans="6:17">
       <c r="F17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
@@ -3529,16 +3532,16 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -3549,28 +3552,28 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -3578,13 +3581,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
         <v>42</v>
@@ -3593,16 +3596,16 @@
         <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O19">
         <v>40</v>
@@ -3610,13 +3613,13 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -3625,16 +3628,16 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O20">
         <v>20</v>
@@ -3642,13 +3645,13 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
@@ -3657,16 +3660,16 @@
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s">
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O21">
         <v>30</v>
@@ -3674,13 +3677,13 @@
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I22" t="s">
         <v>51</v>
@@ -3689,16 +3692,16 @@
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s">
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O22">
         <v>60</v>
@@ -3706,13 +3709,13 @@
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
         <v>54</v>
@@ -3721,16 +3724,16 @@
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L23" t="s">
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O23">
         <v>70</v>
@@ -3738,13 +3741,13 @@
     </row>
     <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
         <v>57</v>
@@ -3753,16 +3756,16 @@
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O24">
         <v>80</v>
@@ -3770,13 +3773,13 @@
     </row>
     <row r="25" spans="6:15">
       <c r="F25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I25" t="s">
         <v>60</v>
@@ -3785,16 +3788,16 @@
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O25">
         <v>10</v>
@@ -3802,28 +3805,28 @@
     </row>
     <row r="26" spans="6:15">
       <c r="F26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s">
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O26">
         <v>40</v>
@@ -3831,13 +3834,13 @@
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I27" t="s">
         <v>63</v>
@@ -3846,16 +3849,16 @@
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s">
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O27">
         <v>10</v>
@@ -3863,28 +3866,28 @@
     </row>
     <row r="28" spans="6:15">
       <c r="F28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
       </c>
       <c r="K28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s">
         <v>67</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O28">
         <v>90</v>
@@ -3892,13 +3895,13 @@
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>66</v>
@@ -3907,16 +3910,16 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
         <v>67</v>
       </c>
       <c r="M29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O29">
         <v>20</v>
@@ -3924,13 +3927,13 @@
     </row>
     <row r="30" spans="6:15">
       <c r="F30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I30" t="s">
         <v>69</v>
@@ -3939,16 +3942,16 @@
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
         <v>67</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O30">
         <v>10</v>
@@ -3956,34 +3959,34 @@
     </row>
     <row r="31" spans="6:17">
       <c r="F31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s">
         <v>67</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O31">
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3991,13 +3994,13 @@
     </row>
     <row r="32" spans="6:17">
       <c r="F32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>72</v>
@@ -4006,22 +4009,22 @@
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L32" t="s">
         <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O32">
         <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -4029,13 +4032,13 @@
     </row>
     <row r="33" spans="6:17">
       <c r="F33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
@@ -4044,22 +4047,22 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L33" t="s">
         <v>67</v>
       </c>
       <c r="M33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O33">
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -4067,28 +4070,28 @@
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L34" t="s">
         <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O34">
         <v>10</v>
@@ -4096,13 +4099,13 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I35" t="s">
         <v>74</v>
@@ -4111,16 +4114,16 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s">
         <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -4128,13 +4131,13 @@
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
         <v>78</v>
@@ -4143,16 +4146,16 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s">
         <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O36">
         <v>20</v>
@@ -4160,13 +4163,13 @@
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
         <v>81</v>
@@ -4175,16 +4178,16 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s">
         <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O37">
         <v>30</v>
@@ -4192,13 +4195,13 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I38" t="s">
         <v>84</v>
@@ -4207,16 +4210,16 @@
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s">
         <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O38">
         <v>40</v>
@@ -4224,13 +4227,13 @@
     </row>
     <row r="39" spans="6:15">
       <c r="F39" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>87</v>
@@ -4239,16 +4242,16 @@
         <v>14</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="2">
         <v>25</v>
@@ -4269,7 +4272,7 @@
   <sheetPr/>
   <dimension ref="D7:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
@@ -4282,16 +4285,16 @@
   <sheetData>
     <row r="7" ht="12.75" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -4299,378 +4302,378 @@
     </row>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -4678,10 +4681,10 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -4689,10 +4692,10 @@
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -4700,10 +4703,10 @@
     </row>
     <row r="57" spans="6:8">
       <c r="F57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -4711,682 +4714,682 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G102" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G105" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G107" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G112" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G115" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G117" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G118" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G119" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G120" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G121" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G124" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G125" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G126" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="6:7">
       <c r="F127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G127" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="6:7">
       <c r="F128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G128" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="6:7">
       <c r="F129" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G129" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="130" spans="6:7">
       <c r="F130" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G130" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="6:7">
       <c r="F131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G131" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="6:7">
       <c r="F132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G132" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="6:7">
       <c r="F133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G133" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="6:7">
       <c r="F134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G134" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="6:7">
       <c r="F135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G135" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="6:7">
       <c r="F136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G136" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="6:7">
       <c r="F137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G137" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="6:7">
       <c r="F139" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G139" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="6:7">
       <c r="F140" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="6:7">
       <c r="F141" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G141" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="6:8">
       <c r="F142" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5394,10 +5397,10 @@
     </row>
     <row r="143" spans="6:8">
       <c r="F143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G143" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -5405,10 +5408,10 @@
     </row>
     <row r="144" spans="6:8">
       <c r="F144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G144" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -5416,10 +5419,10 @@
     </row>
     <row r="145" spans="6:8">
       <c r="F145" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G145" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -5427,10 +5430,10 @@
     </row>
     <row r="146" spans="6:8">
       <c r="F146" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G146" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5438,10 +5441,10 @@
     </row>
     <row r="147" spans="6:8">
       <c r="F147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G147" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -5449,10 +5452,10 @@
     </row>
     <row r="148" spans="6:8">
       <c r="F148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G148" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5460,10 +5463,10 @@
     </row>
     <row r="149" spans="6:8">
       <c r="F149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G149" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -5471,10 +5474,10 @@
     </row>
     <row r="150" spans="6:8">
       <c r="F150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G150" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -5482,10 +5485,10 @@
     </row>
     <row r="151" spans="6:8">
       <c r="F151" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G151" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -5493,10 +5496,10 @@
     </row>
     <row r="152" spans="6:8">
       <c r="F152" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G152" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -5504,82 +5507,82 @@
     </row>
     <row r="153" spans="6:7">
       <c r="F153" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G153" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="6:7">
       <c r="F154" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G154" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="6:7">
       <c r="F155" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G155" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="6:7">
       <c r="F156" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G156" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="6:7">
       <c r="F157" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G157" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="6:7">
       <c r="F158" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G158" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="6:7">
       <c r="F159" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G159" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="6:7">
       <c r="F160" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="6:7">
       <c r="F161" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="6:8">
       <c r="F162" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G162" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -5587,10 +5590,10 @@
     </row>
     <row r="163" spans="6:8">
       <c r="F163" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G163" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -5598,10 +5601,10 @@
     </row>
     <row r="164" spans="6:8">
       <c r="F164" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G164" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -5609,10 +5612,10 @@
     </row>
     <row r="165" spans="6:8">
       <c r="F165" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G165" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5620,10 +5623,10 @@
     </row>
     <row r="166" spans="6:8">
       <c r="F166" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G166" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -5631,82 +5634,82 @@
     </row>
     <row r="167" spans="6:7">
       <c r="F167" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G167" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="6:7">
       <c r="F168" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="6:7">
       <c r="F169" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G169" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="6:7">
       <c r="F170" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G170" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="6:7">
       <c r="F171" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G171" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="6:7">
       <c r="F172" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G172" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="6:7">
       <c r="F173" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G173" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="174" spans="6:7">
       <c r="F174" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G174" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="6:7">
       <c r="F175" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G175" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="6:7">
       <c r="F176" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G176" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5746,7 +5749,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -5755,69 +5758,69 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="5:21">
       <c r="E8" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>67</v>
@@ -5832,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -5840,34 +5843,34 @@
     </row>
     <row r="9" spans="5:21">
       <c r="E9" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O9" s="3">
         <v>4</v>
@@ -5879,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5887,34 +5890,34 @@
     </row>
     <row r="10" spans="5:21">
       <c r="E10" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O10" s="3">
         <v>6</v>
@@ -5926,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5934,34 +5937,34 @@
     </row>
     <row r="11" spans="5:21">
       <c r="E11" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O11" s="3">
         <v>3</v>
@@ -5973,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -5981,34 +5984,34 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O12" s="3">
         <v>11</v>
@@ -6020,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -6028,34 +6031,34 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O13" s="3">
         <v>12</v>
@@ -6067,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -6075,34 +6078,34 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O14" s="3">
         <v>9</v>
@@ -6114,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -6122,34 +6125,34 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O15" s="3">
         <v>10</v>
@@ -6161,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -6195,56 +6198,56 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6275,27 +6278,27 @@
     <row r="6" ht="14.75"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
@@ -6303,10 +6306,10 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -6314,10 +6317,10 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -6325,10 +6328,10 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -6336,10 +6339,10 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
@@ -6347,10 +6350,10 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -6358,10 +6361,10 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -6369,10 +6372,10 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
         <v>44</v>
@@ -6380,10 +6383,10 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
@@ -6391,10 +6394,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
         <v>44</v>
@@ -6402,43 +6405,43 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -6446,10 +6449,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
         <v>67</v>
@@ -6457,10 +6460,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -6468,10 +6471,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
         <v>67</v>
@@ -6479,10 +6482,10 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H25" t="s">
         <v>67</v>
@@ -6490,10 +6493,10 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -6501,10 +6504,10 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H27" t="s">
         <v>44</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14540" tabRatio="800"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="424">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1336,10 +1336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1375,45 +1375,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1427,40 +1411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,6 +1427,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1482,16 +1457,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1511,10 +1494,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1539,7 +1539,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,13 +1659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,55 +1689,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,91 +1719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,7 +1752,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1761,48 +1761,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1824,9 +1783,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1845,142 +1821,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1989,7 +1950,46 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2008,54 +2008,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2322,30 +2322,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="38.8823529411765" customWidth="1"/>
-    <col min="7" max="7" width="37.2205882352941" customWidth="1"/>
+    <col min="6" max="6" width="38.8857142857143" customWidth="1"/>
+    <col min="7" max="7" width="37.2190476190476" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.2205882352941" customWidth="1"/>
+    <col min="10" max="10" width="14.2190476190476" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
-    <col min="13" max="13" width="18.7794117647059" customWidth="1"/>
-    <col min="14" max="14" width="19.3308823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
+    <col min="13" max="13" width="18.7809523809524" customWidth="1"/>
+    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="4:15">
+    <row r="8" customHeight="1" spans="4:15">
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
@@ -3162,7 +3162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:Q39"/>
   <sheetViews>
@@ -3170,20 +3170,20 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="15.2205882352941" customWidth="1"/>
-    <col min="6" max="6" width="46.7794117647059" customWidth="1"/>
-    <col min="7" max="7" width="16.7794117647059" customWidth="1"/>
+    <col min="4" max="4" width="15.2190476190476" customWidth="1"/>
+    <col min="6" max="6" width="46.7809523809524" customWidth="1"/>
+    <col min="7" max="7" width="16.7809523809524" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="63.8823529411765" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
-    <col min="11" max="11" width="29.2205882352941" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
-    <col min="14" max="14" width="26.3382352941176" customWidth="1"/>
+    <col min="9" max="9" width="63.8857142857143" customWidth="1"/>
+    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
+    <col min="11" max="11" width="29.2190476190476" customWidth="1"/>
+    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
+    <col min="14" max="14" width="26.3428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:17">
+    <row r="7" customHeight="1" spans="4:17">
       <c r="D7" s="4" t="s">
         <v>90</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+    <row r="8" customHeight="1" spans="6:15">
       <c r="F8" s="4" t="s">
         <v>100</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="6:17">
+    <row r="9" customHeight="1" spans="6:17">
       <c r="F9" s="5" t="s">
         <v>106</v>
       </c>
@@ -4268,22 +4268,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:H176"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="23.7794117647059" customWidth="1"/>
-    <col min="6" max="6" width="49.1397058823529" customWidth="1"/>
+    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
+    <col min="6" max="6" width="49.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:8">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
         <v>217</v>
       </c>
@@ -4736,12 +4736,15 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="6:7">
+    <row r="61" spans="6:8">
       <c r="F61" t="s">
         <v>148</v>
       </c>
       <c r="G61" t="s">
         <v>267</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="6:7">
@@ -5723,7 +5726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:U15"/>
   <sheetViews>
@@ -5731,20 +5734,20 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.6544117647059" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.2205882352941" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.2205882352941" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.4411764705882" style="3" customWidth="1"/>
-    <col min="7" max="8" width="23.8823529411765" style="3" customWidth="1"/>
+    <col min="1" max="3" width="11.6571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.2190476190476" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.2190476190476" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.4380952380952" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.8857142857143" style="3" customWidth="1"/>
     <col min="9" max="10" width="24" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.4411764705882" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.6544117647059" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.6544117647059" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.6544117647059" style="3" customWidth="1"/>
-    <col min="18" max="18" width="46.3308823529412" style="3" customWidth="1"/>
-    <col min="19" max="1025" width="11.6544117647059" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.4380952380952" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6571428571429" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.6571428571429" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.6571428571429" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.3333333333333" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.6571428571429" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
@@ -6178,7 +6181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:G12"/>
   <sheetViews>
@@ -6186,14 +6189,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.5514705882353" style="3"/>
-    <col min="4" max="4" width="22.2205882352941" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5514705882353" style="3"/>
-    <col min="6" max="6" width="24.4411764705882" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.4411764705882" style="3" customWidth="1"/>
-    <col min="8" max="1025" width="11.5514705882353" style="3"/>
+    <col min="1" max="3" width="11.552380952381" style="3"/>
+    <col min="4" max="4" width="22.2190476190476" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.552380952381" style="3"/>
+    <col min="6" max="6" width="24.4380952380952" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.4380952380952" style="3" customWidth="1"/>
+    <col min="8" max="1025" width="11.552380952381" style="3"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
@@ -6258,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D6:H27"/>
   <sheetViews>
@@ -6266,16 +6269,16 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88235294117647" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="34.2205882352941" customWidth="1"/>
-    <col min="5" max="5" width="18.8823529411765" customWidth="1"/>
-    <col min="6" max="6" width="15.3308823529412" customWidth="1"/>
-    <col min="7" max="7" width="38.5514705882353" customWidth="1"/>
-    <col min="8" max="8" width="16.8823529411765" customWidth="1"/>
+    <col min="4" max="4" width="34.2190476190476" customWidth="1"/>
+    <col min="5" max="5" width="18.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.552380952381" customWidth="1"/>
+    <col min="8" max="8" width="16.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.75"/>
+    <row r="6" ht="13.5"/>
     <row r="7" ht="19.05" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
         <v>418</v>
